--- a/Visible range/valores_VIS.xlsx
+++ b/Visible range/valores_VIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G622"/>
+  <dimension ref="A1:H620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Blueshift</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3rd Derivate (m/s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>265.769522269104</v>
       </c>
+      <c r="H2" t="n">
+        <v>156.7753014878701</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>420.0198343706457</v>
       </c>
+      <c r="H3" t="n">
+        <v>-407.8607373294766</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>308.5350256500976</v>
       </c>
+      <c r="H4" t="n">
+        <v>-295.3610070720058</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +575,9 @@
       <c r="G5" t="n">
         <v>447.5437090595067</v>
       </c>
+      <c r="H5" t="n">
+        <v>-379.3612557120929</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
       <c r="G6" t="n">
         <v>249.3230491164425</v>
       </c>
+      <c r="H6" t="n">
+        <v>52.06844959298504</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +627,9 @@
       <c r="G7" t="n">
         <v>190.5598178486818</v>
       </c>
+      <c r="H7" t="n">
+        <v>59.63682454504528</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +653,9 @@
       <c r="G8" t="n">
         <v>415.2042378173197</v>
       </c>
+      <c r="H8" t="n">
+        <v>-476.8267746825192</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -653,6 +679,9 @@
       <c r="G9" t="n">
         <v>370.7712752136843</v>
       </c>
+      <c r="H9" t="n">
+        <v>-336.8381555566514</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -676,6 +705,9 @@
       <c r="G10" t="n">
         <v>217.9228786601797</v>
       </c>
+      <c r="H10" t="n">
+        <v>10.94795448184218</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -699,6 +731,9 @@
       <c r="G11" t="n">
         <v>428.5502705727201</v>
       </c>
+      <c r="H11" t="n">
+        <v>-188.6218623021746</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -722,6 +757,9 @@
       <c r="G12" t="n">
         <v>587.1398987317552</v>
       </c>
+      <c r="H12" t="n">
+        <v>-2098.843790047127</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -745,6 +783,9 @@
       <c r="G13" t="n">
         <v>449.163690687972</v>
       </c>
+      <c r="H13" t="n">
+        <v>-526.1136507062735</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -768,6 +809,9 @@
       <c r="G14" t="n">
         <v>289.442612441809</v>
       </c>
+      <c r="H14" t="n">
+        <v>28.07678989452829</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -791,6 +835,9 @@
       <c r="G15" t="n">
         <v>578.0749494276197</v>
       </c>
+      <c r="H15" t="n">
+        <v>-1605.332217881285</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -814,6 +861,9 @@
       <c r="G16" t="n">
         <v>382.8181160130652</v>
       </c>
+      <c r="H16" t="n">
+        <v>-516.7327856364243</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -837,6 +887,9 @@
       <c r="G17" t="n">
         <v>252.7505660014645</v>
       </c>
+      <c r="H17" t="n">
+        <v>-54.72650913746838</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -860,6 +913,9 @@
       <c r="G18" t="n">
         <v>605.9808855251404</v>
       </c>
+      <c r="H18" t="n">
+        <v>-1801.877378379529</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -883,6 +939,9 @@
       <c r="G19" t="n">
         <v>209.0983340903004</v>
       </c>
+      <c r="H19" t="n">
+        <v>34.68875564755326</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -906,6 +965,9 @@
       <c r="G20" t="n">
         <v>511.9147185462162</v>
       </c>
+      <c r="H20" t="n">
+        <v>-1081.823025618494</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -929,6 +991,9 @@
       <c r="G21" t="n">
         <v>403.5701657879833</v>
       </c>
+      <c r="H21" t="n">
+        <v>-724.0715531659459</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -952,6 +1017,9 @@
       <c r="G22" t="n">
         <v>265.8201602123155</v>
       </c>
+      <c r="H22" t="n">
+        <v>117.1576378642301</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -975,6 +1043,9 @@
       <c r="G23" t="n">
         <v>538.3155613815759</v>
       </c>
+      <c r="H23" t="n">
+        <v>-1146.284266305855</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -998,6 +1069,9 @@
       <c r="G24" t="n">
         <v>609.1983235401069</v>
       </c>
+      <c r="H24" t="n">
+        <v>-675.0122447497091</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1021,6 +1095,9 @@
       <c r="G25" t="n">
         <v>866.1172752231712</v>
       </c>
+      <c r="H25" t="n">
+        <v>-4016.589699378412</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1044,6 +1121,9 @@
       <c r="G26" t="n">
         <v>823.0206132480077</v>
       </c>
+      <c r="H26" t="n">
+        <v>-235.5128741951771</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1067,6 +1147,9 @@
       <c r="G27" t="n">
         <v>729.350394880863</v>
       </c>
+      <c r="H27" t="n">
+        <v>-2906.870240823707</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1090,6 +1173,9 @@
       <c r="G28" t="n">
         <v>364.259999895956</v>
       </c>
+      <c r="H28" t="n">
+        <v>-567.5714809860821</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1113,6 +1199,9 @@
       <c r="G29" t="n">
         <v>342.4480920311532</v>
       </c>
+      <c r="H29" t="n">
+        <v>-224.4728443127105</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1136,6 +1225,9 @@
       <c r="G30" t="n">
         <v>164.0183127212145</v>
       </c>
+      <c r="H30" t="n">
+        <v>-12.79442904934483</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1159,6 +1251,9 @@
       <c r="G31" t="n">
         <v>242.3012603376983</v>
       </c>
+      <c r="H31" t="n">
+        <v>-202.2419174317971</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1182,6 +1277,9 @@
       <c r="G32" t="n">
         <v>327.6955721519653</v>
       </c>
+      <c r="H32" t="n">
+        <v>-185.6612569245551</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1205,6 +1303,9 @@
       <c r="G33" t="n">
         <v>348.9445278339981</v>
       </c>
+      <c r="H33" t="n">
+        <v>-398.1597732098516</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1228,6 +1329,9 @@
       <c r="G34" t="n">
         <v>369.8652593414868</v>
       </c>
+      <c r="H34" t="n">
+        <v>-337.9480722728394</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1251,6 +1355,9 @@
       <c r="G35" t="n">
         <v>639.7663061169517</v>
       </c>
+      <c r="H35" t="n">
+        <v>-2885.567971059435</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1274,6 +1381,9 @@
       <c r="G36" t="n">
         <v>284.0604516309946</v>
       </c>
+      <c r="H36" t="n">
+        <v>-153.0424718139089</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1297,6 +1407,9 @@
       <c r="G37" t="n">
         <v>624.6560103101266</v>
       </c>
+      <c r="H37" t="n">
+        <v>-1189.946648019532</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1320,6 +1433,9 @@
       <c r="G38" t="n">
         <v>261.9871339873538</v>
       </c>
+      <c r="H38" t="n">
+        <v>32.8952124885171</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1343,6 +1459,9 @@
       <c r="G39" t="n">
         <v>750.4023346596774</v>
       </c>
+      <c r="H39" t="n">
+        <v>-1488.727361370302</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1366,6 +1485,9 @@
       <c r="G40" t="n">
         <v>410.1691831947993</v>
       </c>
+      <c r="H40" t="n">
+        <v>-864.561140739187</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1389,6 +1511,9 @@
       <c r="G41" t="n">
         <v>544.4339672244564</v>
       </c>
+      <c r="H41" t="n">
+        <v>-1711.147684954711</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1412,6 +1537,9 @@
       <c r="G42" t="n">
         <v>325.1666616663467</v>
       </c>
+      <c r="H42" t="n">
+        <v>279.3383829272321</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1435,6 +1563,9 @@
       <c r="G43" t="n">
         <v>373.0237394995142</v>
       </c>
+      <c r="H43" t="n">
+        <v>-146.2755830972573</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1458,6 +1589,9 @@
       <c r="G44" t="n">
         <v>197.0397248583244</v>
       </c>
+      <c r="H44" t="n">
+        <v>110.2235542984829</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1481,6 +1615,9 @@
       <c r="G45" t="n">
         <v>657.868126838672</v>
       </c>
+      <c r="H45" t="n">
+        <v>-1872.996492388451</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1504,6 +1641,9 @@
       <c r="G46" t="n">
         <v>293.5474252888413</v>
       </c>
+      <c r="H46" t="n">
+        <v>-54.59488712590666</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1527,6 +1667,9 @@
       <c r="G47" t="n">
         <v>474.8998268352669</v>
       </c>
+      <c r="H47" t="n">
+        <v>-619.4432921331093</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1550,6 +1693,9 @@
       <c r="G48" t="n">
         <v>256.2938560653144</v>
       </c>
+      <c r="H48" t="n">
+        <v>20.00364559768574</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1573,6 +1719,9 @@
       <c r="G49" t="n">
         <v>642.6692259643091</v>
       </c>
+      <c r="H49" t="n">
+        <v>-1980.880688458438</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1596,6 +1745,9 @@
       <c r="G50" t="n">
         <v>213.8950588812401</v>
       </c>
+      <c r="H50" t="n">
+        <v>-76.02896899296749</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1619,6 +1771,9 @@
       <c r="G51" t="n">
         <v>289.6029504961268</v>
       </c>
+      <c r="H51" t="n">
+        <v>114.2179389077995</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1642,6 +1797,9 @@
       <c r="G52" t="n">
         <v>356.8033886013742</v>
       </c>
+      <c r="H52" t="n">
+        <v>-201.5473980694091</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1665,6 +1823,9 @@
       <c r="G53" t="n">
         <v>287.8146011330351</v>
       </c>
+      <c r="H53" t="n">
+        <v>121.7612571909922</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1688,6 +1849,9 @@
       <c r="G54" t="n">
         <v>341.5174244912277</v>
       </c>
+      <c r="H54" t="n">
+        <v>-103.830693532706</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1711,6 +1875,9 @@
       <c r="G55" t="n">
         <v>402.9432078835075</v>
       </c>
+      <c r="H55" t="n">
+        <v>-368.2686084340227</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1734,6 +1901,9 @@
       <c r="G56" t="n">
         <v>297.6659728998812</v>
       </c>
+      <c r="H56" t="n">
+        <v>20.88890005022411</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1757,6 +1927,9 @@
       <c r="G57" t="n">
         <v>480.2785765380352</v>
       </c>
+      <c r="H57" t="n">
+        <v>-718.6025245751052</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1780,6 +1953,9 @@
       <c r="G58" t="n">
         <v>223.1296731169361</v>
       </c>
+      <c r="H58" t="n">
+        <v>48.15510075445284</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1803,6 +1979,9 @@
       <c r="G59" t="n">
         <v>196.0299427505224</v>
       </c>
+      <c r="H59" t="n">
+        <v>-47.83842223094006</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1826,6 +2005,9 @@
       <c r="G60" t="n">
         <v>135.0541403128878</v>
       </c>
+      <c r="H60" t="n">
+        <v>-22.7086079606528</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1849,6 +2031,9 @@
       <c r="G61" t="n">
         <v>661.1700599896367</v>
       </c>
+      <c r="H61" t="n">
+        <v>-675.6510521273234</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1872,6 +2057,9 @@
       <c r="G62" t="n">
         <v>155.1553616828429</v>
       </c>
+      <c r="H62" t="n">
+        <v>-48.62090559925139</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1895,6 +2083,9 @@
       <c r="G63" t="n">
         <v>202.2563811936968</v>
       </c>
+      <c r="H63" t="n">
+        <v>22.22522176813702</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1918,6 +2109,9 @@
       <c r="G64" t="n">
         <v>188.702203614514</v>
       </c>
+      <c r="H64" t="n">
+        <v>-37.43606822039887</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1941,6 +2135,9 @@
       <c r="G65" t="n">
         <v>188.567148885014</v>
       </c>
+      <c r="H65" t="n">
+        <v>-34.21086824417696</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1964,6 +2161,9 @@
       <c r="G66" t="n">
         <v>228.665589275114</v>
       </c>
+      <c r="H66" t="n">
+        <v>165.2571263041538</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1987,6 +2187,9 @@
       <c r="G67" t="n">
         <v>215.1299731215746</v>
       </c>
+      <c r="H67" t="n">
+        <v>-11.50858839663038</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2010,6 +2213,9 @@
       <c r="G68" t="n">
         <v>651.590576692827</v>
       </c>
+      <c r="H68" t="n">
+        <v>-2648.08220873467</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2033,6 +2239,9 @@
       <c r="G69" t="n">
         <v>476.1133324334923</v>
       </c>
+      <c r="H69" t="n">
+        <v>-555.0246651267217</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2056,6 +2265,9 @@
       <c r="G70" t="n">
         <v>294.3474581678471</v>
       </c>
+      <c r="H70" t="n">
+        <v>57.05023275841013</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2079,6 +2291,9 @@
       <c r="G71" t="n">
         <v>147.1253635152767</v>
       </c>
+      <c r="H71" t="n">
+        <v>15.48644557573525</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2102,6 +2317,9 @@
       <c r="G72" t="n">
         <v>414.3846518596338</v>
       </c>
+      <c r="H72" t="n">
+        <v>-396.9358442544361</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2125,6 +2343,9 @@
       <c r="G73" t="n">
         <v>320.7098134557457</v>
       </c>
+      <c r="H73" t="n">
+        <v>-114.8479172239888</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2148,6 +2369,9 @@
       <c r="G74" t="n">
         <v>467.2785155310381</v>
       </c>
+      <c r="H74" t="n">
+        <v>-357.2109168698885</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2171,6 +2395,9 @@
       <c r="G75" t="n">
         <v>666.8242603116864</v>
       </c>
+      <c r="H75" t="n">
+        <v>-1662.195548438319</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2194,6 +2421,9 @@
       <c r="G76" t="n">
         <v>139.7834334295682</v>
       </c>
+      <c r="H76" t="n">
+        <v>82.90543867749955</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2217,6 +2447,9 @@
       <c r="G77" t="n">
         <v>298.5457706426967</v>
       </c>
+      <c r="H77" t="n">
+        <v>263.3609294802461</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2240,6 +2473,9 @@
       <c r="G78" t="n">
         <v>450.3769224949012</v>
       </c>
+      <c r="H78" t="n">
+        <v>-297.7372180508816</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2263,6 +2499,9 @@
       <c r="G79" t="n">
         <v>555.6098881618403</v>
       </c>
+      <c r="H79" t="n">
+        <v>-1076.920047596539</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2286,6 +2525,9 @@
       <c r="G80" t="n">
         <v>229.2993013639036</v>
       </c>
+      <c r="H80" t="n">
+        <v>17.32522777720598</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2309,6 +2551,9 @@
       <c r="G81" t="n">
         <v>209.0779288170725</v>
       </c>
+      <c r="H81" t="n">
+        <v>-1.67510912923879</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2332,6 +2577,9 @@
       <c r="G82" t="n">
         <v>312.8673542714655</v>
       </c>
+      <c r="H82" t="n">
+        <v>-52.22673888323894</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2355,6 +2603,9 @@
       <c r="G83" t="n">
         <v>546.9440870266576</v>
       </c>
+      <c r="H83" t="n">
+        <v>-1020.83943615309</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2378,6 +2629,9 @@
       <c r="G84" t="n">
         <v>343.874450491872</v>
       </c>
+      <c r="H84" t="n">
+        <v>-120.8849259730118</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2401,6 +2655,9 @@
       <c r="G85" t="n">
         <v>388.8072460332779</v>
       </c>
+      <c r="H85" t="n">
+        <v>-191.1162947687752</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2424,6 +2681,9 @@
       <c r="G86" t="n">
         <v>310.7048660066733</v>
       </c>
+      <c r="H86" t="n">
+        <v>-31.13110962609408</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2447,6 +2707,9 @@
       <c r="G87" t="n">
         <v>213.3457633124699</v>
       </c>
+      <c r="H87" t="n">
+        <v>10.86851509149057</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2470,6 +2733,9 @@
       <c r="G88" t="n">
         <v>381.3000645609939</v>
       </c>
+      <c r="H88" t="n">
+        <v>-296.2261396785123</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2493,6 +2759,9 @@
       <c r="G89" t="n">
         <v>296.9032281587631</v>
       </c>
+      <c r="H89" t="n">
+        <v>-87.68021958994122</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2516,6 +2785,9 @@
       <c r="G90" t="n">
         <v>406.2809091746796</v>
       </c>
+      <c r="H90" t="n">
+        <v>-224.3088940633131</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2539,6 +2811,9 @@
       <c r="G91" t="n">
         <v>443.0658447541525</v>
       </c>
+      <c r="H91" t="n">
+        <v>-167.3345302270059</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2562,6 +2837,9 @@
       <c r="G92" t="n">
         <v>429.1758065331456</v>
       </c>
+      <c r="H92" t="n">
+        <v>-293.1996156301029</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2585,6 +2863,9 @@
       <c r="G93" t="n">
         <v>192.1087772959738</v>
       </c>
+      <c r="H93" t="n">
+        <v>-5.722750759188787</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2608,6 +2889,9 @@
       <c r="G94" t="n">
         <v>223.9706739074899</v>
       </c>
+      <c r="H94" t="n">
+        <v>6.502932398460654</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2631,6 +2915,9 @@
       <c r="G95" t="n">
         <v>483.8862391094023</v>
       </c>
+      <c r="H95" t="n">
+        <v>-413.9291860456759</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2654,6 +2941,9 @@
       <c r="G96" t="n">
         <v>310.5758742266656</v>
       </c>
+      <c r="H96" t="n">
+        <v>-193.8114783673295</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2677,6 +2967,9 @@
       <c r="G97" t="n">
         <v>133.0906197710555</v>
       </c>
+      <c r="H97" t="n">
+        <v>42.93654170262529</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2700,6 +2993,9 @@
       <c r="G98" t="n">
         <v>290.501010511149</v>
       </c>
+      <c r="H98" t="n">
+        <v>-127.2268705470845</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2723,6 +3019,9 @@
       <c r="G99" t="n">
         <v>150.4989900454793</v>
       </c>
+      <c r="H99" t="n">
+        <v>21.01012419386306</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2746,6 +3045,9 @@
       <c r="G100" t="n">
         <v>344.3626812155902</v>
       </c>
+      <c r="H100" t="n">
+        <v>-147.1671268255881</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2769,6 +3071,9 @@
       <c r="G101" t="n">
         <v>143.9755355749279</v>
       </c>
+      <c r="H101" t="n">
+        <v>72.98174597676797</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2792,6 +3097,9 @@
       <c r="G102" t="n">
         <v>362.930493525311</v>
       </c>
+      <c r="H102" t="n">
+        <v>-193.569064553673</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2815,6 +3123,9 @@
       <c r="G103" t="n">
         <v>137.4161532692214</v>
       </c>
+      <c r="H103" t="n">
+        <v>25.53592410604087</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2838,6 +3149,9 @@
       <c r="G104" t="n">
         <v>255.9665571096439</v>
       </c>
+      <c r="H104" t="n">
+        <v>-62.61264414966909</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2861,6 +3175,9 @@
       <c r="G105" t="n">
         <v>199.4854216284294</v>
       </c>
+      <c r="H105" t="n">
+        <v>1.011993913260939</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2884,6 +3201,9 @@
       <c r="G106" t="n">
         <v>185.928599729905</v>
       </c>
+      <c r="H106" t="n">
+        <v>51.27081951628388</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2907,6 +3227,9 @@
       <c r="G107" t="n">
         <v>297.2597614746506</v>
       </c>
+      <c r="H107" t="n">
+        <v>-4.45659847084386</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2930,6 +3253,9 @@
       <c r="G108" t="n">
         <v>308.6170731065522</v>
       </c>
+      <c r="H108" t="n">
+        <v>-92.13196852176374</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2953,6 +3279,9 @@
       <c r="G109" t="n">
         <v>592.0487520753957</v>
       </c>
+      <c r="H109" t="n">
+        <v>-432.4735155632969</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2976,6 +3305,9 @@
       <c r="G110" t="n">
         <v>658.3194514542251</v>
       </c>
+      <c r="H110" t="n">
+        <v>-773.8659608326897</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2999,6 +3331,9 @@
       <c r="G111" t="n">
         <v>608.9968578792935</v>
       </c>
+      <c r="H111" t="n">
+        <v>-552.2120101474518</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3022,6 +3357,9 @@
       <c r="G112" t="n">
         <v>239.7238458567368</v>
       </c>
+      <c r="H112" t="n">
+        <v>-40.15052505631498</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3045,6 +3383,9 @@
       <c r="G113" t="n">
         <v>251.7158792702025</v>
       </c>
+      <c r="H113" t="n">
+        <v>-109.886786247809</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3068,6 +3409,9 @@
       <c r="G114" t="n">
         <v>337.6382080836308</v>
       </c>
+      <c r="H114" t="n">
+        <v>-38.00226109757784</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3091,6 +3435,9 @@
       <c r="G115" t="n">
         <v>294.4678052522808</v>
       </c>
+      <c r="H115" t="n">
+        <v>-81.79715897833654</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3114,6 +3461,9 @@
       <c r="G116" t="n">
         <v>294.4134988518495</v>
       </c>
+      <c r="H116" t="n">
+        <v>-142.6334560297174</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3137,6 +3487,9 @@
       <c r="G117" t="n">
         <v>637.3189924937482</v>
       </c>
+      <c r="H117" t="n">
+        <v>-20.38859558960636</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3160,6 +3513,9 @@
       <c r="G118" t="n">
         <v>637.2229294924234</v>
       </c>
+      <c r="H118" t="n">
+        <v>-21.92601033014682</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3183,6 +3539,9 @@
       <c r="G119" t="n">
         <v>171.5121047806323</v>
       </c>
+      <c r="H119" t="n">
+        <v>-30.67948948604144</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3206,6 +3565,9 @@
       <c r="G120" t="n">
         <v>256.4885182820136</v>
       </c>
+      <c r="H120" t="n">
+        <v>-32.22968903514926</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3229,6 +3591,9 @@
       <c r="G121" t="n">
         <v>238.0877841652245</v>
       </c>
+      <c r="H121" t="n">
+        <v>-15.20146726754752</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3252,6 +3617,9 @@
       <c r="G122" t="n">
         <v>354.0335903691859</v>
       </c>
+      <c r="H122" t="n">
+        <v>-141.0739923535173</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3275,6 +3643,9 @@
       <c r="G123" t="n">
         <v>323.4931006854778</v>
       </c>
+      <c r="H123" t="n">
+        <v>-86.33959738467588</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3298,6 +3669,9 @@
       <c r="G124" t="n">
         <v>317.3740075352466</v>
       </c>
+      <c r="H124" t="n">
+        <v>-141.1951577384959</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3321,6 +3695,9 @@
       <c r="G125" t="n">
         <v>231.6127946815793</v>
       </c>
+      <c r="H125" t="n">
+        <v>-25.99240359439686</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3344,6 +3721,9 @@
       <c r="G126" t="n">
         <v>170.6349059582614</v>
       </c>
+      <c r="H126" t="n">
+        <v>0.0359112122356185</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3367,6 +3747,9 @@
       <c r="G127" t="n">
         <v>651.7390481277853</v>
       </c>
+      <c r="H127" t="n">
+        <v>-69.91151254054908</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3390,6 +3773,9 @@
       <c r="G128" t="n">
         <v>450.3449460945492</v>
       </c>
+      <c r="H128" t="n">
+        <v>-254.6551340407034</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3413,6 +3799,9 @@
       <c r="G129" t="n">
         <v>285.2534997672307</v>
       </c>
+      <c r="H129" t="n">
+        <v>-7.60212531043993</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3436,6 +3825,9 @@
       <c r="G130" t="n">
         <v>515.8171460386473</v>
       </c>
+      <c r="H130" t="n">
+        <v>-554.8695254349583</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3459,6 +3851,9 @@
       <c r="G131" t="n">
         <v>436.8502585778521</v>
       </c>
+      <c r="H131" t="n">
+        <v>-373.8798919164711</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3482,6 +3877,9 @@
       <c r="G132" t="n">
         <v>115.1412233835772</v>
       </c>
+      <c r="H132" t="n">
+        <v>54.52722632456017</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3505,6 +3903,9 @@
       <c r="G133" t="n">
         <v>430.1992724144051</v>
       </c>
+      <c r="H133" t="n">
+        <v>-184.9772320240227</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3528,6 +3929,9 @@
       <c r="G134" t="n">
         <v>284.5659055113994</v>
       </c>
+      <c r="H134" t="n">
+        <v>-50.79026893636455</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3551,6 +3955,9 @@
       <c r="G135" t="n">
         <v>506.9490635269828</v>
       </c>
+      <c r="H135" t="n">
+        <v>-512.5250457823379</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3574,6 +3981,9 @@
       <c r="G136" t="n">
         <v>355.9417502842903</v>
       </c>
+      <c r="H136" t="n">
+        <v>-146.0227993575993</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3597,6 +4007,9 @@
       <c r="G137" t="n">
         <v>271.3706408958692</v>
       </c>
+      <c r="H137" t="n">
+        <v>-100.8543513045696</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3620,6 +4033,9 @@
       <c r="G138" t="n">
         <v>217.0712569241121</v>
       </c>
+      <c r="H138" t="n">
+        <v>-26.38363260895262</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3643,6 +4059,9 @@
       <c r="G139" t="n">
         <v>469.1879486788494</v>
       </c>
+      <c r="H139" t="n">
+        <v>-345.8471690990065</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3666,6 +4085,9 @@
       <c r="G140" t="n">
         <v>402.9596972688693</v>
       </c>
+      <c r="H140" t="n">
+        <v>-186.8792653732787</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3689,6 +4111,9 @@
       <c r="G141" t="n">
         <v>481.087776799038</v>
       </c>
+      <c r="H141" t="n">
+        <v>-581.1462059513199</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3712,6 +4137,9 @@
       <c r="G142" t="n">
         <v>396.7859550963246</v>
       </c>
+      <c r="H142" t="n">
+        <v>-236.2819949131322</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3735,6 +4163,9 @@
       <c r="G143" t="n">
         <v>438.8434056278534</v>
       </c>
+      <c r="H143" t="n">
+        <v>-382.6593594991655</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3758,6 +4189,9 @@
       <c r="G144" t="n">
         <v>192.3436545480818</v>
       </c>
+      <c r="H144" t="n">
+        <v>13.71191709064026</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3781,6 +4215,9 @@
       <c r="G145" t="n">
         <v>324.4024769414405</v>
       </c>
+      <c r="H145" t="n">
+        <v>-145.2438648492939</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3804,6 +4241,9 @@
       <c r="G146" t="n">
         <v>330.2564674919828</v>
       </c>
+      <c r="H146" t="n">
+        <v>-162.4895076346882</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3827,6 +4267,9 @@
       <c r="G147" t="n">
         <v>474.0966087110568</v>
       </c>
+      <c r="H147" t="n">
+        <v>-479.1558773043187</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3850,6 +4293,9 @@
       <c r="G148" t="n">
         <v>77.93813460503492</v>
       </c>
+      <c r="H148" t="n">
+        <v>175.4784956400335</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3873,6 +4319,9 @@
       <c r="G149" t="n">
         <v>521.2991046090349</v>
       </c>
+      <c r="H149" t="n">
+        <v>-447.5623597882333</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3896,6 +4345,9 @@
       <c r="G150" t="n">
         <v>329.4956984682663</v>
       </c>
+      <c r="H150" t="n">
+        <v>-107.6665757960096</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3919,6 +4371,9 @@
       <c r="G151" t="n">
         <v>179.679975804255</v>
       </c>
+      <c r="H151" t="n">
+        <v>12.44983743543454</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3942,6 +4397,9 @@
       <c r="G152" t="n">
         <v>478.9869474924316</v>
       </c>
+      <c r="H152" t="n">
+        <v>-345.7848777114226</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3965,6 +4423,9 @@
       <c r="G153" t="n">
         <v>472.1290525933568</v>
       </c>
+      <c r="H153" t="n">
+        <v>-405.0570617316403</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3988,6 +4449,9 @@
       <c r="G154" t="n">
         <v>405.7994315701984</v>
       </c>
+      <c r="H154" t="n">
+        <v>-292.884747721955</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4011,6 +4475,9 @@
       <c r="G155" t="n">
         <v>95.46413974590695</v>
       </c>
+      <c r="H155" t="n">
+        <v>60.93617473537363</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4034,6 +4501,9 @@
       <c r="G156" t="n">
         <v>220.5601649670804</v>
       </c>
+      <c r="H156" t="n">
+        <v>-27.61955204829911</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4057,6 +4527,9 @@
       <c r="G157" t="n">
         <v>363.5994820882458</v>
       </c>
+      <c r="H157" t="n">
+        <v>-109.7312193635196</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4080,6 +4553,9 @@
       <c r="G158" t="n">
         <v>196.6430370832692</v>
       </c>
+      <c r="H158" t="n">
+        <v>-19.98297961648898</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4103,6 +4579,9 @@
       <c r="G159" t="n">
         <v>83.40506653986466</v>
       </c>
+      <c r="H159" t="n">
+        <v>38.64368329618507</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4126,6 +4605,9 @@
       <c r="G160" t="n">
         <v>540.9525654431335</v>
       </c>
+      <c r="H160" t="n">
+        <v>-431.5555105500312</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4149,6 +4631,9 @@
       <c r="G161" t="n">
         <v>320.8485670637207</v>
       </c>
+      <c r="H161" t="n">
+        <v>-3.133491753896206</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4172,6 +4657,9 @@
       <c r="G162" t="n">
         <v>142.3050857498608</v>
       </c>
+      <c r="H162" t="n">
+        <v>30.88846589037113</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4195,6 +4683,9 @@
       <c r="G163" t="n">
         <v>514.4186105117282</v>
       </c>
+      <c r="H163" t="n">
+        <v>-611.6175535862584</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4218,6 +4709,9 @@
       <c r="G164" t="n">
         <v>271.7820022335343</v>
       </c>
+      <c r="H164" t="n">
+        <v>-5.532954664846335</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4241,6 +4735,9 @@
       <c r="G165" t="n">
         <v>413.0680830430368</v>
       </c>
+      <c r="H165" t="n">
+        <v>-221.7881166312343</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4264,6 +4761,9 @@
       <c r="G166" t="n">
         <v>489.3602850913582</v>
       </c>
+      <c r="H166" t="n">
+        <v>-626.6637109237867</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4287,6 +4787,9 @@
       <c r="G167" t="n">
         <v>382.6742260723846</v>
       </c>
+      <c r="H167" t="n">
+        <v>-63.55622959252572</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4310,6 +4813,9 @@
       <c r="G168" t="n">
         <v>452.6172499647096</v>
       </c>
+      <c r="H168" t="n">
+        <v>-1189.140418152701</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4333,6 +4839,9 @@
       <c r="G169" t="n">
         <v>152.8204362913692</v>
       </c>
+      <c r="H169" t="n">
+        <v>-33.98270531499999</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4356,6 +4865,9 @@
       <c r="G170" t="n">
         <v>492.9184444256738</v>
       </c>
+      <c r="H170" t="n">
+        <v>-515.7864528160594</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4379,6 +4891,9 @@
       <c r="G171" t="n">
         <v>105.4533796425313</v>
       </c>
+      <c r="H171" t="n">
+        <v>267.038160282223</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4402,6 +4917,9 @@
       <c r="G172" t="n">
         <v>438.3966416710136</v>
       </c>
+      <c r="H172" t="n">
+        <v>-350.3842222590683</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4425,6 +4943,9 @@
       <c r="G173" t="n">
         <v>344.5958529469589</v>
       </c>
+      <c r="H173" t="n">
+        <v>-42.19115717999335</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4448,6 +4969,9 @@
       <c r="G174" t="n">
         <v>449.2091270625259</v>
       </c>
+      <c r="H174" t="n">
+        <v>-275.6400067693922</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4471,6 +4995,9 @@
       <c r="G175" t="n">
         <v>419.6837880060606</v>
       </c>
+      <c r="H175" t="n">
+        <v>-218.8507821937762</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4494,6 +5021,9 @@
       <c r="G176" t="n">
         <v>308.5556120529431</v>
       </c>
+      <c r="H176" t="n">
+        <v>-49.05881723238662</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4517,6 +5047,9 @@
       <c r="G177" t="n">
         <v>343.4740029958317</v>
       </c>
+      <c r="H177" t="n">
+        <v>-169.0474690439248</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4540,6 +5073,9 @@
       <c r="G178" t="n">
         <v>325.3249663559829</v>
       </c>
+      <c r="H178" t="n">
+        <v>-74.71583648136347</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4563,6 +5099,9 @@
       <c r="G179" t="n">
         <v>510.9065423744759</v>
       </c>
+      <c r="H179" t="n">
+        <v>-71.16189247639259</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4586,6 +5125,9 @@
       <c r="G180" t="n">
         <v>353.9359901292509</v>
       </c>
+      <c r="H180" t="n">
+        <v>-159.0896048182818</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4609,6 +5151,9 @@
       <c r="G181" t="n">
         <v>548.0784213416688</v>
       </c>
+      <c r="H181" t="n">
+        <v>-1059.96038435492</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4632,6 +5177,9 @@
       <c r="G182" t="n">
         <v>444.1866194437167</v>
       </c>
+      <c r="H182" t="n">
+        <v>-299.0441447411882</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4655,6 +5203,9 @@
       <c r="G183" t="n">
         <v>265.3282505137445</v>
       </c>
+      <c r="H183" t="n">
+        <v>-107.2145595400774</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4678,6 +5229,9 @@
       <c r="G184" t="n">
         <v>397.7893828895714</v>
       </c>
+      <c r="H184" t="n">
+        <v>-278.1025869799488</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4701,6 +5255,9 @@
       <c r="G185" t="n">
         <v>476.9891890594358</v>
       </c>
+      <c r="H185" t="n">
+        <v>-301.2634527751531</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4724,6 +5281,9 @@
       <c r="G186" t="n">
         <v>511.3631345934462</v>
       </c>
+      <c r="H186" t="n">
+        <v>-786.5260577820723</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4747,6 +5307,9 @@
       <c r="G187" t="n">
         <v>453.8095651284285</v>
       </c>
+      <c r="H187" t="n">
+        <v>-345.7863178294398</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4770,6 +5333,9 @@
       <c r="G188" t="n">
         <v>45.90440303461416</v>
       </c>
+      <c r="H188" t="n">
+        <v>78.60119271417979</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4793,6 +5359,9 @@
       <c r="G189" t="n">
         <v>355.5997765012312</v>
       </c>
+      <c r="H189" t="n">
+        <v>-66.14290376983426</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4816,6 +5385,9 @@
       <c r="G190" t="n">
         <v>194.9000080013638</v>
       </c>
+      <c r="H190" t="n">
+        <v>-14.04026623192446</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4839,6 +5411,9 @@
       <c r="G191" t="n">
         <v>664.3730779968311</v>
       </c>
+      <c r="H191" t="n">
+        <v>-294.238935874771</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4862,6 +5437,9 @@
       <c r="G192" t="n">
         <v>440.2028529040152</v>
       </c>
+      <c r="H192" t="n">
+        <v>-175.5732013308797</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4885,6 +5463,9 @@
       <c r="G193" t="n">
         <v>251.4828053927618</v>
       </c>
+      <c r="H193" t="n">
+        <v>-75.22133767876348</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4908,6 +5489,9 @@
       <c r="G194" t="n">
         <v>319.8693428737197</v>
       </c>
+      <c r="H194" t="n">
+        <v>-47.39116943839009</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4931,6 +5515,9 @@
       <c r="G195" t="n">
         <v>319.6769159203166</v>
       </c>
+      <c r="H195" t="n">
+        <v>-35.69677253833563</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4954,6 +5541,9 @@
       <c r="G196" t="n">
         <v>410.9789637229379</v>
       </c>
+      <c r="H196" t="n">
+        <v>-338.7377511865848</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4977,6 +5567,9 @@
       <c r="G197" t="n">
         <v>325.1839627733391</v>
       </c>
+      <c r="H197" t="n">
+        <v>-106.1759031728683</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5000,6 +5593,9 @@
       <c r="G198" t="n">
         <v>745.0727175472458</v>
       </c>
+      <c r="H198" t="n">
+        <v>-1263.365484369586</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5023,6 +5619,9 @@
       <c r="G199" t="n">
         <v>533.3920821375108</v>
       </c>
+      <c r="H199" t="n">
+        <v>-677.0792570983418</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5046,6 +5645,9 @@
       <c r="G200" t="n">
         <v>320.9937396896644</v>
       </c>
+      <c r="H200" t="n">
+        <v>2.794957988601838</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5069,6 +5671,9 @@
       <c r="G201" t="n">
         <v>624.8420329569337</v>
       </c>
+      <c r="H201" t="n">
+        <v>-291.3807982309676</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5092,6 +5697,9 @@
       <c r="G202" t="n">
         <v>163.1868283250007</v>
       </c>
+      <c r="H202" t="n">
+        <v>133.2544170454104</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5115,6 +5723,9 @@
       <c r="G203" t="n">
         <v>714.3914733091553</v>
       </c>
+      <c r="H203" t="n">
+        <v>-821.7194496816426</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5138,6 +5749,9 @@
       <c r="G204" t="n">
         <v>607.4578053766782</v>
       </c>
+      <c r="H204" t="n">
+        <v>-1843.031246990391</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5161,6 +5775,9 @@
       <c r="G205" t="n">
         <v>241.7920683041129</v>
       </c>
+      <c r="H205" t="n">
+        <v>-56.49182862510058</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5184,6 +5801,9 @@
       <c r="G206" t="n">
         <v>404.640172461836</v>
       </c>
+      <c r="H206" t="n">
+        <v>-246.5879673408514</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5207,6 +5827,9 @@
       <c r="G207" t="n">
         <v>538.8099891878917</v>
       </c>
+      <c r="H207" t="n">
+        <v>-442.6662837624311</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5230,6 +5853,9 @@
       <c r="G208" t="n">
         <v>351.9155597399666</v>
       </c>
+      <c r="H208" t="n">
+        <v>-118.2751708902854</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5253,6 +5879,9 @@
       <c r="G209" t="n">
         <v>591.608779447422</v>
       </c>
+      <c r="H209" t="n">
+        <v>-385.1112868786814</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5276,6 +5905,9 @@
       <c r="G210" t="n">
         <v>730.9311991915263</v>
       </c>
+      <c r="H210" t="n">
+        <v>-2426.630310839712</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5299,6 +5931,9 @@
       <c r="G211" t="n">
         <v>262.1342075090563</v>
       </c>
+      <c r="H211" t="n">
+        <v>-81.18143817651689</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5322,6 +5957,9 @@
       <c r="G212" t="n">
         <v>300.8470997851913</v>
       </c>
+      <c r="H212" t="n">
+        <v>-36.31350965298373</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5345,6 +5983,9 @@
       <c r="G213" t="n">
         <v>606.8373347882188</v>
       </c>
+      <c r="H213" t="n">
+        <v>-438.9925201156374</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5368,6 +6009,9 @@
       <c r="G214" t="n">
         <v>378.1482372052855</v>
       </c>
+      <c r="H214" t="n">
+        <v>-169.1987429429914</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5391,6 +6035,9 @@
       <c r="G215" t="n">
         <v>522.3768312255593</v>
       </c>
+      <c r="H215" t="n">
+        <v>-476.7298747974389</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5414,6 +6061,9 @@
       <c r="G216" t="n">
         <v>144.3680835962942</v>
       </c>
+      <c r="H216" t="n">
+        <v>-48.18214430404722</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5437,6 +6087,9 @@
       <c r="G217" t="n">
         <v>305.3565936087082</v>
       </c>
+      <c r="H217" t="n">
+        <v>-108.7267135543496</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5460,6 +6113,9 @@
       <c r="G218" t="n">
         <v>316.1359137744954</v>
       </c>
+      <c r="H218" t="n">
+        <v>24.40160008827247</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5483,6 +6139,9 @@
       <c r="G219" t="n">
         <v>715.2069186477776</v>
       </c>
+      <c r="H219" t="n">
+        <v>-1998.500663979381</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5506,6 +6165,9 @@
       <c r="G220" t="n">
         <v>243.7950914115646</v>
       </c>
+      <c r="H220" t="n">
+        <v>27.69268088929563</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5529,6 +6191,9 @@
       <c r="G221" t="n">
         <v>531.7419541102801</v>
       </c>
+      <c r="H221" t="n">
+        <v>-370.1206765585285</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5552,6 +6217,9 @@
       <c r="G222" t="n">
         <v>614.3396157091662</v>
       </c>
+      <c r="H222" t="n">
+        <v>-397.7795832684908</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5575,6 +6243,9 @@
       <c r="G223" t="n">
         <v>652.0139188127673</v>
       </c>
+      <c r="H223" t="n">
+        <v>-246.6135184980964</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5598,6 +6269,9 @@
       <c r="G224" t="n">
         <v>281.3420466145797</v>
       </c>
+      <c r="H224" t="n">
+        <v>-95.47162829131071</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5621,6 +6295,9 @@
       <c r="G225" t="n">
         <v>667.3042286358224</v>
       </c>
+      <c r="H225" t="n">
+        <v>-2099.21973258133</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5644,6 +6321,9 @@
       <c r="G226" t="n">
         <v>506.3916931452759</v>
       </c>
+      <c r="H226" t="n">
+        <v>-322.1043441028943</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5667,6 +6347,9 @@
       <c r="G227" t="n">
         <v>422.4378057280423</v>
       </c>
+      <c r="H227" t="n">
+        <v>-219.4670903354701</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5690,6 +6373,9 @@
       <c r="G228" t="n">
         <v>455.3286399195703</v>
       </c>
+      <c r="H228" t="n">
+        <v>-258.4956612437371</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5713,6 +6399,9 @@
       <c r="G229" t="n">
         <v>148.0917583230887</v>
       </c>
+      <c r="H229" t="n">
+        <v>38.7657864190373</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5736,6 +6425,9 @@
       <c r="G230" t="n">
         <v>323.4826140062038</v>
       </c>
+      <c r="H230" t="n">
+        <v>-121.2240630364431</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5759,6 +6451,9 @@
       <c r="G231" t="n">
         <v>120.6075822405393</v>
       </c>
+      <c r="H231" t="n">
+        <v>-101.1058701328972</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5782,6 +6477,9 @@
       <c r="G232" t="n">
         <v>317.5639092582041</v>
       </c>
+      <c r="H232" t="n">
+        <v>-181.6026134847444</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5805,6 +6503,9 @@
       <c r="G233" t="n">
         <v>426.860982535185</v>
       </c>
+      <c r="H233" t="n">
+        <v>-225.4827110765447</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5828,6 +6529,9 @@
       <c r="G234" t="n">
         <v>158.5155878831425</v>
       </c>
+      <c r="H234" t="n">
+        <v>13.7884154409936</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5851,6 +6555,9 @@
       <c r="G235" t="n">
         <v>103.6584291999111</v>
       </c>
+      <c r="H235" t="n">
+        <v>15.02910227315122</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5874,6 +6581,9 @@
       <c r="G236" t="n">
         <v>534.2685763450336</v>
       </c>
+      <c r="H236" t="n">
+        <v>-1217.572753703082</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5897,6 +6607,9 @@
       <c r="G237" t="n">
         <v>506.6460205630216</v>
       </c>
+      <c r="H237" t="n">
+        <v>-520.9649003905168</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5920,6 +6633,9 @@
       <c r="G238" t="n">
         <v>527.927326221082</v>
       </c>
+      <c r="H238" t="n">
+        <v>-920.9281120732094</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5943,6 +6659,9 @@
       <c r="G239" t="n">
         <v>141.1048411561838</v>
       </c>
+      <c r="H239" t="n">
+        <v>6.039118641818488</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5966,6 +6685,9 @@
       <c r="G240" t="n">
         <v>184.4182684867745</v>
       </c>
+      <c r="H240" t="n">
+        <v>-20.86584691959958</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5989,6 +6711,9 @@
       <c r="G241" t="n">
         <v>254.1196335835183</v>
       </c>
+      <c r="H241" t="n">
+        <v>-58.82546088744754</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6012,6 +6737,9 @@
       <c r="G242" t="n">
         <v>254.0854391608004</v>
       </c>
+      <c r="H242" t="n">
+        <v>-22.31446032677612</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6035,6 +6763,9 @@
       <c r="G243" t="n">
         <v>194.0489490917999</v>
       </c>
+      <c r="H243" t="n">
+        <v>-15.34312931880121</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6058,6 +6789,9 @@
       <c r="G244" t="n">
         <v>290.9428807065166</v>
       </c>
+      <c r="H244" t="n">
+        <v>-35.75337082588255</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6081,6 +6815,9 @@
       <c r="G245" t="n">
         <v>376.9450548636177</v>
       </c>
+      <c r="H245" t="n">
+        <v>-203.7790184132703</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6104,6 +6841,9 @@
       <c r="G246" t="n">
         <v>489.1159677310337</v>
       </c>
+      <c r="H246" t="n">
+        <v>-260.2264961840353</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6127,6 +6867,9 @@
       <c r="G247" t="n">
         <v>606.2041177604236</v>
       </c>
+      <c r="H247" t="n">
+        <v>-310.16569233873</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6150,6 +6893,9 @@
       <c r="G248" t="n">
         <v>118.0047610855571</v>
       </c>
+      <c r="H248" t="n">
+        <v>66.96690228984241</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6173,6 +6919,9 @@
       <c r="G249" t="n">
         <v>624.4338834913922</v>
       </c>
+      <c r="H249" t="n">
+        <v>-240.0848621700746</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6196,6 +6945,9 @@
       <c r="G250" t="n">
         <v>186.6970932228694</v>
       </c>
+      <c r="H250" t="n">
+        <v>-14.66831079505082</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6219,6 +6971,9 @@
       <c r="G251" t="n">
         <v>239.8091072489011</v>
       </c>
+      <c r="H251" t="n">
+        <v>32.3884002752874</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6242,6 +6997,9 @@
       <c r="G252" t="n">
         <v>127.6303918287968</v>
       </c>
+      <c r="H252" t="n">
+        <v>21.91342971603714</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6265,6 +7023,9 @@
       <c r="G253" t="n">
         <v>159.5132651937932</v>
       </c>
+      <c r="H253" t="n">
+        <v>96.20848084811851</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6288,6 +7049,9 @@
       <c r="G254" t="n">
         <v>90.29385372427789</v>
       </c>
+      <c r="H254" t="n">
+        <v>-281.9955923311077</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6311,6 +7075,9 @@
       <c r="G255" t="n">
         <v>68.95981152237249</v>
       </c>
+      <c r="H255" t="n">
+        <v>71.7239786735467</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6334,6 +7101,9 @@
       <c r="G256" t="n">
         <v>159.0963042150291</v>
       </c>
+      <c r="H256" t="n">
+        <v>121.161662502741</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6357,6 +7127,9 @@
       <c r="G257" t="n">
         <v>100.7458586254065</v>
       </c>
+      <c r="H257" t="n">
+        <v>46.82535230484669</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6380,6 +7153,9 @@
       <c r="G258" t="n">
         <v>143.0928047438325</v>
       </c>
+      <c r="H258" t="n">
+        <v>-46.9264326964753</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6403,6 +7179,9 @@
       <c r="G259" t="n">
         <v>-15.88684467507535</v>
       </c>
+      <c r="H259" t="n">
+        <v>28.6596122742046</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6426,6 +7205,9 @@
       <c r="G260" t="n">
         <v>111.1731297813289</v>
       </c>
+      <c r="H260" t="n">
+        <v>133.8367510003206</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6449,6 +7231,9 @@
       <c r="G261" t="n">
         <v>365.207615070522</v>
       </c>
+      <c r="H261" t="n">
+        <v>-230.7624871735232</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6472,6 +7257,9 @@
       <c r="G262" t="n">
         <v>137.2468155159299</v>
       </c>
+      <c r="H262" t="n">
+        <v>873.7811349151868</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6495,6 +7283,9 @@
       <c r="G263" t="n">
         <v>216.4012228551966</v>
       </c>
+      <c r="H263" t="n">
+        <v>532.2703101439607</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6518,6 +7309,9 @@
       <c r="G264" t="n">
         <v>263.8739933656408</v>
       </c>
+      <c r="H264" t="n">
+        <v>-74.42433807257243</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6541,6 +7335,9 @@
       <c r="G265" t="n">
         <v>163.5668106372451</v>
       </c>
+      <c r="H265" t="n">
+        <v>337.5332036623628</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6564,6 +7361,9 @@
       <c r="G266" t="n">
         <v>358.3948613866022</v>
       </c>
+      <c r="H266" t="n">
+        <v>-158.8859258905949</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6587,6 +7387,9 @@
       <c r="G267" t="n">
         <v>157.9773996005647</v>
       </c>
+      <c r="H267" t="n">
+        <v>4.285579388600083</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6610,6 +7413,9 @@
       <c r="G268" t="n">
         <v>184.1583669897722</v>
       </c>
+      <c r="H268" t="n">
+        <v>253.9270189191546</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6633,6 +7439,9 @@
       <c r="G269" t="n">
         <v>205.135518542535</v>
       </c>
+      <c r="H269" t="n">
+        <v>443.6183416444704</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6656,6 +7465,9 @@
       <c r="G270" t="n">
         <v>420.5306798027762</v>
       </c>
+      <c r="H270" t="n">
+        <v>-154.1665256782511</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6679,6 +7491,9 @@
       <c r="G271" t="n">
         <v>47.2832548112473</v>
       </c>
+      <c r="H271" t="n">
+        <v>177.8637440658116</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6702,6 +7517,9 @@
       <c r="G272" t="n">
         <v>168.0967024781545</v>
       </c>
+      <c r="H272" t="n">
+        <v>51.87145550199367</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6725,6 +7543,9 @@
       <c r="G273" t="n">
         <v>461.9490537201126</v>
       </c>
+      <c r="H273" t="n">
+        <v>-12.64569969052554</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6748,6 +7569,9 @@
       <c r="G274" t="n">
         <v>47.24020613910167</v>
       </c>
+      <c r="H274" t="n">
+        <v>304.2419248772389</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6771,6 +7595,9 @@
       <c r="G275" t="n">
         <v>204.628743301267</v>
       </c>
+      <c r="H275" t="n">
+        <v>-37.18615074783737</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6794,6 +7621,9 @@
       <c r="G276" t="n">
         <v>41.95736932840124</v>
       </c>
+      <c r="H276" t="n">
+        <v>558.3024079341834</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6817,6 +7647,9 @@
       <c r="G277" t="n">
         <v>125.6542998530549</v>
       </c>
+      <c r="H277" t="n">
+        <v>1448.757027961199</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6840,6 +7673,9 @@
       <c r="G278" t="n">
         <v>219.6146825421716</v>
       </c>
+      <c r="H278" t="n">
+        <v>-48.87960333500432</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6863,6 +7699,9 @@
       <c r="G279" t="n">
         <v>120.2539850750274</v>
       </c>
+      <c r="H279" t="n">
+        <v>569.4757560274074</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6886,6 +7725,9 @@
       <c r="G280" t="n">
         <v>130.4933979243358</v>
       </c>
+      <c r="H280" t="n">
+        <v>73.64119469448683</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6909,6 +7751,9 @@
       <c r="G281" t="n">
         <v>177.436673508471</v>
       </c>
+      <c r="H281" t="n">
+        <v>226.1058965464504</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6932,6 +7777,9 @@
       <c r="G282" t="n">
         <v>260.5247413169378</v>
       </c>
+      <c r="H282" t="n">
+        <v>-55.06131998739092</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6955,6 +7803,9 @@
       <c r="G283" t="n">
         <v>328.1989411446</v>
       </c>
+      <c r="H283" t="n">
+        <v>-154.5613342246551</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6978,6 +7829,9 @@
       <c r="G284" t="n">
         <v>140.625405370431</v>
       </c>
+      <c r="H284" t="n">
+        <v>100.6888838544343</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7001,6 +7855,9 @@
       <c r="G285" t="n">
         <v>0</v>
       </c>
+      <c r="H285" t="n">
+        <v>301.7008517472504</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7024,6 +7881,9 @@
       <c r="G286" t="n">
         <v>166.4952254268603</v>
       </c>
+      <c r="H286" t="n">
+        <v>119.2129202075922</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7047,6 +7907,9 @@
       <c r="G287" t="n">
         <v>145.660279795276</v>
       </c>
+      <c r="H287" t="n">
+        <v>-3536.403690977349</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7070,6 +7933,9 @@
       <c r="G288" t="n">
         <v>124.8265854957575</v>
       </c>
+      <c r="H288" t="n">
+        <v>-153.8852921966883</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7093,6 +7959,9 @@
       <c r="G289" t="n">
         <v>202.6002784388285</v>
       </c>
+      <c r="H289" t="n">
+        <v>5197.186030226255</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7116,6 +7985,9 @@
       <c r="G290" t="n">
         <v>202.3982912232361</v>
       </c>
+      <c r="H290" t="n">
+        <v>-73.52414562957144</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7139,6 +8011,9 @@
       <c r="G291" t="n">
         <v>181.466058018315</v>
       </c>
+      <c r="H291" t="n">
+        <v>66.76879119177043</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7162,6 +8037,9 @@
       <c r="G292" t="n">
         <v>119.244910577602</v>
       </c>
+      <c r="H292" t="n">
+        <v>308.6190278360323</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7185,6 +8063,9 @@
       <c r="G293" t="n">
         <v>176.1576418580231</v>
       </c>
+      <c r="H293" t="n">
+        <v>142.6167672223838</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7208,6 +8089,9 @@
       <c r="G294" t="n">
         <v>196.6486787283332</v>
       </c>
+      <c r="H294" t="n">
+        <v>863.3503301396939</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7231,6 +8115,9 @@
       <c r="G295" t="n">
         <v>134.4935748340165</v>
       </c>
+      <c r="H295" t="n">
+        <v>12.71229515408096</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7254,6 +8141,9 @@
       <c r="G296" t="n">
         <v>232.2638215902246</v>
       </c>
+      <c r="H296" t="n">
+        <v>-120.4695040411489</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7277,6 +8167,9 @@
       <c r="G297" t="n">
         <v>123.8514527981544</v>
       </c>
+      <c r="H297" t="n">
+        <v>389.8287794719719</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7300,6 +8193,9 @@
       <c r="G298" t="n">
         <v>232.2138113766323</v>
       </c>
+      <c r="H298" t="n">
+        <v>170.7193914685117</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7323,6 +8219,9 @@
       <c r="G299" t="n">
         <v>170.174714711763</v>
       </c>
+      <c r="H299" t="n">
+        <v>271.3457864748578</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7346,6 +8245,9 @@
       <c r="G300" t="n">
         <v>108.2391220073444</v>
       </c>
+      <c r="H300" t="n">
+        <v>143.9293382979917</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7369,6 +8271,9 @@
       <c r="G301" t="n">
         <v>-41.21786779083853</v>
       </c>
+      <c r="H301" t="n">
+        <v>328.0081742213967</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7392,6 +8297,9 @@
       <c r="G302" t="n">
         <v>143.9951829794692</v>
       </c>
+      <c r="H302" t="n">
+        <v>198.417772880349</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7415,6 +8323,9 @@
       <c r="G303" t="n">
         <v>71.90846163890403</v>
       </c>
+      <c r="H303" t="n">
+        <v>284.6273244369119</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7438,6 +8349,9 @@
       <c r="G304" t="n">
         <v>261.8355631790055</v>
       </c>
+      <c r="H304" t="n">
+        <v>570.210634152009</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7461,6 +8375,9 @@
       <c r="G305" t="n">
         <v>148.8697897116303</v>
       </c>
+      <c r="H305" t="n">
+        <v>7.366348622684987</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7484,6 +8401,9 @@
       <c r="G306" t="n">
         <v>317.9168406841698</v>
       </c>
+      <c r="H306" t="n">
+        <v>4861.837295070719</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7507,6 +8427,9 @@
       <c r="G307" t="n">
         <v>92.29262524498033</v>
       </c>
+      <c r="H307" t="n">
+        <v>1009.571658285034</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7530,6 +8453,9 @@
       <c r="G308" t="n">
         <v>76.85270908110513</v>
       </c>
+      <c r="H308" t="n">
+        <v>605.176985475794</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7553,6 +8479,9 @@
       <c r="G309" t="n">
         <v>327.8196499340423</v>
       </c>
+      <c r="H309" t="n">
+        <v>-1774.760360398788</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7576,6 +8505,9 @@
       <c r="G310" t="n">
         <v>194.6092078285625</v>
       </c>
+      <c r="H310" t="n">
+        <v>59.04854537319127</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7599,6 +8531,9 @@
       <c r="G311" t="n">
         <v>235.5421508427302</v>
       </c>
+      <c r="H311" t="n">
+        <v>382.4658464842588</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7622,6 +8557,9 @@
       <c r="G312" t="n">
         <v>214.9893984320312</v>
       </c>
+      <c r="H312" t="n">
+        <v>202.7420647015272</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7645,6 +8583,9 @@
       <c r="G313" t="n">
         <v>194.4806225750431</v>
       </c>
+      <c r="H313" t="n">
+        <v>54.58203440430735</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7668,6 +8609,9 @@
       <c r="G314" t="n">
         <v>173.94430549706</v>
       </c>
+      <c r="H314" t="n">
+        <v>-29.35610538220699</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7691,6 +8635,9 @@
       <c r="G315" t="n">
         <v>255.7780704743051</v>
       </c>
+      <c r="H315" t="n">
+        <v>242.9716413234607</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7714,6 +8661,9 @@
       <c r="G316" t="n">
         <v>301.7764643368278</v>
       </c>
+      <c r="H316" t="n">
+        <v>10.83614772958832</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7737,6 +8687,9 @@
       <c r="G317" t="n">
         <v>-5.113526350001163</v>
       </c>
+      <c r="H317" t="n">
+        <v>534.3406832194195</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7760,6 +8713,9 @@
       <c r="G318" t="n">
         <v>439.6697333883357</v>
       </c>
+      <c r="H318" t="n">
+        <v>-176.7897382902832</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7783,6 +8739,9 @@
       <c r="G319" t="n">
         <v>81.64781948193625</v>
       </c>
+      <c r="H319" t="n">
+        <v>108.0083353174024</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7806,6 +8765,9 @@
       <c r="G320" t="n">
         <v>91.72780398561993</v>
       </c>
+      <c r="H320" t="n">
+        <v>116.3625252197682</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7829,6 +8791,9 @@
       <c r="G321" t="n">
         <v>-10.15538321842437</v>
       </c>
+      <c r="H321" t="n">
+        <v>1352.088961103588</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7852,6 +8817,9 @@
       <c r="G322" t="n">
         <v>197.9227233565246</v>
       </c>
+      <c r="H322" t="n">
+        <v>-60.22595447749121</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7875,6 +8843,9 @@
       <c r="G323" t="n">
         <v>-45.66541931246624</v>
       </c>
+      <c r="H323" t="n">
+        <v>257.112186181043</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7898,6 +8869,9 @@
       <c r="G324" t="n">
         <v>329.2815621217021</v>
       </c>
+      <c r="H324" t="n">
+        <v>36.34979444701265</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7921,6 +8895,9 @@
       <c r="G325" t="n">
         <v>161.7922138781969</v>
       </c>
+      <c r="H325" t="n">
+        <v>10.6191277771182</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7944,6 +8921,9 @@
       <c r="G326" t="n">
         <v>131.4143166169171</v>
       </c>
+      <c r="H326" t="n">
+        <v>9.820021779032155</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7967,6 +8947,9 @@
       <c r="G327" t="n">
         <v>439.6952553569163</v>
       </c>
+      <c r="H327" t="n">
+        <v>-209.4270073989706</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7990,6 +8973,9 @@
       <c r="G328" t="n">
         <v>338.3605510680695</v>
       </c>
+      <c r="H328" t="n">
+        <v>-126.2862977028006</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -8013,6 +8999,9 @@
       <c r="G329" t="n">
         <v>251.7416484697276</v>
       </c>
+      <c r="H329" t="n">
+        <v>-21.0510670662363</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -8036,6 +9025,9 @@
       <c r="G330" t="n">
         <v>296.8568655668262</v>
       </c>
+      <c r="H330" t="n">
+        <v>272.5596786533563</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8059,6 +9051,9 @@
       <c r="G331" t="n">
         <v>241.2456353288541</v>
       </c>
+      <c r="H331" t="n">
+        <v>2609.976048421004</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8082,6 +9077,9 @@
       <c r="G332" t="n">
         <v>85.35065338567271</v>
       </c>
+      <c r="H332" t="n">
+        <v>376.1263982173484</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8105,6 +9103,9 @@
       <c r="G333" t="n">
         <v>290.8748469976151</v>
       </c>
+      <c r="H333" t="n">
+        <v>4718.185087020825</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8128,6 +9129,9 @@
       <c r="G334" t="n">
         <v>305.8885305563407</v>
       </c>
+      <c r="H334" t="n">
+        <v>36.71521279762205</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8151,6 +9155,9 @@
       <c r="G335" t="n">
         <v>270.4741428159249</v>
       </c>
+      <c r="H335" t="n">
+        <v>-118.3965169284807</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8174,6 +9181,9 @@
       <c r="G336" t="n">
         <v>380.5951780516208</v>
       </c>
+      <c r="H336" t="n">
+        <v>-191.202308568133</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8197,6 +9207,9 @@
       <c r="G337" t="n">
         <v>369.4561698125643</v>
       </c>
+      <c r="H337" t="n">
+        <v>-159.6353954692247</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8220,6 +9233,9 @@
       <c r="G338" t="n">
         <v>249.5274241010105</v>
       </c>
+      <c r="H338" t="n">
+        <v>44.8049461500661</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8243,6 +9259,9 @@
       <c r="G339" t="n">
         <v>289.335277466797</v>
       </c>
+      <c r="H339" t="n">
+        <v>-71.6106984451404</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8266,6 +9285,9 @@
       <c r="G340" t="n">
         <v>389.0674384959393</v>
       </c>
+      <c r="H340" t="n">
+        <v>-171.8832559976213</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8289,6 +9311,9 @@
       <c r="G341" t="n">
         <v>264.0724182988537</v>
       </c>
+      <c r="H341" t="n">
+        <v>-1672.638395897612</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8312,6 +9337,9 @@
       <c r="G342" t="n">
         <v>-4.979969118434592</v>
       </c>
+      <c r="H342" t="n">
+        <v>1428.822050063571</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8335,6 +9363,9 @@
       <c r="G343" t="n">
         <v>114.5189978148761</v>
       </c>
+      <c r="H343" t="n">
+        <v>-271.2715715615324</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8358,6 +9389,9 @@
       <c r="G344" t="n">
         <v>487.5704588661954</v>
       </c>
+      <c r="H344" t="n">
+        <v>-336.9433787398324</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8381,6 +9415,9 @@
       <c r="G345" t="n">
         <v>288.4188113276374</v>
       </c>
+      <c r="H345" t="n">
+        <v>-96.93869080815716</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8404,6 +9441,9 @@
       <c r="G346" t="n">
         <v>59.60378545831293</v>
       </c>
+      <c r="H346" t="n">
+        <v>558.8487561661142</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8427,6 +9467,9 @@
       <c r="G347" t="n">
         <v>74.2581278259584</v>
       </c>
+      <c r="H347" t="n">
+        <v>584.7096442293843</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8450,6 +9493,9 @@
       <c r="G348" t="n">
         <v>301.8867852545542</v>
       </c>
+      <c r="H348" t="n">
+        <v>-203.1242034383245</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8473,6 +9519,9 @@
       <c r="G349" t="n">
         <v>207.6218479247084</v>
       </c>
+      <c r="H349" t="n">
+        <v>311.4272507400212</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8496,6 +9545,9 @@
       <c r="G350" t="n">
         <v>320.4926387114364</v>
       </c>
+      <c r="H350" t="n">
+        <v>-203.1718995244626</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8519,6 +9571,9 @@
       <c r="G351" t="n">
         <v>142.976835457745</v>
       </c>
+      <c r="H351" t="n">
+        <v>-0.6195959117695642</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8542,6 +9597,9 @@
       <c r="G352" t="n">
         <v>187.2349535949378</v>
       </c>
+      <c r="H352" t="n">
+        <v>44.14410587272454</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8565,6 +9623,9 @@
       <c r="G353" t="n">
         <v>83.61271164294175</v>
       </c>
+      <c r="H353" t="n">
+        <v>127.8729685434533</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8588,6 +9649,9 @@
       <c r="G354" t="n">
         <v>147.5341893711322</v>
       </c>
+      <c r="H354" t="n">
+        <v>100.5734554463706</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8611,6 +9675,9 @@
       <c r="G355" t="n">
         <v>142.562775215554</v>
       </c>
+      <c r="H355" t="n">
+        <v>48.41696422982108</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8634,6 +9701,9 @@
       <c r="G356" t="n">
         <v>117.9524285386431</v>
       </c>
+      <c r="H356" t="n">
+        <v>621.1097927130055</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8657,6 +9727,9 @@
       <c r="G357" t="n">
         <v>162.1307027300764</v>
       </c>
+      <c r="H357" t="n">
+        <v>963.7631229739839</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -8680,6 +9753,9 @@
       <c r="G358" t="n">
         <v>-24.54570377302966</v>
       </c>
+      <c r="H358" t="n">
+        <v>747.9914498146771</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -8703,6 +9779,9 @@
       <c r="G359" t="n">
         <v>117.5283468560231</v>
       </c>
+      <c r="H359" t="n">
+        <v>1704.238082481319</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -8726,6 +9805,9 @@
       <c r="G360" t="n">
         <v>205.4176077853009</v>
       </c>
+      <c r="H360" t="n">
+        <v>6.655918634521491</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8749,6 +9831,9 @@
       <c r="G361" t="n">
         <v>649.565959220505</v>
       </c>
+      <c r="H361" t="n">
+        <v>-657.8727386612017</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8772,6 +9857,9 @@
       <c r="G362" t="n">
         <v>278.3682055686399</v>
       </c>
+      <c r="H362" t="n">
+        <v>-85.98036724576771</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8795,6 +9883,9 @@
       <c r="G363" t="n">
         <v>610.3872666042163</v>
       </c>
+      <c r="H363" t="n">
+        <v>-507.7909179578136</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8818,6 +9909,9 @@
       <c r="G364" t="n">
         <v>228.9860457782337</v>
       </c>
+      <c r="H364" t="n">
+        <v>1.741142287009124</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8841,6 +9935,9 @@
       <c r="G365" t="n">
         <v>238.493244977604</v>
       </c>
+      <c r="H365" t="n">
+        <v>-75.81881616245747</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8864,6 +9961,9 @@
       <c r="G366" t="n">
         <v>194.4473683488407</v>
       </c>
+      <c r="H366" t="n">
+        <v>-6.720239296761225</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8887,6 +9987,9 @@
       <c r="G367" t="n">
         <v>301.0040575521219</v>
       </c>
+      <c r="H367" t="n">
+        <v>-81.54075759495289</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -8910,6 +10013,9 @@
       <c r="G368" t="n">
         <v>242.4754238206834</v>
       </c>
+      <c r="H368" t="n">
+        <v>20.072554104728</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8933,6 +10039,9 @@
       <c r="G369" t="n">
         <v>188.8928534873326</v>
       </c>
+      <c r="H369" t="n">
+        <v>6.122069084161239</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8956,6 +10065,9 @@
       <c r="G370" t="n">
         <v>381.8686770276714</v>
       </c>
+      <c r="H370" t="n">
+        <v>-50.16940775637465</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -8979,6 +10091,9 @@
       <c r="G371" t="n">
         <v>361.7682096654996</v>
       </c>
+      <c r="H371" t="n">
+        <v>-157.429884282878</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -9002,6 +10117,9 @@
       <c r="G372" t="n">
         <v>236.2900667862998</v>
       </c>
+      <c r="H372" t="n">
+        <v>66.49500390173341</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -9025,6 +10143,9 @@
       <c r="G373" t="n">
         <v>385.523074635007</v>
       </c>
+      <c r="H373" t="n">
+        <v>-234.3922945915979</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -9048,6 +10169,9 @@
       <c r="G374" t="n">
         <v>341.4183025228628</v>
       </c>
+      <c r="H374" t="n">
+        <v>-150.1360384002984</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9071,6 +10195,9 @@
       <c r="G375" t="n">
         <v>249.7320941118427</v>
       </c>
+      <c r="H375" t="n">
+        <v>-2.850022391814808</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9094,6 +10221,9 @@
       <c r="G376" t="n">
         <v>446.2306370896356</v>
       </c>
+      <c r="H376" t="n">
+        <v>-370.9291680764682</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9117,6 +10247,9 @@
       <c r="G377" t="n">
         <v>603.9675151969037</v>
       </c>
+      <c r="H377" t="n">
+        <v>-545.2384361930065</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9140,6 +10273,9 @@
       <c r="G378" t="n">
         <v>358.7827013026903</v>
       </c>
+      <c r="H378" t="n">
+        <v>-205.8586879521423</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9163,6 +10299,9 @@
       <c r="G379" t="n">
         <v>272.4534597109807</v>
       </c>
+      <c r="H379" t="n">
+        <v>-62.71238576205091</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9186,6 +10325,9 @@
       <c r="G380" t="n">
         <v>267.2306299909687</v>
       </c>
+      <c r="H380" t="n">
+        <v>-47.4802211792922</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9209,6 +10351,9 @@
       <c r="G381" t="n">
         <v>333.1273296603176</v>
       </c>
+      <c r="H381" t="n">
+        <v>-113.0937063167033</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9232,6 +10377,9 @@
       <c r="G382" t="n">
         <v>432.8106941308428</v>
       </c>
+      <c r="H382" t="n">
+        <v>-346.3819884089755</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9255,6 +10403,9 @@
       <c r="G383" t="n">
         <v>347.1451211101874</v>
       </c>
+      <c r="H383" t="n">
+        <v>-167.7190345824132</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9278,6 +10429,9 @@
       <c r="G384" t="n">
         <v>175.6991802961932</v>
       </c>
+      <c r="H384" t="n">
+        <v>76.17634788572811</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9301,6 +10455,9 @@
       <c r="G385" t="n">
         <v>161.343094437521</v>
       </c>
+      <c r="H385" t="n">
+        <v>13.60943617960323</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9324,6 +10481,9 @@
       <c r="G386" t="n">
         <v>411.4795151215545</v>
       </c>
+      <c r="H386" t="n">
+        <v>-299.5426548589265</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9347,6 +10507,9 @@
       <c r="G387" t="n">
         <v>108.7467068400894</v>
       </c>
+      <c r="H387" t="n">
+        <v>26.24477037286226</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9370,6 +10533,9 @@
       <c r="G388" t="n">
         <v>292.8997105026701</v>
       </c>
+      <c r="H388" t="n">
+        <v>-21.56144662485524</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9393,6 +10559,9 @@
       <c r="G389" t="n">
         <v>61.21937238033836</v>
       </c>
+      <c r="H389" t="n">
+        <v>137.8425140766046</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9416,6 +10585,9 @@
       <c r="G390" t="n">
         <v>-9.417877534870829</v>
       </c>
+      <c r="H390" t="n">
+        <v>-602.5096833263989</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9439,6 +10611,9 @@
       <c r="G391" t="n">
         <v>187.8838196625262</v>
       </c>
+      <c r="H391" t="n">
+        <v>-40.11239879378624</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9462,6 +10637,9 @@
       <c r="G392" t="n">
         <v>93.86871812200049</v>
       </c>
+      <c r="H392" t="n">
+        <v>705.834955227751</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9485,6 +10663,9 @@
       <c r="G393" t="n">
         <v>145.3412824473261</v>
       </c>
+      <c r="H393" t="n">
+        <v>200.5172378960189</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9508,6 +10689,9 @@
       <c r="G394" t="n">
         <v>632.8326594967555</v>
       </c>
+      <c r="H394" t="n">
+        <v>-554.8260618198044</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9531,6 +10715,9 @@
       <c r="G395" t="n">
         <v>524.4917139538284</v>
       </c>
+      <c r="H395" t="n">
+        <v>-367.7257166843082</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9554,6 +10741,9 @@
       <c r="G396" t="n">
         <v>378.8453383363331</v>
       </c>
+      <c r="H396" t="n">
+        <v>-220.0847732180675</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9577,6 +10767,9 @@
       <c r="G397" t="n">
         <v>462.7709698660614</v>
       </c>
+      <c r="H397" t="n">
+        <v>-405.3063038702944</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9600,6 +10793,9 @@
       <c r="G398" t="n">
         <v>177.408015021948</v>
       </c>
+      <c r="H398" t="n">
+        <v>899.7656089311585</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9623,6 +10819,9 @@
       <c r="G399" t="n">
         <v>280.1046447543227</v>
       </c>
+      <c r="H399" t="n">
+        <v>-123.8088099612043</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9646,6 +10845,9 @@
       <c r="G400" t="n">
         <v>471.4065966442135</v>
       </c>
+      <c r="H400" t="n">
+        <v>-316.9289428634561</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -9669,6 +10871,9 @@
       <c r="G401" t="n">
         <v>475.3710408940565</v>
       </c>
+      <c r="H401" t="n">
+        <v>-562.3247621942709</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -9692,6 +10897,9 @@
       <c r="G402" t="n">
         <v>116.4118467189259</v>
       </c>
+      <c r="H402" t="n">
+        <v>198.3875674806187</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -9715,6 +10923,9 @@
       <c r="G403" t="n">
         <v>309.7955529230764</v>
       </c>
+      <c r="H403" t="n">
+        <v>-24.25075240790463</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -9738,6 +10949,9 @@
       <c r="G404" t="n">
         <v>706.0156057071227</v>
       </c>
+      <c r="H404" t="n">
+        <v>-663.3997521096262</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -9761,6 +10975,9 @@
       <c r="G405" t="n">
         <v>272.1921047835962</v>
       </c>
+      <c r="H405" t="n">
+        <v>-124.0226340942227</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -9784,6 +11001,9 @@
       <c r="G406" t="n">
         <v>244.4185199844733</v>
       </c>
+      <c r="H406" t="n">
+        <v>45.54729172704253</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -9807,6 +11027,9 @@
       <c r="G407" t="n">
         <v>73.66569378575771</v>
       </c>
+      <c r="H407" t="n">
+        <v>626.1772489131923</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9830,6 +11053,9 @@
       <c r="G408" t="n">
         <v>266.6796667782517</v>
       </c>
+      <c r="H408" t="n">
+        <v>-24.39988597956146</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9853,6 +11079,9 @@
       <c r="G409" t="n">
         <v>205.854665697569</v>
       </c>
+      <c r="H409" t="n">
+        <v>2094.481217106499</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9876,6 +11105,9 @@
       <c r="G410" t="n">
         <v>278.829962078581</v>
       </c>
+      <c r="H410" t="n">
+        <v>419.5104558130472</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9899,6 +11131,9 @@
       <c r="G411" t="n">
         <v>337.6128484726897</v>
       </c>
+      <c r="H411" t="n">
+        <v>-113.7584883345251</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -9922,6 +11157,9 @@
       <c r="G412" t="n">
         <v>168.4987659619186</v>
       </c>
+      <c r="H412" t="n">
+        <v>-10.9497217511235</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -9945,6 +11183,9 @@
       <c r="G413" t="n">
         <v>90.94081370385827</v>
       </c>
+      <c r="H413" t="n">
+        <v>147.7598928912802</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -9968,6 +11209,9 @@
       <c r="G414" t="n">
         <v>495.5070812211184</v>
       </c>
+      <c r="H414" t="n">
+        <v>-331.4180656074172</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -9991,6 +11235,9 @@
       <c r="G415" t="n">
         <v>472.7088082925675</v>
       </c>
+      <c r="H415" t="n">
+        <v>-122.2711494140201</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -10014,6 +11261,9 @@
       <c r="G416" t="n">
         <v>204.0993149422558</v>
       </c>
+      <c r="H416" t="n">
+        <v>132.3590588398575</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -10037,6 +11287,9 @@
       <c r="G417" t="n">
         <v>353.7141055489136</v>
       </c>
+      <c r="H417" t="n">
+        <v>-35.89805180896956</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -10060,6 +11313,9 @@
       <c r="G418" t="n">
         <v>176.4322847497118</v>
       </c>
+      <c r="H418" t="n">
+        <v>133.3483123121715</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10083,6 +11339,9 @@
       <c r="G419" t="n">
         <v>122.098934547934</v>
       </c>
+      <c r="H419" t="n">
+        <v>179.944447859895</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10106,6 +11365,9 @@
       <c r="G420" t="n">
         <v>135.5454780652353</v>
       </c>
+      <c r="H420" t="n">
+        <v>138.7178156318568</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10129,6 +11391,9 @@
       <c r="G421" t="n">
         <v>234.9335559933501</v>
       </c>
+      <c r="H421" t="n">
+        <v>-133.3362961973488</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10152,6 +11417,9 @@
       <c r="G422" t="n">
         <v>131.0135765576024</v>
       </c>
+      <c r="H422" t="n">
+        <v>360.7670363901298</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10175,6 +11443,9 @@
       <c r="G423" t="n">
         <v>171.3417372978098</v>
       </c>
+      <c r="H423" t="n">
+        <v>423.6373443744313</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10198,6 +11469,9 @@
       <c r="G424" t="n">
         <v>130.6247909864805</v>
       </c>
+      <c r="H424" t="n">
+        <v>225.5360744554989</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10221,6 +11495,9 @@
       <c r="G425" t="n">
         <v>103.3881784185375</v>
       </c>
+      <c r="H425" t="n">
+        <v>769.1614596844565</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -10244,6 +11521,9 @@
       <c r="G426" t="n">
         <v>62.74304024846773</v>
       </c>
+      <c r="H426" t="n">
+        <v>797.0580531091729</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -10267,6 +11547,9 @@
       <c r="G427" t="n">
         <v>116.4395587516074</v>
       </c>
+      <c r="H427" t="n">
+        <v>5788.564318756265</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -10290,6 +11573,9 @@
       <c r="G428" t="n">
         <v>125.2678644403852</v>
       </c>
+      <c r="H428" t="n">
+        <v>928.3891303215653</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -10313,6 +11599,9 @@
       <c r="G429" t="n">
         <v>214.6031396224027</v>
       </c>
+      <c r="H429" t="n">
+        <v>76.74355938386172</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -10336,6 +11625,9 @@
       <c r="G430" t="n">
         <v>160.9304259178272</v>
       </c>
+      <c r="H430" t="n">
+        <v>745.1607806625441</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -10359,6 +11651,9 @@
       <c r="G431" t="n">
         <v>169.8552615109571</v>
       </c>
+      <c r="H431" t="n">
+        <v>61.99512652163661</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -10382,6 +11677,9 @@
       <c r="G432" t="n">
         <v>98.30308555759244</v>
       </c>
+      <c r="H432" t="n">
+        <v>2925.371345664332</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -10405,6 +11703,9 @@
       <c r="G433" t="n">
         <v>192.0552021373099</v>
       </c>
+      <c r="H433" t="n">
+        <v>23.26221572868028</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -10428,6 +11729,9 @@
       <c r="G434" t="n">
         <v>138.3539976958022</v>
       </c>
+      <c r="H434" t="n">
+        <v>433.1726803512617</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -10451,6 +11755,9 @@
       <c r="G435" t="n">
         <v>84.78682950413669</v>
       </c>
+      <c r="H435" t="n">
+        <v>-137.1833934782026</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -10474,6 +11781,9 @@
       <c r="G436" t="n">
         <v>142.605229108893</v>
       </c>
+      <c r="H436" t="n">
+        <v>220.3404222863475</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -10497,6 +11807,9 @@
       <c r="G437" t="n">
         <v>218.3217430527416</v>
       </c>
+      <c r="H437" t="n">
+        <v>-17.5860568817792</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -10520,6 +11833,9 @@
       <c r="G438" t="n">
         <v>111.2993289966225</v>
       </c>
+      <c r="H438" t="n">
+        <v>384.8284515769</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -10543,6 +11859,9 @@
       <c r="G439" t="n">
         <v>137.9888997648001</v>
       </c>
+      <c r="H439" t="n">
+        <v>161.9491769041553</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -10566,6 +11885,9 @@
       <c r="G440" t="n">
         <v>57.82478374146098</v>
       </c>
+      <c r="H440" t="n">
+        <v>82.07050590711341</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -10589,6 +11911,9 @@
       <c r="G441" t="n">
         <v>164.5407492506585</v>
       </c>
+      <c r="H441" t="n">
+        <v>40.81318556435698</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -10612,6 +11937,9 @@
       <c r="G442" t="n">
         <v>146.6311704918206</v>
       </c>
+      <c r="H442" t="n">
+        <v>891.6686643648445</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -10635,6 +11963,9 @@
       <c r="G443" t="n">
         <v>199.896663544362</v>
       </c>
+      <c r="H443" t="n">
+        <v>1461.309935092186</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -10658,6 +11989,9 @@
       <c r="G444" t="n">
         <v>346.3234205091492</v>
       </c>
+      <c r="H444" t="n">
+        <v>-111.0282771089043</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -10681,6 +12015,9 @@
       <c r="G445" t="n">
         <v>173.0961994462634</v>
       </c>
+      <c r="H445" t="n">
+        <v>71.61994034860295</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -10704,6 +12041,9 @@
       <c r="G446" t="n">
         <v>53.25440074399116</v>
       </c>
+      <c r="H446" t="n">
+        <v>293.4347482535817</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -10727,6 +12067,9 @@
       <c r="G447" t="n">
         <v>119.2882686545483</v>
       </c>
+      <c r="H447" t="n">
+        <v>-66.29212051448243</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -10750,6 +12093,9 @@
       <c r="G448" t="n">
         <v>141.3129364538966</v>
       </c>
+      <c r="H448" t="n">
+        <v>102.5007464382058</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -10773,6 +12119,9 @@
       <c r="G449" t="n">
         <v>83.82552310057586</v>
       </c>
+      <c r="H449" t="n">
+        <v>226.5831022877112</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -10796,6 +12145,9 @@
       <c r="G450" t="n">
         <v>79.28828242968066</v>
       </c>
+      <c r="H450" t="n">
+        <v>44.94717022479156</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -10819,6 +12171,9 @@
       <c r="G451" t="n">
         <v>140.9513422926192</v>
       </c>
+      <c r="H451" t="n">
+        <v>478.149850745391</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -10842,6 +12197,9 @@
       <c r="G452" t="n">
         <v>220.1532067233346</v>
       </c>
+      <c r="H452" t="n">
+        <v>130.698262603759</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -10865,6 +12223,9 @@
       <c r="G453" t="n">
         <v>176.0341749640389</v>
       </c>
+      <c r="H453" t="n">
+        <v>-51.19323655325012</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -10888,6 +12249,9 @@
       <c r="G454" t="n">
         <v>258.953491077705</v>
       </c>
+      <c r="H454" t="n">
+        <v>-85.01092786119716</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -10911,6 +12275,9 @@
       <c r="G455" t="n">
         <v>96.44008569618839</v>
       </c>
+      <c r="H455" t="n">
+        <v>190.0958428170259</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -10934,6 +12301,9 @@
       <c r="G456" t="n">
         <v>232.2369982309701</v>
       </c>
+      <c r="H456" t="n">
+        <v>136.8919243869834</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -10957,6 +12327,9 @@
       <c r="G457" t="n">
         <v>197.100076767616</v>
       </c>
+      <c r="H457" t="n">
+        <v>-76.13286264154178</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -10980,6 +12353,9 @@
       <c r="G458" t="n">
         <v>210.2102790272025</v>
       </c>
+      <c r="H458" t="n">
+        <v>-153.1183153346458</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -11003,6 +12379,9 @@
       <c r="G459" t="n">
         <v>279.8099322217222</v>
       </c>
+      <c r="H459" t="n">
+        <v>-155.8574380717183</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -11026,6 +12405,9 @@
       <c r="G460" t="n">
         <v>91.78467588971206</v>
       </c>
+      <c r="H460" t="n">
+        <v>10.22446390993124</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -11049,6 +12431,9 @@
       <c r="G461" t="n">
         <v>192.2855277172897</v>
       </c>
+      <c r="H461" t="n">
+        <v>-31.80258582923868</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -11072,6 +12457,9 @@
       <c r="G462" t="n">
         <v>238.3229262220435</v>
       </c>
+      <c r="H462" t="n">
+        <v>-70.12384182495555</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -11095,6 +12483,9 @@
       <c r="G463" t="n">
         <v>384.0659859137528</v>
       </c>
+      <c r="H463" t="n">
+        <v>-160.8932515690848</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -11118,6 +12509,9 @@
       <c r="G464" t="n">
         <v>386.5088821976353</v>
       </c>
+      <c r="H464" t="n">
+        <v>34.03770430461683</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -11141,6 +12535,9 @@
       <c r="G465" t="n">
         <v>278.3065659815379</v>
       </c>
+      <c r="H465" t="n">
+        <v>-55.52797820995571</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -11164,6 +12561,9 @@
       <c r="G466" t="n">
         <v>277.3923553421329</v>
       </c>
+      <c r="H466" t="n">
+        <v>-97.18395537568279</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -11187,6 +12587,9 @@
       <c r="G467" t="n">
         <v>239.4994202029368</v>
       </c>
+      <c r="H467" t="n">
+        <v>-7.950862667047035</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -11210,6 +12613,9 @@
       <c r="G468" t="n">
         <v>303.5726486043146</v>
       </c>
+      <c r="H468" t="n">
+        <v>30.01757550152243</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -11233,6 +12639,9 @@
       <c r="G469" t="n">
         <v>478.2125432893851</v>
       </c>
+      <c r="H469" t="n">
+        <v>-427.1712720803758</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -11256,6 +12665,9 @@
       <c r="G470" t="n">
         <v>234.3816151067288</v>
       </c>
+      <c r="H470" t="n">
+        <v>-57.65888961054677</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -11279,6 +12691,9 @@
       <c r="G471" t="n">
         <v>166.0176884067126</v>
       </c>
+      <c r="H471" t="n">
+        <v>23.55303305005745</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -11302,6 +12717,9 @@
       <c r="G472" t="n">
         <v>477.1964949355628</v>
       </c>
+      <c r="H472" t="n">
+        <v>75.82034221443965</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -11325,6 +12743,9 @@
       <c r="G473" t="n">
         <v>242.3965569497223</v>
       </c>
+      <c r="H473" t="n">
+        <v>-19.89734169113118</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -11348,6 +12769,9 @@
       <c r="G474" t="n">
         <v>225.5604496260253</v>
       </c>
+      <c r="H474" t="n">
+        <v>134.1856720731294</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -11371,6 +12795,9 @@
       <c r="G475" t="n">
         <v>181.2025467098823</v>
       </c>
+      <c r="H475" t="n">
+        <v>-68.31563666120579</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -11394,6 +12821,9 @@
       <c r="G476" t="n">
         <v>233.4128622855234</v>
       </c>
+      <c r="H476" t="n">
+        <v>151.0329418620676</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -11417,6 +12847,9 @@
       <c r="G477" t="n">
         <v>224.9374666546087</v>
       </c>
+      <c r="H477" t="n">
+        <v>79.01915352422976</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -11440,6 +12873,9 @@
       <c r="G478" t="n">
         <v>172.4417415259499</v>
       </c>
+      <c r="H478" t="n">
+        <v>403.5986393784232</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -11463,6 +12899,9 @@
       <c r="G479" t="n">
         <v>76.1664285974651</v>
       </c>
+      <c r="H479" t="n">
+        <v>68.593008199434</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -11486,6 +12925,9 @@
       <c r="G480" t="n">
         <v>224.3238021063881</v>
       </c>
+      <c r="H480" t="n">
+        <v>860.6285288037263</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -11509,6 +12951,9 @@
       <c r="G481" t="n">
         <v>280.0410918233773</v>
       </c>
+      <c r="H481" t="n">
+        <v>-121.1955952295439</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -11532,6 +12977,9 @@
       <c r="G482" t="n">
         <v>499.8452774835266</v>
       </c>
+      <c r="H482" t="n">
+        <v>-370.0143922364782</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -11555,6 +13003,9 @@
       <c r="G483" t="n">
         <v>155.879703350401</v>
       </c>
+      <c r="H483" t="n">
+        <v>254.3895991114938</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -11578,6 +13029,9 @@
       <c r="G484" t="n">
         <v>239.5758218871549</v>
       </c>
+      <c r="H484" t="n">
+        <v>932.9430407188925</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -11601,6 +13055,9 @@
       <c r="G485" t="n">
         <v>239.5358719892937</v>
       </c>
+      <c r="H485" t="n">
+        <v>-154.0744934467061</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -11624,6 +13081,9 @@
       <c r="G486" t="n">
         <v>530.705792314264</v>
       </c>
+      <c r="H486" t="n">
+        <v>-323.541171930424</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -11647,6 +13107,9 @@
       <c r="G487" t="n">
         <v>366.1237845858022</v>
       </c>
+      <c r="H487" t="n">
+        <v>-239.7381656134491</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -11670,6 +13133,9 @@
       <c r="G488" t="n">
         <v>198.6962348921064</v>
       </c>
+      <c r="H488" t="n">
+        <v>995.3257666376196</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -11693,6 +13159,9 @@
       <c r="G489" t="n">
         <v>206.4802574413901</v>
       </c>
+      <c r="H489" t="n">
+        <v>192.7664579828921</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -11716,6 +13185,9 @@
       <c r="G490" t="n">
         <v>130.7736862554245</v>
       </c>
+      <c r="H490" t="n">
+        <v>509.6951368930739</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -11739,6 +13211,9 @@
       <c r="G491" t="n">
         <v>308.8609399394046</v>
       </c>
+      <c r="H491" t="n">
+        <v>-169.0926083921863</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -11762,6 +13237,9 @@
       <c r="G492" t="n">
         <v>470.1475817136757</v>
       </c>
+      <c r="H492" t="n">
+        <v>-314.0259218031314</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -11785,6 +13263,9 @@
       <c r="G493" t="n">
         <v>177.7333284748242</v>
       </c>
+      <c r="H493" t="n">
+        <v>176.8700221225651</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -11808,6 +13289,9 @@
       <c r="G494" t="n">
         <v>184.909249837809</v>
       </c>
+      <c r="H494" t="n">
+        <v>389.7312065480349</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -11831,6 +13315,9 @@
       <c r="G495" t="n">
         <v>287.6457792763024</v>
       </c>
+      <c r="H495" t="n">
+        <v>-121.7500793016024</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -11854,6 +13341,9 @@
       <c r="G496" t="n">
         <v>194.1366020472757</v>
       </c>
+      <c r="H496" t="n">
+        <v>213.1035811751723</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -11877,6 +13367,9 @@
       <c r="G497" t="n">
         <v>236.7191000773739</v>
       </c>
+      <c r="H497" t="n">
+        <v>14.29359362579713</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -11900,6 +13393,9 @@
       <c r="G498" t="n">
         <v>108.4549174772413</v>
       </c>
+      <c r="H498" t="n">
+        <v>-3082.175645896491</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -11923,6 +13419,9 @@
       <c r="G499" t="n">
         <v>201.2121981714189</v>
       </c>
+      <c r="H499" t="n">
+        <v>228.2338480408928</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -11946,6 +13445,9 @@
       <c r="G500" t="n">
         <v>205.0530611646599</v>
       </c>
+      <c r="H500" t="n">
+        <v>794.8262646170941</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -11969,6 +13471,9 @@
       <c r="G501" t="n">
         <v>266.8003793837181</v>
       </c>
+      <c r="H501" t="n">
+        <v>55.45376948569736</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -11992,6 +13497,9 @@
       <c r="G502" t="n">
         <v>454.5404264637098</v>
       </c>
+      <c r="H502" t="n">
+        <v>-352.7684629930419</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -12015,6 +13523,9 @@
       <c r="G503" t="n">
         <v>161.3311545941339</v>
       </c>
+      <c r="H503" t="n">
+        <v>930.3872948090853</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -12038,6 +13549,9 @@
       <c r="G504" t="n">
         <v>230.3126126701382</v>
       </c>
+      <c r="H504" t="n">
+        <v>-18.87536307987772</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -12061,6 +13575,9 @@
       <c r="G505" t="n">
         <v>203.3671277195349</v>
       </c>
+      <c r="H505" t="n">
+        <v>554.7129529515772</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -12084,6 +13601,9 @@
       <c r="G506" t="n">
         <v>176.2818850598353</v>
       </c>
+      <c r="H506" t="n">
+        <v>494.1127113375444</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -12107,6 +13627,9 @@
       <c r="G507" t="n">
         <v>474.5033949449048</v>
       </c>
+      <c r="H507" t="n">
+        <v>-320.9373902162613</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -12130,6 +13653,9 @@
       <c r="G508" t="n">
         <v>99.33585867874183</v>
       </c>
+      <c r="H508" t="n">
+        <v>293.4280017508103</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -12153,6 +13679,9 @@
       <c r="G509" t="n">
         <v>156.4288504075296</v>
       </c>
+      <c r="H509" t="n">
+        <v>-183.7638340970095</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -12176,6 +13705,9 @@
       <c r="G510" t="n">
         <v>193.1690580216328</v>
       </c>
+      <c r="H510" t="n">
+        <v>-90.52591306650935</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -12199,6 +13731,9 @@
       <c r="G511" t="n">
         <v>502.2140098760443</v>
       </c>
+      <c r="H511" t="n">
+        <v>-412.7343037803407</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -12222,6 +13757,9 @@
       <c r="G512" t="n">
         <v>241.546725873968</v>
       </c>
+      <c r="H512" t="n">
+        <v>32.89432959893396</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -12245,6 +13783,9 @@
       <c r="G513" t="n">
         <v>501.6637314411207</v>
       </c>
+      <c r="H513" t="n">
+        <v>-306.1718646256186</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -12268,6 +13809,9 @@
       <c r="G514" t="n">
         <v>267.4995170081102</v>
       </c>
+      <c r="H514" t="n">
+        <v>872.7155035842023</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -12291,6 +13835,9 @@
       <c r="G515" t="n">
         <v>199.6637204050944</v>
       </c>
+      <c r="H515" t="n">
+        <v>227.724973583388</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -12314,6 +13861,9 @@
       <c r="G516" t="n">
         <v>460.8648967691788</v>
       </c>
+      <c r="H516" t="n">
+        <v>-429.7317741147857</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -12337,6 +13887,9 @@
       <c r="G517" t="n">
         <v>343.4509582626749</v>
       </c>
+      <c r="H517" t="n">
+        <v>142.7352394297444</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -12360,6 +13913,9 @@
       <c r="G518" t="n">
         <v>473.0667166225604</v>
       </c>
+      <c r="H518" t="n">
+        <v>-305.852846836221</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -12383,6 +13939,9 @@
       <c r="G519" t="n">
         <v>59.40612971022731</v>
       </c>
+      <c r="H519" t="n">
+        <v>-860.2378678655823</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -12406,6 +13965,9 @@
       <c r="G520" t="n">
         <v>204.1330547768963</v>
       </c>
+      <c r="H520" t="n">
+        <v>72.07898923635315</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -12429,6 +13991,9 @@
       <c r="G521" t="n">
         <v>88.83724495324149</v>
       </c>
+      <c r="H521" t="n">
+        <v>-371.3953145210349</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -12452,6 +14017,9 @@
       <c r="G522" t="n">
         <v>208.2308531614801</v>
       </c>
+      <c r="H522" t="n">
+        <v>1417.343009601163</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -12475,6 +14043,9 @@
       <c r="G523" t="n">
         <v>299.4273282917338</v>
       </c>
+      <c r="H523" t="n">
+        <v>-94.39293933772828</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -12498,6 +14069,9 @@
       <c r="G524" t="n">
         <v>40.12766609656833</v>
       </c>
+      <c r="H524" t="n">
+        <v>1208.356860800539</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -12521,6 +14095,9 @@
       <c r="G525" t="n">
         <v>539.5990856589589</v>
       </c>
+      <c r="H525" t="n">
+        <v>-321.4539336587181</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -12544,6 +14121,9 @@
       <c r="G526" t="n">
         <v>250.9973690310747</v>
       </c>
+      <c r="H526" t="n">
+        <v>37.53081262254402</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -12567,6 +14147,9 @@
       <c r="G527" t="n">
         <v>272.525440993782</v>
       </c>
+      <c r="H527" t="n">
+        <v>-86.04179314786913</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -12590,6 +14173,9 @@
       <c r="G528" t="n">
         <v>61.65173396973989</v>
       </c>
+      <c r="H528" t="n">
+        <v>271.7143841861377</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -12613,6 +14199,9 @@
       <c r="G529" t="n">
         <v>152.2171436604011</v>
       </c>
+      <c r="H529" t="n">
+        <v>32.19709530233911</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -12636,6 +14225,9 @@
       <c r="G530" t="n">
         <v>202.8030825017334</v>
       </c>
+      <c r="H530" t="n">
+        <v>399.5463672234646</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -12659,6 +14251,9 @@
       <c r="G531" t="n">
         <v>303.5582352532722</v>
       </c>
+      <c r="H531" t="n">
+        <v>154.7009163292684</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -12682,6 +14277,9 @@
       <c r="G532" t="n">
         <v>449.6416221193597</v>
       </c>
+      <c r="H532" t="n">
+        <v>-63.47565157585242</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -12705,6 +14303,9 @@
       <c r="G533" t="n">
         <v>233.0060042921284</v>
       </c>
+      <c r="H533" t="n">
+        <v>-156.8393694706527</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -12728,6 +14329,9 @@
       <c r="G534" t="n">
         <v>365.4287406505287</v>
       </c>
+      <c r="H534" t="n">
+        <v>-32.81186498900482</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -12751,6 +14355,9 @@
       <c r="G535" t="n">
         <v>263.9863234175524</v>
       </c>
+      <c r="H535" t="n">
+        <v>156.4597466302084</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -12774,6 +14381,9 @@
       <c r="G536" t="n">
         <v>149.4256183281506</v>
       </c>
+      <c r="H536" t="n">
+        <v>-160.8305148917204</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -12797,6 +14407,9 @@
       <c r="G537" t="n">
         <v>330.2660300174602</v>
       </c>
+      <c r="H537" t="n">
+        <v>-169.6379504025763</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -12820,6 +14433,9 @@
       <c r="G538" t="n">
         <v>499.0209240425326</v>
       </c>
+      <c r="H538" t="n">
+        <v>-694.2834218244626</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -12843,6 +14459,9 @@
       <c r="G539" t="n">
         <v>99.05732126728971</v>
       </c>
+      <c r="H539" t="n">
+        <v>-291.9829812949276</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -12866,6 +14485,9 @@
       <c r="G540" t="n">
         <v>468.1830821665931</v>
       </c>
+      <c r="H540" t="n">
+        <v>-699.0270004193189</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -12889,6 +14511,9 @@
       <c r="G541" t="n">
         <v>256.5930316024024</v>
       </c>
+      <c r="H541" t="n">
+        <v>-160.5293809282819</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -12912,6 +14537,9 @@
       <c r="G542" t="n">
         <v>94.40453960430163</v>
       </c>
+      <c r="H542" t="n">
+        <v>-100.2551546919491</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -12935,6 +14563,9 @@
       <c r="G543" t="n">
         <v>247.4687639794099</v>
       </c>
+      <c r="H543" t="n">
+        <v>-38.38334588404521</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -12958,6 +14589,9 @@
       <c r="G544" t="n">
         <v>160.1124975524262</v>
       </c>
+      <c r="H544" t="n">
+        <v>-434.5429673184241</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -12981,6 +14615,9 @@
       <c r="G545" t="n">
         <v>407.1862897951532</v>
       </c>
+      <c r="H545" t="n">
+        <v>-496.8161117735017</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -13004,6 +14641,9 @@
       <c r="G546" t="n">
         <v>100.9014776574091</v>
       </c>
+      <c r="H546" t="n">
+        <v>-13.09638915183907</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -13027,6 +14667,9 @@
       <c r="G547" t="n">
         <v>215.6618514234176</v>
       </c>
+      <c r="H547" t="n">
+        <v>-29.42541295829929</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -13050,6 +14693,9 @@
       <c r="G548" t="n">
         <v>399.7710644547503</v>
       </c>
+      <c r="H548" t="n">
+        <v>41.58465713609488</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -13073,6 +14719,9 @@
       <c r="G549" t="n">
         <v>445.6915027526201</v>
       </c>
+      <c r="H549" t="n">
+        <v>-523.8526458758253</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -13096,6 +14745,9 @@
       <c r="G550" t="n">
         <v>603.654450725946</v>
       </c>
+      <c r="H550" t="n">
+        <v>-867.1407705937728</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -13119,6 +14771,9 @@
       <c r="G551" t="n">
         <v>275.6128306725886</v>
       </c>
+      <c r="H551" t="n">
+        <v>-231.2185801515453</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -13142,6 +14797,9 @@
       <c r="G552" t="n">
         <v>316.5567604195722</v>
       </c>
+      <c r="H552" t="n">
+        <v>-460.7778934271565</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -13165,6 +14823,9 @@
       <c r="G553" t="n">
         <v>393.5814625569145</v>
       </c>
+      <c r="H553" t="n">
+        <v>-387.7414176600731</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -13188,6 +14849,9 @@
       <c r="G554" t="n">
         <v>396.6968361292472</v>
       </c>
+      <c r="H554" t="n">
+        <v>-308.2344623104655</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -13211,6 +14875,9 @@
       <c r="G555" t="n">
         <v>136.4731900171342</v>
       </c>
+      <c r="H555" t="n">
+        <v>-148.4752866067115</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -13234,6 +14901,9 @@
       <c r="G556" t="n">
         <v>415.8217789121333</v>
       </c>
+      <c r="H556" t="n">
+        <v>-366.3826138821019</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -13257,6 +14927,9 @@
       <c r="G557" t="n">
         <v>173.7650928179621</v>
       </c>
+      <c r="H557" t="n">
+        <v>-96.81244331052341</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -13280,6 +14953,9 @@
       <c r="G558" t="n">
         <v>296.1486820457557</v>
       </c>
+      <c r="H558" t="n">
+        <v>-79.86390355258625</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -13303,6 +14979,9 @@
       <c r="G559" t="n">
         <v>88.46858254313892</v>
       </c>
+      <c r="H559" t="n">
+        <v>-59.79715631338217</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -13326,6 +15005,9 @@
       <c r="G560" t="n">
         <v>557.0176161666278</v>
       </c>
+      <c r="H560" t="n">
+        <v>-1115.161793947148</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -13349,6 +15031,9 @@
       <c r="G561" t="n">
         <v>189.7169772045815</v>
       </c>
+      <c r="H561" t="n">
+        <v>10.44008401683037</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -13372,6 +15057,9 @@
       <c r="G562" t="n">
         <v>466.4521877039886</v>
       </c>
+      <c r="H562" t="n">
+        <v>-350.3387288064392</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -13395,6 +15083,9 @@
       <c r="G563" t="n">
         <v>148.571558231961</v>
       </c>
+      <c r="H563" t="n">
+        <v>97.86526104818628</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -13418,6 +15109,9 @@
       <c r="G564" t="n">
         <v>244.6459388368232</v>
       </c>
+      <c r="H564" t="n">
+        <v>-272.228478497729</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -13441,6 +15135,9 @@
       <c r="G565" t="n">
         <v>321.6496975043341</v>
       </c>
+      <c r="H565" t="n">
+        <v>-251.0398924338841</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -13464,6 +15161,9 @@
       <c r="G566" t="n">
         <v>167.432318108946</v>
       </c>
+      <c r="H566" t="n">
+        <v>822.6444593557896</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -13487,6 +15187,9 @@
       <c r="G567" t="n">
         <v>394.0303315714157</v>
       </c>
+      <c r="H567" t="n">
+        <v>-160.2143095099095</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -13510,6 +15213,9 @@
       <c r="G568" t="n">
         <v>266.0958107997598</v>
       </c>
+      <c r="H568" t="n">
+        <v>167.0356287451729</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -13533,6 +15239,9 @@
       <c r="G569" t="n">
         <v>242.7212991886152</v>
       </c>
+      <c r="H569" t="n">
+        <v>-74.3969918849087</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -13556,6 +15265,9 @@
       <c r="G570" t="n">
         <v>172.786773144405</v>
       </c>
+      <c r="H570" t="n">
+        <v>84.38700855583065</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -13579,6 +15291,9 @@
       <c r="G571" t="n">
         <v>119.3964690044329</v>
       </c>
+      <c r="H571" t="n">
+        <v>8450.047087161844</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -13602,6 +15317,9 @@
       <c r="G572" t="n">
         <v>234.2469123185328</v>
       </c>
+      <c r="H572" t="n">
+        <v>-1020.71440106041</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -13625,6 +15343,9 @@
       <c r="G573" t="n">
         <v>55.96744516247381</v>
       </c>
+      <c r="H573" t="n">
+        <v>934.1984950656815</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -13648,6 +15369,9 @@
       <c r="G574" t="n">
         <v>263.5880446175102</v>
       </c>
+      <c r="H574" t="n">
+        <v>-104.140247309509</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -13671,6 +15395,9 @@
       <c r="G575" t="n">
         <v>143.9737905132135</v>
       </c>
+      <c r="H575" t="n">
+        <v>-398.9017920370146</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -13694,6 +15421,9 @@
       <c r="G576" t="n">
         <v>192.6648205920298</v>
       </c>
+      <c r="H576" t="n">
+        <v>-370.1703360093006</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -13717,6 +15447,9 @@
       <c r="G577" t="n">
         <v>192.6551711296614</v>
       </c>
+      <c r="H577" t="n">
+        <v>909.90658139375</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -13740,6 +15473,9 @@
       <c r="G578" t="n">
         <v>195.0487914372474</v>
       </c>
+      <c r="H578" t="n">
+        <v>571.3862740903559</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -13763,6 +15499,9 @@
       <c r="G579" t="n">
         <v>173.2299911944204</v>
       </c>
+      <c r="H579" t="n">
+        <v>-234.151473028524</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -13786,6 +15525,9 @@
       <c r="G580" t="n">
         <v>342.4728246447154</v>
       </c>
+      <c r="H580" t="n">
+        <v>14.36754778537063</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -13809,6 +15551,9 @@
       <c r="G581" t="n">
         <v>201.9325605790433</v>
       </c>
+      <c r="H581" t="n">
+        <v>1055.285558954066</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -13832,6 +15577,9 @@
       <c r="G582" t="n">
         <v>150.5556371518064</v>
       </c>
+      <c r="H582" t="n">
+        <v>-9829.807908991255</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -13855,6 +15603,9 @@
       <c r="G583" t="n">
         <v>276.5566686855374</v>
       </c>
+      <c r="H583" t="n">
+        <v>17955.33375886845</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -13878,6 +15629,9 @@
       <c r="G584" t="n">
         <v>147.1871356378689</v>
       </c>
+      <c r="H584" t="n">
+        <v>-4472.16977056512</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -13901,6 +15655,9 @@
       <c r="G585" t="n">
         <v>141.1395654545929</v>
       </c>
+      <c r="H585" t="n">
+        <v>-1264.96821747457</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -13924,6 +15681,9 @@
       <c r="G586" t="n">
         <v>176.8987232039831</v>
       </c>
+      <c r="H586" t="n">
+        <v>21113.95460771393</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -13947,6 +15707,9 @@
       <c r="G587" t="n">
         <v>218.356340939852</v>
       </c>
+      <c r="H587" t="n">
+        <v>6105.701706554806</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -13970,6 +15733,9 @@
       <c r="G588" t="n">
         <v>271.8431305837885</v>
       </c>
+      <c r="H588" t="n">
+        <v>-440.7897075792015</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -13993,6 +15759,9 @@
       <c r="G589" t="n">
         <v>348.3949189329567</v>
       </c>
+      <c r="H589" t="n">
+        <v>-226.4390729079293</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -14016,6 +15785,9 @@
       <c r="G590" t="n">
         <v>261.8981731841762</v>
       </c>
+      <c r="H590" t="n">
+        <v>5685.19794204461</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -14039,6 +15811,9 @@
       <c r="G591" t="n">
         <v>338.9111933598435</v>
       </c>
+      <c r="H591" t="n">
+        <v>3842.596232257085</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -14062,6 +15837,9 @@
       <c r="G592" t="n">
         <v>145.6023560613098</v>
       </c>
+      <c r="H592" t="n">
+        <v>1589.262891987847</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -14085,6 +15863,9 @@
       <c r="G593" t="n">
         <v>213.358773957411</v>
       </c>
+      <c r="H593" t="n">
+        <v>2989.060591006142</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -14108,6 +15889,9 @@
       <c r="G594" t="n">
         <v>79.82733888295766</v>
       </c>
+      <c r="H594" t="n">
+        <v>2576.103838591125</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -14131,626 +15915,658 @@
       <c r="G595" t="n">
         <v>363.3545762064405</v>
       </c>
+      <c r="H595" t="n">
+        <v>-521.5043358775077</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>10151.86</v>
+        <v>10157.949</v>
       </c>
       <c r="B596" t="n">
-        <v>10151.8659</v>
+        <v>10157.957</v>
       </c>
       <c r="C596" t="n">
-        <v>0.9782956031064911</v>
+        <v>0.8940601647560141</v>
       </c>
       <c r="D596" t="n">
-        <v>-459</v>
+        <v>-397</v>
       </c>
       <c r="E596" t="n">
-        <v>4.74312333163276</v>
+        <v>24.27105755956458</v>
       </c>
       <c r="F596" t="n">
-        <v>-1.438158364853177</v>
+        <v>0.005105101139918173</v>
       </c>
       <c r="G596" t="n">
-        <v>174.231668134598</v>
+        <v>236.1047160032303</v>
+      </c>
+      <c r="H596" t="n">
+        <v>150.6673068623076</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>10157.949</v>
+        <v>10159.29</v>
       </c>
       <c r="B597" t="n">
-        <v>10157.957</v>
+        <v>10159.3008</v>
       </c>
       <c r="C597" t="n">
-        <v>0.8940601647560141</v>
+        <v>0.9378996347856033</v>
       </c>
       <c r="D597" t="n">
-        <v>-397</v>
+        <v>-314</v>
       </c>
       <c r="E597" t="n">
-        <v>24.27105755956458</v>
+        <v>11.54878188530146</v>
       </c>
       <c r="F597" t="n">
-        <v>0.005105101139918173</v>
+        <v>0.09789846097466708</v>
       </c>
       <c r="G597" t="n">
-        <v>236.1047160032303</v>
+        <v>318.6992936057722</v>
+      </c>
+      <c r="H597" t="n">
+        <v>2888.904662630215</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>10159.29</v>
+        <v>10170.256</v>
       </c>
       <c r="B598" t="n">
-        <v>10159.3008</v>
+        <v>10170.2633</v>
       </c>
       <c r="C598" t="n">
-        <v>0.9378996347856033</v>
+        <v>0.874811985555255</v>
       </c>
       <c r="D598" t="n">
-        <v>-314</v>
+        <v>-418</v>
       </c>
       <c r="E598" t="n">
-        <v>11.54878188530146</v>
+        <v>27.80858802217996</v>
       </c>
       <c r="F598" t="n">
-        <v>0.09789846097466708</v>
+        <v>0.02468355111744805</v>
       </c>
       <c r="G598" t="n">
-        <v>318.6992936057722</v>
+        <v>215.1848432804517</v>
+      </c>
+      <c r="H598" t="n">
+        <v>727.606312138888</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>10170.256</v>
+        <v>10197.902</v>
       </c>
       <c r="B599" t="n">
-        <v>10170.2633</v>
+        <v>10197.9095</v>
       </c>
       <c r="C599" t="n">
-        <v>0.874811985555255</v>
+        <v>0.8617230025277419</v>
       </c>
       <c r="D599" t="n">
-        <v>-418</v>
+        <v>-413</v>
       </c>
       <c r="E599" t="n">
-        <v>27.80858802217996</v>
+        <v>30.29842033396331</v>
       </c>
       <c r="F599" t="n">
-        <v>0.02468355111744805</v>
+        <v>0.004891002650713145</v>
       </c>
       <c r="G599" t="n">
-        <v>215.1848432804517</v>
+        <v>220.4809807698102</v>
+      </c>
+      <c r="H599" t="n">
+        <v>143.7830748659684</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>10197.902</v>
+        <v>10219.114</v>
       </c>
       <c r="B600" t="n">
-        <v>10197.9095</v>
+        <v>10219.1286</v>
       </c>
       <c r="C600" t="n">
-        <v>0.8617230025277419</v>
+        <v>0.5510422216544741</v>
       </c>
       <c r="D600" t="n">
-        <v>-413</v>
+        <v>-205</v>
       </c>
       <c r="E600" t="n">
-        <v>30.29842033396331</v>
+        <v>49.4932136926292</v>
       </c>
       <c r="F600" t="n">
-        <v>0.004891002650713145</v>
+        <v>-0.007629296482903482</v>
       </c>
       <c r="G600" t="n">
-        <v>220.4809807698102</v>
+        <v>428.3120715458798</v>
+      </c>
+      <c r="H600" t="n">
+        <v>-223.8164233631594</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>10219.114</v>
+        <v>10221.211</v>
       </c>
       <c r="B601" t="n">
-        <v>10219.1286</v>
+        <v>10221.2182</v>
       </c>
       <c r="C601" t="n">
-        <v>0.5510422216544741</v>
+        <v>0.7720967067754423</v>
       </c>
       <c r="D601" t="n">
-        <v>-205</v>
+        <v>-422</v>
       </c>
       <c r="E601" t="n">
-        <v>49.4932136926292</v>
+        <v>44.49771560237503</v>
       </c>
       <c r="F601" t="n">
-        <v>-0.007629296482903482</v>
+        <v>0.007146510556207041</v>
       </c>
       <c r="G601" t="n">
-        <v>428.3120715458798</v>
+        <v>211.1790567445773</v>
+      </c>
+      <c r="H601" t="n">
+        <v>209.610188633055</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>10221.211</v>
+        <v>10255.364</v>
       </c>
       <c r="B602" t="n">
-        <v>10221.2182</v>
+        <v>10255.3661</v>
       </c>
       <c r="C602" t="n">
-        <v>0.7720967067754423</v>
+        <v>0.9481118738497124</v>
       </c>
       <c r="D602" t="n">
-        <v>-422</v>
+        <v>-572</v>
       </c>
       <c r="E602" t="n">
-        <v>44.49771560237503</v>
+        <v>7.769932680382336</v>
       </c>
       <c r="F602" t="n">
-        <v>0.007146510556207041</v>
+        <v>0.2271104656315134</v>
       </c>
       <c r="G602" t="n">
-        <v>211.1790567445773</v>
+        <v>61.38876804717894</v>
+      </c>
+      <c r="H602" t="n">
+        <v>6639.062711883844</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>10255.364</v>
+        <v>10268.033</v>
       </c>
       <c r="B603" t="n">
-        <v>10255.3661</v>
+        <v>10268.0375</v>
       </c>
       <c r="C603" t="n">
-        <v>0.9481118738497124</v>
+        <v>0.9505881716496209</v>
       </c>
       <c r="D603" t="n">
-        <v>-572</v>
+        <v>-502</v>
       </c>
       <c r="E603" t="n">
-        <v>7.769932680382336</v>
+        <v>12.3843788405411</v>
       </c>
       <c r="F603" t="n">
-        <v>0.2271104656315134</v>
+        <v>0.1652853384079729</v>
       </c>
       <c r="G603" t="n">
-        <v>61.38876804717894</v>
+        <v>131.3850531002236</v>
+      </c>
+      <c r="H603" t="n">
+        <v>4825.782880975158</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>10268.033</v>
+        <v>10286.596</v>
       </c>
       <c r="B604" t="n">
-        <v>10268.0375</v>
+        <v>10286.5932</v>
       </c>
       <c r="C604" t="n">
-        <v>0.9505881716496209</v>
+        <v>0.9639162643502619</v>
       </c>
       <c r="D604" t="n">
-        <v>-502</v>
+        <v>-715</v>
       </c>
       <c r="E604" t="n">
-        <v>12.3843788405411</v>
+        <v>3.77482765413968</v>
       </c>
       <c r="F604" t="n">
-        <v>0.1652853384079729</v>
+        <v>0.6647150012320631</v>
       </c>
       <c r="G604" t="n">
-        <v>131.3850531002236</v>
+        <v>-81.6031739268814</v>
+      </c>
+      <c r="H604" t="n">
+        <v>19372.44780380538</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>10286.596</v>
+        <v>10310.279</v>
       </c>
       <c r="B605" t="n">
-        <v>10286.5932</v>
+        <v>10310.2825</v>
       </c>
       <c r="C605" t="n">
-        <v>0.9639162643502619</v>
+        <v>0.9642449491557475</v>
       </c>
       <c r="D605" t="n">
-        <v>-715</v>
+        <v>-531</v>
       </c>
       <c r="E605" t="n">
-        <v>3.77482765413968</v>
+        <v>7.479059495972167</v>
       </c>
       <c r="F605" t="n">
-        <v>0.6647150012320631</v>
+        <v>0.239750798389947</v>
       </c>
       <c r="G605" t="n">
-        <v>-81.6031739268814</v>
+        <v>101.7696614037606</v>
+      </c>
+      <c r="H605" t="n">
+        <v>6971.245022252516</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>10310.279</v>
+        <v>10335.161</v>
       </c>
       <c r="B606" t="n">
-        <v>10310.2825</v>
+        <v>10335.1703</v>
       </c>
       <c r="C606" t="n">
-        <v>0.9642449491557475</v>
+        <v>0.9352982756867476</v>
       </c>
       <c r="D606" t="n">
-        <v>-531</v>
+        <v>-363</v>
       </c>
       <c r="E606" t="n">
-        <v>7.479059495972167</v>
+        <v>12.73065712794511</v>
       </c>
       <c r="F606" t="n">
-        <v>0.239750798389947</v>
+        <v>-0.07186850588367238</v>
       </c>
       <c r="G606" t="n">
-        <v>101.7696614037606</v>
+        <v>269.7654985160183</v>
+      </c>
+      <c r="H606" t="n">
+        <v>-2084.692829812095</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>10335.161</v>
+        <v>10343.72</v>
       </c>
       <c r="B607" t="n">
-        <v>10335.1703</v>
+        <v>10343.7283</v>
       </c>
       <c r="C607" t="n">
-        <v>0.9352982756867476</v>
+        <v>0.7342830044786552</v>
       </c>
       <c r="D607" t="n">
-        <v>-363</v>
+        <v>-392</v>
       </c>
       <c r="E607" t="n">
-        <v>12.73065712794511</v>
+        <v>51.35419416484806</v>
       </c>
       <c r="F607" t="n">
-        <v>-0.07186850588367238</v>
+        <v>0.003045681234876261</v>
       </c>
       <c r="G607" t="n">
-        <v>269.7654985160183</v>
+        <v>240.5592380196063</v>
+      </c>
+      <c r="H607" t="n">
+        <v>88.27310326343229</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>10343.72</v>
+        <v>10348.019</v>
       </c>
       <c r="B608" t="n">
-        <v>10343.7283</v>
+        <v>10348.0221</v>
       </c>
       <c r="C608" t="n">
-        <v>0.7342830044786552</v>
+        <v>0.9599460374116571</v>
       </c>
       <c r="D608" t="n">
-        <v>-392</v>
+        <v>-543</v>
       </c>
       <c r="E608" t="n">
-        <v>51.35419416484806</v>
+        <v>4.660565834304294</v>
       </c>
       <c r="F608" t="n">
-        <v>0.003045681234876261</v>
+        <v>0.3352708583947898</v>
       </c>
       <c r="G608" t="n">
-        <v>240.5592380196063</v>
+        <v>89.81009985104512</v>
+      </c>
+      <c r="H608" t="n">
+        <v>9713.132024008069</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>10348.019</v>
+        <v>10350.802</v>
       </c>
       <c r="B609" t="n">
-        <v>10348.0221</v>
+        <v>10350.8084</v>
       </c>
       <c r="C609" t="n">
-        <v>0.9599460374116571</v>
+        <v>0.8234114475246681</v>
       </c>
       <c r="D609" t="n">
-        <v>-543</v>
+        <v>-448</v>
       </c>
       <c r="E609" t="n">
-        <v>4.660565834304294</v>
+        <v>27.85798702688162</v>
       </c>
       <c r="F609" t="n">
-        <v>0.3352708583947898</v>
+        <v>0.01314407586695591</v>
       </c>
       <c r="G609" t="n">
-        <v>89.81009985104512</v>
+        <v>185.3645477222391</v>
+      </c>
+      <c r="H609" t="n">
+        <v>380.6946372168256</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>10350.802</v>
+        <v>10356.644</v>
       </c>
       <c r="B610" t="n">
-        <v>10350.8084</v>
+        <v>10356.6517</v>
       </c>
       <c r="C610" t="n">
-        <v>0.8234114475246681</v>
+        <v>0.8806837165203791</v>
       </c>
       <c r="D610" t="n">
-        <v>-448</v>
+        <v>-410</v>
       </c>
       <c r="E610" t="n">
-        <v>27.85798702688162</v>
+        <v>21.15915913109805</v>
       </c>
       <c r="F610" t="n">
-        <v>0.01314407586695591</v>
+        <v>0.01294425790710213</v>
       </c>
       <c r="G610" t="n">
-        <v>185.3645477222391</v>
+        <v>222.8909216480906</v>
+      </c>
+      <c r="H610" t="n">
+        <v>374.695788998452</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>10356.644</v>
+        <v>10365.544</v>
       </c>
       <c r="B611" t="n">
-        <v>10356.6517</v>
+        <v>10365.5486</v>
       </c>
       <c r="C611" t="n">
-        <v>0.8806837165203791</v>
+        <v>0.9369728881428526</v>
       </c>
       <c r="D611" t="n">
-        <v>-410</v>
+        <v>-500</v>
       </c>
       <c r="E611" t="n">
-        <v>21.15915913109805</v>
+        <v>10.2278615670779</v>
       </c>
       <c r="F611" t="n">
-        <v>0.01294425790710213</v>
+        <v>0.2347199254144477</v>
       </c>
       <c r="G611" t="n">
-        <v>222.8909216480906</v>
+        <v>133.0412862806136</v>
+      </c>
+      <c r="H611" t="n">
+        <v>6788.574085602641</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>10365.544</v>
+        <v>10366.902</v>
       </c>
       <c r="B612" t="n">
-        <v>10365.5486</v>
+        <v>10366.9072</v>
       </c>
       <c r="C612" t="n">
-        <v>0.9369728881428526</v>
+        <v>0.9111809880876452</v>
       </c>
       <c r="D612" t="n">
-        <v>-500</v>
+        <v>-483</v>
       </c>
       <c r="E612" t="n">
-        <v>10.2278615670779</v>
+        <v>16.8657884068475</v>
       </c>
       <c r="F612" t="n">
-        <v>0.2347199254144477</v>
+        <v>0.07080178596890553</v>
       </c>
       <c r="G612" t="n">
-        <v>133.0412862806136</v>
+        <v>150.3747967691405</v>
+      </c>
+      <c r="H612" t="n">
+        <v>2047.462341826719</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>10366.902</v>
+        <v>10381.846</v>
       </c>
       <c r="B613" t="n">
-        <v>10366.9072</v>
+        <v>10381.8496</v>
       </c>
       <c r="C613" t="n">
-        <v>0.9111809880876452</v>
+        <v>0.886756431709145</v>
       </c>
       <c r="D613" t="n">
-        <v>-483</v>
+        <v>-529</v>
       </c>
       <c r="E613" t="n">
-        <v>16.8657884068475</v>
+        <v>23.45884942619661</v>
       </c>
       <c r="F613" t="n">
-        <v>0.07080178596890553</v>
+        <v>0.03859927958498507</v>
       </c>
       <c r="G613" t="n">
-        <v>150.3747967691405</v>
+        <v>103.9557752013837</v>
+      </c>
+      <c r="H613" t="n">
+        <v>1114.616119697007</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>10381.846</v>
+        <v>10391.591</v>
       </c>
       <c r="B614" t="n">
-        <v>10381.8496</v>
+        <v>10391.5966</v>
       </c>
       <c r="C614" t="n">
-        <v>0.886756431709145</v>
+        <v>0.9575053010282832</v>
       </c>
       <c r="D614" t="n">
-        <v>-529</v>
+        <v>-471</v>
       </c>
       <c r="E614" t="n">
-        <v>23.45884942619661</v>
+        <v>9.797911604050709</v>
       </c>
       <c r="F614" t="n">
-        <v>0.03859927958498507</v>
+        <v>0.1523184500722969</v>
       </c>
       <c r="G614" t="n">
-        <v>103.9557752013837</v>
+        <v>161.5573366260888</v>
+      </c>
+      <c r="H614" t="n">
+        <v>4394.314840328509</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>10391.591</v>
+        <v>10398.646</v>
       </c>
       <c r="B615" t="n">
-        <v>10391.5966</v>
+        <v>10398.6546</v>
       </c>
       <c r="C615" t="n">
-        <v>0.9575053010282832</v>
+        <v>0.6742269952331075</v>
       </c>
       <c r="D615" t="n">
-        <v>-471</v>
+        <v>-385</v>
       </c>
       <c r="E615" t="n">
-        <v>9.797911604050709</v>
+        <v>56.025309012497</v>
       </c>
       <c r="F615" t="n">
-        <v>0.1523184500722969</v>
+        <v>-0.009212592975838166</v>
       </c>
       <c r="G615" t="n">
-        <v>161.5573366260888</v>
+        <v>247.9375813492061</v>
+      </c>
+      <c r="H615" t="n">
+        <v>-265.5986070475001</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>10398.646</v>
+        <v>10425.887</v>
       </c>
       <c r="B616" t="n">
-        <v>10398.6546</v>
+        <v>10425.8953</v>
       </c>
       <c r="C616" t="n">
-        <v>0.6742269952331075</v>
+        <v>0.8658858381446857</v>
       </c>
       <c r="D616" t="n">
-        <v>-385</v>
+        <v>-394</v>
       </c>
       <c r="E616" t="n">
-        <v>56.025309012497</v>
+        <v>27.385089266019</v>
       </c>
       <c r="F616" t="n">
-        <v>-0.009212592975838166</v>
+        <v>-0.01471238224386854</v>
       </c>
       <c r="G616" t="n">
-        <v>247.9375813492061</v>
+        <v>238.6633771450285</v>
+      </c>
+      <c r="H616" t="n">
+        <v>-423.0490159662103</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>10425.887</v>
+        <v>10426.602</v>
       </c>
       <c r="B617" t="n">
-        <v>10425.8953</v>
+        <v>10426.6082</v>
       </c>
       <c r="C617" t="n">
-        <v>0.8658858381446857</v>
+        <v>0.8284380489490941</v>
       </c>
       <c r="D617" t="n">
-        <v>-394</v>
+        <v>-455</v>
       </c>
       <c r="E617" t="n">
-        <v>27.385089266019</v>
+        <v>34.09770374430147</v>
       </c>
       <c r="F617" t="n">
-        <v>-0.01471238224386854</v>
+        <v>0.004307472880638319</v>
       </c>
       <c r="G617" t="n">
-        <v>238.6633771450285</v>
+        <v>178.2664418663123</v>
+      </c>
+      <c r="H617" t="n">
+        <v>123.8512683858943</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>10426.602</v>
+        <v>10535.122</v>
       </c>
       <c r="B618" t="n">
-        <v>10426.6082</v>
+        <v>10535.1327</v>
       </c>
       <c r="C618" t="n">
-        <v>0.8284380489490941</v>
+        <v>0.6937355394179853</v>
       </c>
       <c r="D618" t="n">
-        <v>-455</v>
+        <v>-329</v>
       </c>
       <c r="E618" t="n">
-        <v>34.09770374430147</v>
+        <v>48.36972205086408</v>
       </c>
       <c r="F618" t="n">
-        <v>0.004307472880638319</v>
+        <v>0.005233114231655911</v>
       </c>
       <c r="G618" t="n">
-        <v>178.2664418663123</v>
+        <v>304.4843050564993</v>
+      </c>
+      <c r="H618" t="n">
+        <v>148.915995325247</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>10535.122</v>
+        <v>10580.039</v>
       </c>
       <c r="B619" t="n">
-        <v>10535.1327</v>
+        <v>10580.0488</v>
       </c>
       <c r="C619" t="n">
-        <v>0.6937355394179853</v>
+        <v>0.9018291341524094</v>
       </c>
       <c r="D619" t="n">
-        <v>-329</v>
+        <v>-355</v>
       </c>
       <c r="E619" t="n">
-        <v>48.36972205086408</v>
+        <v>15.52659770026484</v>
       </c>
       <c r="F619" t="n">
-        <v>0.005233114231655911</v>
+        <v>-0.1441272272955199</v>
       </c>
       <c r="G619" t="n">
-        <v>304.4843050564993</v>
+        <v>277.6895329283418</v>
+      </c>
+      <c r="H619" t="n">
+        <v>-4083.941064456245</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>10558.543</v>
+        <v>10619.632</v>
       </c>
       <c r="B620" t="n">
-        <v>10558.5444</v>
+        <v>10619.6385</v>
       </c>
       <c r="C620" t="n">
-        <v>0.9379414878965219</v>
+        <v>0.9109527996998887</v>
       </c>
       <c r="D620" t="n">
-        <v>-593</v>
+        <v>-450</v>
       </c>
       <c r="E620" t="n">
-        <v>13.04687935173149</v>
+        <v>17.08984016046902</v>
       </c>
       <c r="F620" t="n">
-        <v>0.5064852518484543</v>
+        <v>0.01531013066268491</v>
       </c>
       <c r="G620" t="n">
-        <v>39.7506968199286</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="n">
-        <v>10580.039</v>
-      </c>
-      <c r="B621" t="n">
-        <v>10580.0488</v>
-      </c>
-      <c r="C621" t="n">
-        <v>0.9018291341524094</v>
-      </c>
-      <c r="D621" t="n">
-        <v>-355</v>
-      </c>
-      <c r="E621" t="n">
-        <v>15.52659770026484</v>
-      </c>
-      <c r="F621" t="n">
-        <v>-0.1441272272955199</v>
-      </c>
-      <c r="G621" t="n">
-        <v>277.6895329283418</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="n">
-        <v>10619.632</v>
-      </c>
-      <c r="B622" t="n">
-        <v>10619.6385</v>
-      </c>
-      <c r="C622" t="n">
-        <v>0.9109527996998887</v>
-      </c>
-      <c r="D622" t="n">
-        <v>-450</v>
-      </c>
-      <c r="E622" t="n">
-        <v>17.08984016046902</v>
-      </c>
-      <c r="F622" t="n">
-        <v>0.01531013066268491</v>
-      </c>
-      <c r="G622" t="n">
         <v>183.4951509432091</v>
+      </c>
+      <c r="H620" t="n">
+        <v>432.2053441840054</v>
       </c>
     </row>
   </sheetData>

--- a/Visible range/valores_VIS.xlsx
+++ b/Visible range/valores_VIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H620"/>
+  <dimension ref="A1:G620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Lambda natural</t>
+          <t>Emitted wavelength</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Lambda observed</t>
+          <t>Observed wavelength</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -469,11 +469,6 @@
           <t>Blueshift</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>3rd Derivate (m/s)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -497,9 +492,6 @@
       <c r="G2" t="n">
         <v>265.769522269104</v>
       </c>
-      <c r="H2" t="n">
-        <v>156.7753014878701</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -523,9 +515,6 @@
       <c r="G3" t="n">
         <v>420.0198343706457</v>
       </c>
-      <c r="H3" t="n">
-        <v>-407.8607373294766</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -549,9 +538,6 @@
       <c r="G4" t="n">
         <v>308.5350256500976</v>
       </c>
-      <c r="H4" t="n">
-        <v>-295.3610070720058</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -575,9 +561,6 @@
       <c r="G5" t="n">
         <v>447.5437090595067</v>
       </c>
-      <c r="H5" t="n">
-        <v>-379.3612557120929</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -601,9 +584,6 @@
       <c r="G6" t="n">
         <v>249.3230491164425</v>
       </c>
-      <c r="H6" t="n">
-        <v>52.06844959298504</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -627,9 +607,6 @@
       <c r="G7" t="n">
         <v>190.5598178486818</v>
       </c>
-      <c r="H7" t="n">
-        <v>59.63682454504528</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -653,9 +630,6 @@
       <c r="G8" t="n">
         <v>415.2042378173197</v>
       </c>
-      <c r="H8" t="n">
-        <v>-476.8267746825192</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -679,9 +653,6 @@
       <c r="G9" t="n">
         <v>370.7712752136843</v>
       </c>
-      <c r="H9" t="n">
-        <v>-336.8381555566514</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -705,9 +676,6 @@
       <c r="G10" t="n">
         <v>217.9228786601797</v>
       </c>
-      <c r="H10" t="n">
-        <v>10.94795448184218</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -731,9 +699,6 @@
       <c r="G11" t="n">
         <v>428.5502705727201</v>
       </c>
-      <c r="H11" t="n">
-        <v>-188.6218623021746</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -757,9 +722,6 @@
       <c r="G12" t="n">
         <v>587.1398987317552</v>
       </c>
-      <c r="H12" t="n">
-        <v>-2098.843790047127</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -783,9 +745,6 @@
       <c r="G13" t="n">
         <v>449.163690687972</v>
       </c>
-      <c r="H13" t="n">
-        <v>-526.1136507062735</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -809,9 +768,6 @@
       <c r="G14" t="n">
         <v>289.442612441809</v>
       </c>
-      <c r="H14" t="n">
-        <v>28.07678989452829</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -835,9 +791,6 @@
       <c r="G15" t="n">
         <v>578.0749494276197</v>
       </c>
-      <c r="H15" t="n">
-        <v>-1605.332217881285</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -861,9 +814,6 @@
       <c r="G16" t="n">
         <v>382.8181160130652</v>
       </c>
-      <c r="H16" t="n">
-        <v>-516.7327856364243</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -887,9 +837,6 @@
       <c r="G17" t="n">
         <v>252.7505660014645</v>
       </c>
-      <c r="H17" t="n">
-        <v>-54.72650913746838</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -913,9 +860,6 @@
       <c r="G18" t="n">
         <v>605.9808855251404</v>
       </c>
-      <c r="H18" t="n">
-        <v>-1801.877378379529</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -939,9 +883,6 @@
       <c r="G19" t="n">
         <v>209.0983340903004</v>
       </c>
-      <c r="H19" t="n">
-        <v>34.68875564755326</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -965,9 +906,6 @@
       <c r="G20" t="n">
         <v>511.9147185462162</v>
       </c>
-      <c r="H20" t="n">
-        <v>-1081.823025618494</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -991,9 +929,6 @@
       <c r="G21" t="n">
         <v>403.5701657879833</v>
       </c>
-      <c r="H21" t="n">
-        <v>-724.0715531659459</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1017,9 +952,6 @@
       <c r="G22" t="n">
         <v>265.8201602123155</v>
       </c>
-      <c r="H22" t="n">
-        <v>117.1576378642301</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1043,9 +975,6 @@
       <c r="G23" t="n">
         <v>538.3155613815759</v>
       </c>
-      <c r="H23" t="n">
-        <v>-1146.284266305855</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1069,9 +998,6 @@
       <c r="G24" t="n">
         <v>609.1983235401069</v>
       </c>
-      <c r="H24" t="n">
-        <v>-675.0122447497091</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1095,9 +1021,6 @@
       <c r="G25" t="n">
         <v>866.1172752231712</v>
       </c>
-      <c r="H25" t="n">
-        <v>-4016.589699378412</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1121,9 +1044,6 @@
       <c r="G26" t="n">
         <v>823.0206132480077</v>
       </c>
-      <c r="H26" t="n">
-        <v>-235.5128741951771</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1147,9 +1067,6 @@
       <c r="G27" t="n">
         <v>729.350394880863</v>
       </c>
-      <c r="H27" t="n">
-        <v>-2906.870240823707</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1173,9 +1090,6 @@
       <c r="G28" t="n">
         <v>364.259999895956</v>
       </c>
-      <c r="H28" t="n">
-        <v>-567.5714809860821</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1199,9 +1113,6 @@
       <c r="G29" t="n">
         <v>342.4480920311532</v>
       </c>
-      <c r="H29" t="n">
-        <v>-224.4728443127105</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1225,9 +1136,6 @@
       <c r="G30" t="n">
         <v>164.0183127212145</v>
       </c>
-      <c r="H30" t="n">
-        <v>-12.79442904934483</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1251,9 +1159,6 @@
       <c r="G31" t="n">
         <v>242.3012603376983</v>
       </c>
-      <c r="H31" t="n">
-        <v>-202.2419174317971</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1277,9 +1182,6 @@
       <c r="G32" t="n">
         <v>327.6955721519653</v>
       </c>
-      <c r="H32" t="n">
-        <v>-185.6612569245551</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1303,9 +1205,6 @@
       <c r="G33" t="n">
         <v>348.9445278339981</v>
       </c>
-      <c r="H33" t="n">
-        <v>-398.1597732098516</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1329,9 +1228,6 @@
       <c r="G34" t="n">
         <v>369.8652593414868</v>
       </c>
-      <c r="H34" t="n">
-        <v>-337.9480722728394</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1355,9 +1251,6 @@
       <c r="G35" t="n">
         <v>639.7663061169517</v>
       </c>
-      <c r="H35" t="n">
-        <v>-2885.567971059435</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1381,9 +1274,6 @@
       <c r="G36" t="n">
         <v>284.0604516309946</v>
       </c>
-      <c r="H36" t="n">
-        <v>-153.0424718139089</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1407,9 +1297,6 @@
       <c r="G37" t="n">
         <v>624.6560103101266</v>
       </c>
-      <c r="H37" t="n">
-        <v>-1189.946648019532</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1433,9 +1320,6 @@
       <c r="G38" t="n">
         <v>261.9871339873538</v>
       </c>
-      <c r="H38" t="n">
-        <v>32.8952124885171</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1459,9 +1343,6 @@
       <c r="G39" t="n">
         <v>750.4023346596774</v>
       </c>
-      <c r="H39" t="n">
-        <v>-1488.727361370302</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1485,9 +1366,6 @@
       <c r="G40" t="n">
         <v>410.1691831947993</v>
       </c>
-      <c r="H40" t="n">
-        <v>-864.561140739187</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1511,9 +1389,6 @@
       <c r="G41" t="n">
         <v>544.4339672244564</v>
       </c>
-      <c r="H41" t="n">
-        <v>-1711.147684954711</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1537,9 +1412,6 @@
       <c r="G42" t="n">
         <v>325.1666616663467</v>
       </c>
-      <c r="H42" t="n">
-        <v>279.3383829272321</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1563,9 +1435,6 @@
       <c r="G43" t="n">
         <v>373.0237394995142</v>
       </c>
-      <c r="H43" t="n">
-        <v>-146.2755830972573</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1589,9 +1458,6 @@
       <c r="G44" t="n">
         <v>197.0397248583244</v>
       </c>
-      <c r="H44" t="n">
-        <v>110.2235542984829</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1615,9 +1481,6 @@
       <c r="G45" t="n">
         <v>657.868126838672</v>
       </c>
-      <c r="H45" t="n">
-        <v>-1872.996492388451</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1641,9 +1504,6 @@
       <c r="G46" t="n">
         <v>293.5474252888413</v>
       </c>
-      <c r="H46" t="n">
-        <v>-54.59488712590666</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1667,9 +1527,6 @@
       <c r="G47" t="n">
         <v>474.8998268352669</v>
       </c>
-      <c r="H47" t="n">
-        <v>-619.4432921331093</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1693,9 +1550,6 @@
       <c r="G48" t="n">
         <v>256.2938560653144</v>
       </c>
-      <c r="H48" t="n">
-        <v>20.00364559768574</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1719,9 +1573,6 @@
       <c r="G49" t="n">
         <v>642.6692259643091</v>
       </c>
-      <c r="H49" t="n">
-        <v>-1980.880688458438</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1745,9 +1596,6 @@
       <c r="G50" t="n">
         <v>213.8950588812401</v>
       </c>
-      <c r="H50" t="n">
-        <v>-76.02896899296749</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1771,9 +1619,6 @@
       <c r="G51" t="n">
         <v>289.6029504961268</v>
       </c>
-      <c r="H51" t="n">
-        <v>114.2179389077995</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1797,9 +1642,6 @@
       <c r="G52" t="n">
         <v>356.8033886013742</v>
       </c>
-      <c r="H52" t="n">
-        <v>-201.5473980694091</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1823,9 +1665,6 @@
       <c r="G53" t="n">
         <v>287.8146011330351</v>
       </c>
-      <c r="H53" t="n">
-        <v>121.7612571909922</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1849,9 +1688,6 @@
       <c r="G54" t="n">
         <v>341.5174244912277</v>
       </c>
-      <c r="H54" t="n">
-        <v>-103.830693532706</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1875,9 +1711,6 @@
       <c r="G55" t="n">
         <v>402.9432078835075</v>
       </c>
-      <c r="H55" t="n">
-        <v>-368.2686084340227</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1901,9 +1734,6 @@
       <c r="G56" t="n">
         <v>297.6659728998812</v>
       </c>
-      <c r="H56" t="n">
-        <v>20.88890005022411</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1927,9 +1757,6 @@
       <c r="G57" t="n">
         <v>480.2785765380352</v>
       </c>
-      <c r="H57" t="n">
-        <v>-718.6025245751052</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1953,9 +1780,6 @@
       <c r="G58" t="n">
         <v>223.1296731169361</v>
       </c>
-      <c r="H58" t="n">
-        <v>48.15510075445284</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1979,9 +1803,6 @@
       <c r="G59" t="n">
         <v>196.0299427505224</v>
       </c>
-      <c r="H59" t="n">
-        <v>-47.83842223094006</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2005,9 +1826,6 @@
       <c r="G60" t="n">
         <v>135.0541403128878</v>
       </c>
-      <c r="H60" t="n">
-        <v>-22.7086079606528</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2031,9 +1849,6 @@
       <c r="G61" t="n">
         <v>661.1700599896367</v>
       </c>
-      <c r="H61" t="n">
-        <v>-675.6510521273234</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2057,9 +1872,6 @@
       <c r="G62" t="n">
         <v>155.1553616828429</v>
       </c>
-      <c r="H62" t="n">
-        <v>-48.62090559925139</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2083,9 +1895,6 @@
       <c r="G63" t="n">
         <v>202.2563811936968</v>
       </c>
-      <c r="H63" t="n">
-        <v>22.22522176813702</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2109,9 +1918,6 @@
       <c r="G64" t="n">
         <v>188.702203614514</v>
       </c>
-      <c r="H64" t="n">
-        <v>-37.43606822039887</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2135,9 +1941,6 @@
       <c r="G65" t="n">
         <v>188.567148885014</v>
       </c>
-      <c r="H65" t="n">
-        <v>-34.21086824417696</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2161,9 +1964,6 @@
       <c r="G66" t="n">
         <v>228.665589275114</v>
       </c>
-      <c r="H66" t="n">
-        <v>165.2571263041538</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2187,9 +1987,6 @@
       <c r="G67" t="n">
         <v>215.1299731215746</v>
       </c>
-      <c r="H67" t="n">
-        <v>-11.50858839663038</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2213,9 +2010,6 @@
       <c r="G68" t="n">
         <v>651.590576692827</v>
       </c>
-      <c r="H68" t="n">
-        <v>-2648.08220873467</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2239,9 +2033,6 @@
       <c r="G69" t="n">
         <v>476.1133324334923</v>
       </c>
-      <c r="H69" t="n">
-        <v>-555.0246651267217</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2265,9 +2056,6 @@
       <c r="G70" t="n">
         <v>294.3474581678471</v>
       </c>
-      <c r="H70" t="n">
-        <v>57.05023275841013</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2291,9 +2079,6 @@
       <c r="G71" t="n">
         <v>147.1253635152767</v>
       </c>
-      <c r="H71" t="n">
-        <v>15.48644557573525</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2317,9 +2102,6 @@
       <c r="G72" t="n">
         <v>414.3846518596338</v>
       </c>
-      <c r="H72" t="n">
-        <v>-396.9358442544361</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2343,9 +2125,6 @@
       <c r="G73" t="n">
         <v>320.7098134557457</v>
       </c>
-      <c r="H73" t="n">
-        <v>-114.8479172239888</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2369,9 +2148,6 @@
       <c r="G74" t="n">
         <v>467.2785155310381</v>
       </c>
-      <c r="H74" t="n">
-        <v>-357.2109168698885</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2395,9 +2171,6 @@
       <c r="G75" t="n">
         <v>666.8242603116864</v>
       </c>
-      <c r="H75" t="n">
-        <v>-1662.195548438319</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2421,9 +2194,6 @@
       <c r="G76" t="n">
         <v>139.7834334295682</v>
       </c>
-      <c r="H76" t="n">
-        <v>82.90543867749955</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2447,9 +2217,6 @@
       <c r="G77" t="n">
         <v>298.5457706426967</v>
       </c>
-      <c r="H77" t="n">
-        <v>263.3609294802461</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2473,9 +2240,6 @@
       <c r="G78" t="n">
         <v>450.3769224949012</v>
       </c>
-      <c r="H78" t="n">
-        <v>-297.7372180508816</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2499,9 +2263,6 @@
       <c r="G79" t="n">
         <v>555.6098881618403</v>
       </c>
-      <c r="H79" t="n">
-        <v>-1076.920047596539</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2525,9 +2286,6 @@
       <c r="G80" t="n">
         <v>229.2993013639036</v>
       </c>
-      <c r="H80" t="n">
-        <v>17.32522777720598</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2551,9 +2309,6 @@
       <c r="G81" t="n">
         <v>209.0779288170725</v>
       </c>
-      <c r="H81" t="n">
-        <v>-1.67510912923879</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2577,9 +2332,6 @@
       <c r="G82" t="n">
         <v>312.8673542714655</v>
       </c>
-      <c r="H82" t="n">
-        <v>-52.22673888323894</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2603,9 +2355,6 @@
       <c r="G83" t="n">
         <v>546.9440870266576</v>
       </c>
-      <c r="H83" t="n">
-        <v>-1020.83943615309</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2629,9 +2378,6 @@
       <c r="G84" t="n">
         <v>343.874450491872</v>
       </c>
-      <c r="H84" t="n">
-        <v>-120.8849259730118</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2655,9 +2401,6 @@
       <c r="G85" t="n">
         <v>388.8072460332779</v>
       </c>
-      <c r="H85" t="n">
-        <v>-191.1162947687752</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2681,9 +2424,6 @@
       <c r="G86" t="n">
         <v>310.7048660066733</v>
       </c>
-      <c r="H86" t="n">
-        <v>-31.13110962609408</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2707,9 +2447,6 @@
       <c r="G87" t="n">
         <v>213.3457633124699</v>
       </c>
-      <c r="H87" t="n">
-        <v>10.86851509149057</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2733,9 +2470,6 @@
       <c r="G88" t="n">
         <v>381.3000645609939</v>
       </c>
-      <c r="H88" t="n">
-        <v>-296.2261396785123</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2759,9 +2493,6 @@
       <c r="G89" t="n">
         <v>296.9032281587631</v>
       </c>
-      <c r="H89" t="n">
-        <v>-87.68021958994122</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2785,9 +2516,6 @@
       <c r="G90" t="n">
         <v>406.2809091746796</v>
       </c>
-      <c r="H90" t="n">
-        <v>-224.3088940633131</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2811,9 +2539,6 @@
       <c r="G91" t="n">
         <v>443.0658447541525</v>
       </c>
-      <c r="H91" t="n">
-        <v>-167.3345302270059</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2837,9 +2562,6 @@
       <c r="G92" t="n">
         <v>429.1758065331456</v>
       </c>
-      <c r="H92" t="n">
-        <v>-293.1996156301029</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2863,9 +2585,6 @@
       <c r="G93" t="n">
         <v>192.1087772959738</v>
       </c>
-      <c r="H93" t="n">
-        <v>-5.722750759188787</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2889,9 +2608,6 @@
       <c r="G94" t="n">
         <v>223.9706739074899</v>
       </c>
-      <c r="H94" t="n">
-        <v>6.502932398460654</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2915,9 +2631,6 @@
       <c r="G95" t="n">
         <v>483.8862391094023</v>
       </c>
-      <c r="H95" t="n">
-        <v>-413.9291860456759</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2941,9 +2654,6 @@
       <c r="G96" t="n">
         <v>310.5758742266656</v>
       </c>
-      <c r="H96" t="n">
-        <v>-193.8114783673295</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2967,9 +2677,6 @@
       <c r="G97" t="n">
         <v>133.0906197710555</v>
       </c>
-      <c r="H97" t="n">
-        <v>42.93654170262529</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2993,9 +2700,6 @@
       <c r="G98" t="n">
         <v>290.501010511149</v>
       </c>
-      <c r="H98" t="n">
-        <v>-127.2268705470845</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3019,9 +2723,6 @@
       <c r="G99" t="n">
         <v>150.4989900454793</v>
       </c>
-      <c r="H99" t="n">
-        <v>21.01012419386306</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3045,9 +2746,6 @@
       <c r="G100" t="n">
         <v>344.3626812155902</v>
       </c>
-      <c r="H100" t="n">
-        <v>-147.1671268255881</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3071,9 +2769,6 @@
       <c r="G101" t="n">
         <v>143.9755355749279</v>
       </c>
-      <c r="H101" t="n">
-        <v>72.98174597676797</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3097,9 +2792,6 @@
       <c r="G102" t="n">
         <v>362.930493525311</v>
       </c>
-      <c r="H102" t="n">
-        <v>-193.569064553673</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3123,9 +2815,6 @@
       <c r="G103" t="n">
         <v>137.4161532692214</v>
       </c>
-      <c r="H103" t="n">
-        <v>25.53592410604087</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3149,9 +2838,6 @@
       <c r="G104" t="n">
         <v>255.9665571096439</v>
       </c>
-      <c r="H104" t="n">
-        <v>-62.61264414966909</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3175,9 +2861,6 @@
       <c r="G105" t="n">
         <v>199.4854216284294</v>
       </c>
-      <c r="H105" t="n">
-        <v>1.011993913260939</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3201,9 +2884,6 @@
       <c r="G106" t="n">
         <v>185.928599729905</v>
       </c>
-      <c r="H106" t="n">
-        <v>51.27081951628388</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3227,9 +2907,6 @@
       <c r="G107" t="n">
         <v>297.2597614746506</v>
       </c>
-      <c r="H107" t="n">
-        <v>-4.45659847084386</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3253,9 +2930,6 @@
       <c r="G108" t="n">
         <v>308.6170731065522</v>
       </c>
-      <c r="H108" t="n">
-        <v>-92.13196852176374</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3279,9 +2953,6 @@
       <c r="G109" t="n">
         <v>592.0487520753957</v>
       </c>
-      <c r="H109" t="n">
-        <v>-432.4735155632969</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3305,9 +2976,6 @@
       <c r="G110" t="n">
         <v>658.3194514542251</v>
       </c>
-      <c r="H110" t="n">
-        <v>-773.8659608326897</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3331,9 +2999,6 @@
       <c r="G111" t="n">
         <v>608.9968578792935</v>
       </c>
-      <c r="H111" t="n">
-        <v>-552.2120101474518</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3357,9 +3022,6 @@
       <c r="G112" t="n">
         <v>239.7238458567368</v>
       </c>
-      <c r="H112" t="n">
-        <v>-40.15052505631498</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3383,9 +3045,6 @@
       <c r="G113" t="n">
         <v>251.7158792702025</v>
       </c>
-      <c r="H113" t="n">
-        <v>-109.886786247809</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3409,9 +3068,6 @@
       <c r="G114" t="n">
         <v>337.6382080836308</v>
       </c>
-      <c r="H114" t="n">
-        <v>-38.00226109757784</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3435,9 +3091,6 @@
       <c r="G115" t="n">
         <v>294.4678052522808</v>
       </c>
-      <c r="H115" t="n">
-        <v>-81.79715897833654</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3461,9 +3114,6 @@
       <c r="G116" t="n">
         <v>294.4134988518495</v>
       </c>
-      <c r="H116" t="n">
-        <v>-142.6334560297174</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3487,9 +3137,6 @@
       <c r="G117" t="n">
         <v>637.3189924937482</v>
       </c>
-      <c r="H117" t="n">
-        <v>-20.38859558960636</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3513,9 +3160,6 @@
       <c r="G118" t="n">
         <v>637.2229294924234</v>
       </c>
-      <c r="H118" t="n">
-        <v>-21.92601033014682</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3539,9 +3183,6 @@
       <c r="G119" t="n">
         <v>171.5121047806323</v>
       </c>
-      <c r="H119" t="n">
-        <v>-30.67948948604144</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3565,9 +3206,6 @@
       <c r="G120" t="n">
         <v>256.4885182820136</v>
       </c>
-      <c r="H120" t="n">
-        <v>-32.22968903514926</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3591,9 +3229,6 @@
       <c r="G121" t="n">
         <v>238.0877841652245</v>
       </c>
-      <c r="H121" t="n">
-        <v>-15.20146726754752</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3617,9 +3252,6 @@
       <c r="G122" t="n">
         <v>354.0335903691859</v>
       </c>
-      <c r="H122" t="n">
-        <v>-141.0739923535173</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3643,9 +3275,6 @@
       <c r="G123" t="n">
         <v>323.4931006854778</v>
       </c>
-      <c r="H123" t="n">
-        <v>-86.33959738467588</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3669,9 +3298,6 @@
       <c r="G124" t="n">
         <v>317.3740075352466</v>
       </c>
-      <c r="H124" t="n">
-        <v>-141.1951577384959</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3695,9 +3321,6 @@
       <c r="G125" t="n">
         <v>231.6127946815793</v>
       </c>
-      <c r="H125" t="n">
-        <v>-25.99240359439686</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3721,9 +3344,6 @@
       <c r="G126" t="n">
         <v>170.6349059582614</v>
       </c>
-      <c r="H126" t="n">
-        <v>0.0359112122356185</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3747,9 +3367,6 @@
       <c r="G127" t="n">
         <v>651.7390481277853</v>
       </c>
-      <c r="H127" t="n">
-        <v>-69.91151254054908</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3773,9 +3390,6 @@
       <c r="G128" t="n">
         <v>450.3449460945492</v>
       </c>
-      <c r="H128" t="n">
-        <v>-254.6551340407034</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3799,9 +3413,6 @@
       <c r="G129" t="n">
         <v>285.2534997672307</v>
       </c>
-      <c r="H129" t="n">
-        <v>-7.60212531043993</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3825,9 +3436,6 @@
       <c r="G130" t="n">
         <v>515.8171460386473</v>
       </c>
-      <c r="H130" t="n">
-        <v>-554.8695254349583</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3851,9 +3459,6 @@
       <c r="G131" t="n">
         <v>436.8502585778521</v>
       </c>
-      <c r="H131" t="n">
-        <v>-373.8798919164711</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3877,9 +3482,6 @@
       <c r="G132" t="n">
         <v>115.1412233835772</v>
       </c>
-      <c r="H132" t="n">
-        <v>54.52722632456017</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3903,9 +3505,6 @@
       <c r="G133" t="n">
         <v>430.1992724144051</v>
       </c>
-      <c r="H133" t="n">
-        <v>-184.9772320240227</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3929,9 +3528,6 @@
       <c r="G134" t="n">
         <v>284.5659055113994</v>
       </c>
-      <c r="H134" t="n">
-        <v>-50.79026893636455</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3955,9 +3551,6 @@
       <c r="G135" t="n">
         <v>506.9490635269828</v>
       </c>
-      <c r="H135" t="n">
-        <v>-512.5250457823379</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3981,9 +3574,6 @@
       <c r="G136" t="n">
         <v>355.9417502842903</v>
       </c>
-      <c r="H136" t="n">
-        <v>-146.0227993575993</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4007,9 +3597,6 @@
       <c r="G137" t="n">
         <v>271.3706408958692</v>
       </c>
-      <c r="H137" t="n">
-        <v>-100.8543513045696</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4033,9 +3620,6 @@
       <c r="G138" t="n">
         <v>217.0712569241121</v>
       </c>
-      <c r="H138" t="n">
-        <v>-26.38363260895262</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4059,9 +3643,6 @@
       <c r="G139" t="n">
         <v>469.1879486788494</v>
       </c>
-      <c r="H139" t="n">
-        <v>-345.8471690990065</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4085,9 +3666,6 @@
       <c r="G140" t="n">
         <v>402.9596972688693</v>
       </c>
-      <c r="H140" t="n">
-        <v>-186.8792653732787</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4111,9 +3689,6 @@
       <c r="G141" t="n">
         <v>481.087776799038</v>
       </c>
-      <c r="H141" t="n">
-        <v>-581.1462059513199</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4137,9 +3712,6 @@
       <c r="G142" t="n">
         <v>396.7859550963246</v>
       </c>
-      <c r="H142" t="n">
-        <v>-236.2819949131322</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4163,9 +3735,6 @@
       <c r="G143" t="n">
         <v>438.8434056278534</v>
       </c>
-      <c r="H143" t="n">
-        <v>-382.6593594991655</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4189,9 +3758,6 @@
       <c r="G144" t="n">
         <v>192.3436545480818</v>
       </c>
-      <c r="H144" t="n">
-        <v>13.71191709064026</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4215,9 +3781,6 @@
       <c r="G145" t="n">
         <v>324.4024769414405</v>
       </c>
-      <c r="H145" t="n">
-        <v>-145.2438648492939</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4241,9 +3804,6 @@
       <c r="G146" t="n">
         <v>330.2564674919828</v>
       </c>
-      <c r="H146" t="n">
-        <v>-162.4895076346882</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4267,9 +3827,6 @@
       <c r="G147" t="n">
         <v>474.0966087110568</v>
       </c>
-      <c r="H147" t="n">
-        <v>-479.1558773043187</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4293,9 +3850,6 @@
       <c r="G148" t="n">
         <v>77.93813460503492</v>
       </c>
-      <c r="H148" t="n">
-        <v>175.4784956400335</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4319,9 +3873,6 @@
       <c r="G149" t="n">
         <v>521.2991046090349</v>
       </c>
-      <c r="H149" t="n">
-        <v>-447.5623597882333</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4345,9 +3896,6 @@
       <c r="G150" t="n">
         <v>329.4956984682663</v>
       </c>
-      <c r="H150" t="n">
-        <v>-107.6665757960096</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4371,9 +3919,6 @@
       <c r="G151" t="n">
         <v>179.679975804255</v>
       </c>
-      <c r="H151" t="n">
-        <v>12.44983743543454</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4397,9 +3942,6 @@
       <c r="G152" t="n">
         <v>478.9869474924316</v>
       </c>
-      <c r="H152" t="n">
-        <v>-345.7848777114226</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4423,9 +3965,6 @@
       <c r="G153" t="n">
         <v>472.1290525933568</v>
       </c>
-      <c r="H153" t="n">
-        <v>-405.0570617316403</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4449,9 +3988,6 @@
       <c r="G154" t="n">
         <v>405.7994315701984</v>
       </c>
-      <c r="H154" t="n">
-        <v>-292.884747721955</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4475,9 +4011,6 @@
       <c r="G155" t="n">
         <v>95.46413974590695</v>
       </c>
-      <c r="H155" t="n">
-        <v>60.93617473537363</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4501,9 +4034,6 @@
       <c r="G156" t="n">
         <v>220.5601649670804</v>
       </c>
-      <c r="H156" t="n">
-        <v>-27.61955204829911</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4527,9 +4057,6 @@
       <c r="G157" t="n">
         <v>363.5994820882458</v>
       </c>
-      <c r="H157" t="n">
-        <v>-109.7312193635196</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4553,9 +4080,6 @@
       <c r="G158" t="n">
         <v>196.6430370832692</v>
       </c>
-      <c r="H158" t="n">
-        <v>-19.98297961648898</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4579,9 +4103,6 @@
       <c r="G159" t="n">
         <v>83.40506653986466</v>
       </c>
-      <c r="H159" t="n">
-        <v>38.64368329618507</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4605,9 +4126,6 @@
       <c r="G160" t="n">
         <v>540.9525654431335</v>
       </c>
-      <c r="H160" t="n">
-        <v>-431.5555105500312</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4631,9 +4149,6 @@
       <c r="G161" t="n">
         <v>320.8485670637207</v>
       </c>
-      <c r="H161" t="n">
-        <v>-3.133491753896206</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4657,9 +4172,6 @@
       <c r="G162" t="n">
         <v>142.3050857498608</v>
       </c>
-      <c r="H162" t="n">
-        <v>30.88846589037113</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4683,9 +4195,6 @@
       <c r="G163" t="n">
         <v>514.4186105117282</v>
       </c>
-      <c r="H163" t="n">
-        <v>-611.6175535862584</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4709,9 +4218,6 @@
       <c r="G164" t="n">
         <v>271.7820022335343</v>
       </c>
-      <c r="H164" t="n">
-        <v>-5.532954664846335</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4735,9 +4241,6 @@
       <c r="G165" t="n">
         <v>413.0680830430368</v>
       </c>
-      <c r="H165" t="n">
-        <v>-221.7881166312343</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4761,9 +4264,6 @@
       <c r="G166" t="n">
         <v>489.3602850913582</v>
       </c>
-      <c r="H166" t="n">
-        <v>-626.6637109237867</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4787,9 +4287,6 @@
       <c r="G167" t="n">
         <v>382.6742260723846</v>
       </c>
-      <c r="H167" t="n">
-        <v>-63.55622959252572</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4813,9 +4310,6 @@
       <c r="G168" t="n">
         <v>452.6172499647096</v>
       </c>
-      <c r="H168" t="n">
-        <v>-1189.140418152701</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4839,9 +4333,6 @@
       <c r="G169" t="n">
         <v>152.8204362913692</v>
       </c>
-      <c r="H169" t="n">
-        <v>-33.98270531499999</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4865,9 +4356,6 @@
       <c r="G170" t="n">
         <v>492.9184444256738</v>
       </c>
-      <c r="H170" t="n">
-        <v>-515.7864528160594</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4891,9 +4379,6 @@
       <c r="G171" t="n">
         <v>105.4533796425313</v>
       </c>
-      <c r="H171" t="n">
-        <v>267.038160282223</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4917,9 +4402,6 @@
       <c r="G172" t="n">
         <v>438.3966416710136</v>
       </c>
-      <c r="H172" t="n">
-        <v>-350.3842222590683</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4943,9 +4425,6 @@
       <c r="G173" t="n">
         <v>344.5958529469589</v>
       </c>
-      <c r="H173" t="n">
-        <v>-42.19115717999335</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4969,9 +4448,6 @@
       <c r="G174" t="n">
         <v>449.2091270625259</v>
       </c>
-      <c r="H174" t="n">
-        <v>-275.6400067693922</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4995,9 +4471,6 @@
       <c r="G175" t="n">
         <v>419.6837880060606</v>
       </c>
-      <c r="H175" t="n">
-        <v>-218.8507821937762</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5021,9 +4494,6 @@
       <c r="G176" t="n">
         <v>308.5556120529431</v>
       </c>
-      <c r="H176" t="n">
-        <v>-49.05881723238662</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5047,9 +4517,6 @@
       <c r="G177" t="n">
         <v>343.4740029958317</v>
       </c>
-      <c r="H177" t="n">
-        <v>-169.0474690439248</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5073,9 +4540,6 @@
       <c r="G178" t="n">
         <v>325.3249663559829</v>
       </c>
-      <c r="H178" t="n">
-        <v>-74.71583648136347</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5099,9 +4563,6 @@
       <c r="G179" t="n">
         <v>510.9065423744759</v>
       </c>
-      <c r="H179" t="n">
-        <v>-71.16189247639259</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5125,9 +4586,6 @@
       <c r="G180" t="n">
         <v>353.9359901292509</v>
       </c>
-      <c r="H180" t="n">
-        <v>-159.0896048182818</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5151,9 +4609,6 @@
       <c r="G181" t="n">
         <v>548.0784213416688</v>
       </c>
-      <c r="H181" t="n">
-        <v>-1059.96038435492</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5177,9 +4632,6 @@
       <c r="G182" t="n">
         <v>444.1866194437167</v>
       </c>
-      <c r="H182" t="n">
-        <v>-299.0441447411882</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5203,9 +4655,6 @@
       <c r="G183" t="n">
         <v>265.3282505137445</v>
       </c>
-      <c r="H183" t="n">
-        <v>-107.2145595400774</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5229,9 +4678,6 @@
       <c r="G184" t="n">
         <v>397.7893828895714</v>
       </c>
-      <c r="H184" t="n">
-        <v>-278.1025869799488</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5255,9 +4701,6 @@
       <c r="G185" t="n">
         <v>476.9891890594358</v>
       </c>
-      <c r="H185" t="n">
-        <v>-301.2634527751531</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5281,9 +4724,6 @@
       <c r="G186" t="n">
         <v>511.3631345934462</v>
       </c>
-      <c r="H186" t="n">
-        <v>-786.5260577820723</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5307,9 +4747,6 @@
       <c r="G187" t="n">
         <v>453.8095651284285</v>
       </c>
-      <c r="H187" t="n">
-        <v>-345.7863178294398</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5333,9 +4770,6 @@
       <c r="G188" t="n">
         <v>45.90440303461416</v>
       </c>
-      <c r="H188" t="n">
-        <v>78.60119271417979</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5359,9 +4793,6 @@
       <c r="G189" t="n">
         <v>355.5997765012312</v>
       </c>
-      <c r="H189" t="n">
-        <v>-66.14290376983426</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5385,9 +4816,6 @@
       <c r="G190" t="n">
         <v>194.9000080013638</v>
       </c>
-      <c r="H190" t="n">
-        <v>-14.04026623192446</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5411,9 +4839,6 @@
       <c r="G191" t="n">
         <v>664.3730779968311</v>
       </c>
-      <c r="H191" t="n">
-        <v>-294.238935874771</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5437,9 +4862,6 @@
       <c r="G192" t="n">
         <v>440.2028529040152</v>
       </c>
-      <c r="H192" t="n">
-        <v>-175.5732013308797</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5463,9 +4885,6 @@
       <c r="G193" t="n">
         <v>251.4828053927618</v>
       </c>
-      <c r="H193" t="n">
-        <v>-75.22133767876348</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5489,9 +4908,6 @@
       <c r="G194" t="n">
         <v>319.8693428737197</v>
       </c>
-      <c r="H194" t="n">
-        <v>-47.39116943839009</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5515,9 +4931,6 @@
       <c r="G195" t="n">
         <v>319.6769159203166</v>
       </c>
-      <c r="H195" t="n">
-        <v>-35.69677253833563</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5541,9 +4954,6 @@
       <c r="G196" t="n">
         <v>410.9789637229379</v>
       </c>
-      <c r="H196" t="n">
-        <v>-338.7377511865848</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5567,9 +4977,6 @@
       <c r="G197" t="n">
         <v>325.1839627733391</v>
       </c>
-      <c r="H197" t="n">
-        <v>-106.1759031728683</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5593,9 +5000,6 @@
       <c r="G198" t="n">
         <v>745.0727175472458</v>
       </c>
-      <c r="H198" t="n">
-        <v>-1263.365484369586</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5619,9 +5023,6 @@
       <c r="G199" t="n">
         <v>533.3920821375108</v>
       </c>
-      <c r="H199" t="n">
-        <v>-677.0792570983418</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5645,9 +5046,6 @@
       <c r="G200" t="n">
         <v>320.9937396896644</v>
       </c>
-      <c r="H200" t="n">
-        <v>2.794957988601838</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5671,9 +5069,6 @@
       <c r="G201" t="n">
         <v>624.8420329569337</v>
       </c>
-      <c r="H201" t="n">
-        <v>-291.3807982309676</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5697,9 +5092,6 @@
       <c r="G202" t="n">
         <v>163.1868283250007</v>
       </c>
-      <c r="H202" t="n">
-        <v>133.2544170454104</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5723,9 +5115,6 @@
       <c r="G203" t="n">
         <v>714.3914733091553</v>
       </c>
-      <c r="H203" t="n">
-        <v>-821.7194496816426</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5749,9 +5138,6 @@
       <c r="G204" t="n">
         <v>607.4578053766782</v>
       </c>
-      <c r="H204" t="n">
-        <v>-1843.031246990391</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5775,9 +5161,6 @@
       <c r="G205" t="n">
         <v>241.7920683041129</v>
       </c>
-      <c r="H205" t="n">
-        <v>-56.49182862510058</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5801,9 +5184,6 @@
       <c r="G206" t="n">
         <v>404.640172461836</v>
       </c>
-      <c r="H206" t="n">
-        <v>-246.5879673408514</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5827,9 +5207,6 @@
       <c r="G207" t="n">
         <v>538.8099891878917</v>
       </c>
-      <c r="H207" t="n">
-        <v>-442.6662837624311</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5853,9 +5230,6 @@
       <c r="G208" t="n">
         <v>351.9155597399666</v>
       </c>
-      <c r="H208" t="n">
-        <v>-118.2751708902854</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5879,9 +5253,6 @@
       <c r="G209" t="n">
         <v>591.608779447422</v>
       </c>
-      <c r="H209" t="n">
-        <v>-385.1112868786814</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5905,9 +5276,6 @@
       <c r="G210" t="n">
         <v>730.9311991915263</v>
       </c>
-      <c r="H210" t="n">
-        <v>-2426.630310839712</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5931,9 +5299,6 @@
       <c r="G211" t="n">
         <v>262.1342075090563</v>
       </c>
-      <c r="H211" t="n">
-        <v>-81.18143817651689</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5957,9 +5322,6 @@
       <c r="G212" t="n">
         <v>300.8470997851913</v>
       </c>
-      <c r="H212" t="n">
-        <v>-36.31350965298373</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5983,9 +5345,6 @@
       <c r="G213" t="n">
         <v>606.8373347882188</v>
       </c>
-      <c r="H213" t="n">
-        <v>-438.9925201156374</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6009,9 +5368,6 @@
       <c r="G214" t="n">
         <v>378.1482372052855</v>
       </c>
-      <c r="H214" t="n">
-        <v>-169.1987429429914</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6035,9 +5391,6 @@
       <c r="G215" t="n">
         <v>522.3768312255593</v>
       </c>
-      <c r="H215" t="n">
-        <v>-476.7298747974389</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6061,9 +5414,6 @@
       <c r="G216" t="n">
         <v>144.3680835962942</v>
       </c>
-      <c r="H216" t="n">
-        <v>-48.18214430404722</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6087,9 +5437,6 @@
       <c r="G217" t="n">
         <v>305.3565936087082</v>
       </c>
-      <c r="H217" t="n">
-        <v>-108.7267135543496</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6113,9 +5460,6 @@
       <c r="G218" t="n">
         <v>316.1359137744954</v>
       </c>
-      <c r="H218" t="n">
-        <v>24.40160008827247</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6139,9 +5483,6 @@
       <c r="G219" t="n">
         <v>715.2069186477776</v>
       </c>
-      <c r="H219" t="n">
-        <v>-1998.500663979381</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6165,9 +5506,6 @@
       <c r="G220" t="n">
         <v>243.7950914115646</v>
       </c>
-      <c r="H220" t="n">
-        <v>27.69268088929563</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6191,9 +5529,6 @@
       <c r="G221" t="n">
         <v>531.7419541102801</v>
       </c>
-      <c r="H221" t="n">
-        <v>-370.1206765585285</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6217,9 +5552,6 @@
       <c r="G222" t="n">
         <v>614.3396157091662</v>
       </c>
-      <c r="H222" t="n">
-        <v>-397.7795832684908</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6243,9 +5575,6 @@
       <c r="G223" t="n">
         <v>652.0139188127673</v>
       </c>
-      <c r="H223" t="n">
-        <v>-246.6135184980964</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6269,9 +5598,6 @@
       <c r="G224" t="n">
         <v>281.3420466145797</v>
       </c>
-      <c r="H224" t="n">
-        <v>-95.47162829131071</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6295,9 +5621,6 @@
       <c r="G225" t="n">
         <v>667.3042286358224</v>
       </c>
-      <c r="H225" t="n">
-        <v>-2099.21973258133</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6321,9 +5644,6 @@
       <c r="G226" t="n">
         <v>506.3916931452759</v>
       </c>
-      <c r="H226" t="n">
-        <v>-322.1043441028943</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -6347,9 +5667,6 @@
       <c r="G227" t="n">
         <v>422.4378057280423</v>
       </c>
-      <c r="H227" t="n">
-        <v>-219.4670903354701</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6373,9 +5690,6 @@
       <c r="G228" t="n">
         <v>455.3286399195703</v>
       </c>
-      <c r="H228" t="n">
-        <v>-258.4956612437371</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -6399,9 +5713,6 @@
       <c r="G229" t="n">
         <v>148.0917583230887</v>
       </c>
-      <c r="H229" t="n">
-        <v>38.7657864190373</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -6425,9 +5736,6 @@
       <c r="G230" t="n">
         <v>323.4826140062038</v>
       </c>
-      <c r="H230" t="n">
-        <v>-121.2240630364431</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -6451,9 +5759,6 @@
       <c r="G231" t="n">
         <v>120.6075822405393</v>
       </c>
-      <c r="H231" t="n">
-        <v>-101.1058701328972</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -6477,9 +5782,6 @@
       <c r="G232" t="n">
         <v>317.5639092582041</v>
       </c>
-      <c r="H232" t="n">
-        <v>-181.6026134847444</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -6503,9 +5805,6 @@
       <c r="G233" t="n">
         <v>426.860982535185</v>
       </c>
-      <c r="H233" t="n">
-        <v>-225.4827110765447</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -6529,9 +5828,6 @@
       <c r="G234" t="n">
         <v>158.5155878831425</v>
       </c>
-      <c r="H234" t="n">
-        <v>13.7884154409936</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6555,9 +5851,6 @@
       <c r="G235" t="n">
         <v>103.6584291999111</v>
       </c>
-      <c r="H235" t="n">
-        <v>15.02910227315122</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -6581,9 +5874,6 @@
       <c r="G236" t="n">
         <v>534.2685763450336</v>
       </c>
-      <c r="H236" t="n">
-        <v>-1217.572753703082</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6607,9 +5897,6 @@
       <c r="G237" t="n">
         <v>506.6460205630216</v>
       </c>
-      <c r="H237" t="n">
-        <v>-520.9649003905168</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6633,9 +5920,6 @@
       <c r="G238" t="n">
         <v>527.927326221082</v>
       </c>
-      <c r="H238" t="n">
-        <v>-920.9281120732094</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6659,9 +5943,6 @@
       <c r="G239" t="n">
         <v>141.1048411561838</v>
       </c>
-      <c r="H239" t="n">
-        <v>6.039118641818488</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6685,9 +5966,6 @@
       <c r="G240" t="n">
         <v>184.4182684867745</v>
       </c>
-      <c r="H240" t="n">
-        <v>-20.86584691959958</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6711,9 +5989,6 @@
       <c r="G241" t="n">
         <v>254.1196335835183</v>
       </c>
-      <c r="H241" t="n">
-        <v>-58.82546088744754</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6737,9 +6012,6 @@
       <c r="G242" t="n">
         <v>254.0854391608004</v>
       </c>
-      <c r="H242" t="n">
-        <v>-22.31446032677612</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6763,9 +6035,6 @@
       <c r="G243" t="n">
         <v>194.0489490917999</v>
       </c>
-      <c r="H243" t="n">
-        <v>-15.34312931880121</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6789,9 +6058,6 @@
       <c r="G244" t="n">
         <v>290.9428807065166</v>
       </c>
-      <c r="H244" t="n">
-        <v>-35.75337082588255</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6815,9 +6081,6 @@
       <c r="G245" t="n">
         <v>376.9450548636177</v>
       </c>
-      <c r="H245" t="n">
-        <v>-203.7790184132703</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6841,9 +6104,6 @@
       <c r="G246" t="n">
         <v>489.1159677310337</v>
       </c>
-      <c r="H246" t="n">
-        <v>-260.2264961840353</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6867,9 +6127,6 @@
       <c r="G247" t="n">
         <v>606.2041177604236</v>
       </c>
-      <c r="H247" t="n">
-        <v>-310.16569233873</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6893,9 +6150,6 @@
       <c r="G248" t="n">
         <v>118.0047610855571</v>
       </c>
-      <c r="H248" t="n">
-        <v>66.96690228984241</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6919,9 +6173,6 @@
       <c r="G249" t="n">
         <v>624.4338834913922</v>
       </c>
-      <c r="H249" t="n">
-        <v>-240.0848621700746</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6945,9 +6196,6 @@
       <c r="G250" t="n">
         <v>186.6970932228694</v>
       </c>
-      <c r="H250" t="n">
-        <v>-14.66831079505082</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6971,9 +6219,6 @@
       <c r="G251" t="n">
         <v>239.8091072489011</v>
       </c>
-      <c r="H251" t="n">
-        <v>32.3884002752874</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6997,9 +6242,6 @@
       <c r="G252" t="n">
         <v>127.6303918287968</v>
       </c>
-      <c r="H252" t="n">
-        <v>21.91342971603714</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7023,9 +6265,6 @@
       <c r="G253" t="n">
         <v>159.5132651937932</v>
       </c>
-      <c r="H253" t="n">
-        <v>96.20848084811851</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7049,9 +6288,6 @@
       <c r="G254" t="n">
         <v>90.29385372427789</v>
       </c>
-      <c r="H254" t="n">
-        <v>-281.9955923311077</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7075,9 +6311,6 @@
       <c r="G255" t="n">
         <v>68.95981152237249</v>
       </c>
-      <c r="H255" t="n">
-        <v>71.7239786735467</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7101,9 +6334,6 @@
       <c r="G256" t="n">
         <v>159.0963042150291</v>
       </c>
-      <c r="H256" t="n">
-        <v>121.161662502741</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7127,9 +6357,6 @@
       <c r="G257" t="n">
         <v>100.7458586254065</v>
       </c>
-      <c r="H257" t="n">
-        <v>46.82535230484669</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7153,9 +6380,6 @@
       <c r="G258" t="n">
         <v>143.0928047438325</v>
       </c>
-      <c r="H258" t="n">
-        <v>-46.9264326964753</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7179,9 +6403,6 @@
       <c r="G259" t="n">
         <v>-15.88684467507535</v>
       </c>
-      <c r="H259" t="n">
-        <v>28.6596122742046</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7205,9 +6426,6 @@
       <c r="G260" t="n">
         <v>111.1731297813289</v>
       </c>
-      <c r="H260" t="n">
-        <v>133.8367510003206</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -7231,9 +6449,6 @@
       <c r="G261" t="n">
         <v>365.207615070522</v>
       </c>
-      <c r="H261" t="n">
-        <v>-230.7624871735232</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -7257,9 +6472,6 @@
       <c r="G262" t="n">
         <v>137.2468155159299</v>
       </c>
-      <c r="H262" t="n">
-        <v>873.7811349151868</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -7283,9 +6495,6 @@
       <c r="G263" t="n">
         <v>216.4012228551966</v>
       </c>
-      <c r="H263" t="n">
-        <v>532.2703101439607</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -7309,9 +6518,6 @@
       <c r="G264" t="n">
         <v>263.8739933656408</v>
       </c>
-      <c r="H264" t="n">
-        <v>-74.42433807257243</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -7335,9 +6541,6 @@
       <c r="G265" t="n">
         <v>163.5668106372451</v>
       </c>
-      <c r="H265" t="n">
-        <v>337.5332036623628</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -7361,9 +6564,6 @@
       <c r="G266" t="n">
         <v>358.3948613866022</v>
       </c>
-      <c r="H266" t="n">
-        <v>-158.8859258905949</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -7387,9 +6587,6 @@
       <c r="G267" t="n">
         <v>157.9773996005647</v>
       </c>
-      <c r="H267" t="n">
-        <v>4.285579388600083</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -7413,9 +6610,6 @@
       <c r="G268" t="n">
         <v>184.1583669897722</v>
       </c>
-      <c r="H268" t="n">
-        <v>253.9270189191546</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -7439,9 +6633,6 @@
       <c r="G269" t="n">
         <v>205.135518542535</v>
       </c>
-      <c r="H269" t="n">
-        <v>443.6183416444704</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -7465,9 +6656,6 @@
       <c r="G270" t="n">
         <v>420.5306798027762</v>
       </c>
-      <c r="H270" t="n">
-        <v>-154.1665256782511</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -7491,9 +6679,6 @@
       <c r="G271" t="n">
         <v>47.2832548112473</v>
       </c>
-      <c r="H271" t="n">
-        <v>177.8637440658116</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -7517,9 +6702,6 @@
       <c r="G272" t="n">
         <v>168.0967024781545</v>
       </c>
-      <c r="H272" t="n">
-        <v>51.87145550199367</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -7543,9 +6725,6 @@
       <c r="G273" t="n">
         <v>461.9490537201126</v>
       </c>
-      <c r="H273" t="n">
-        <v>-12.64569969052554</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -7569,9 +6748,6 @@
       <c r="G274" t="n">
         <v>47.24020613910167</v>
       </c>
-      <c r="H274" t="n">
-        <v>304.2419248772389</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -7595,9 +6771,6 @@
       <c r="G275" t="n">
         <v>204.628743301267</v>
       </c>
-      <c r="H275" t="n">
-        <v>-37.18615074783737</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -7621,9 +6794,6 @@
       <c r="G276" t="n">
         <v>41.95736932840124</v>
       </c>
-      <c r="H276" t="n">
-        <v>558.3024079341834</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -7647,9 +6817,6 @@
       <c r="G277" t="n">
         <v>125.6542998530549</v>
       </c>
-      <c r="H277" t="n">
-        <v>1448.757027961199</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -7673,9 +6840,6 @@
       <c r="G278" t="n">
         <v>219.6146825421716</v>
       </c>
-      <c r="H278" t="n">
-        <v>-48.87960333500432</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -7699,9 +6863,6 @@
       <c r="G279" t="n">
         <v>120.2539850750274</v>
       </c>
-      <c r="H279" t="n">
-        <v>569.4757560274074</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -7725,9 +6886,6 @@
       <c r="G280" t="n">
         <v>130.4933979243358</v>
       </c>
-      <c r="H280" t="n">
-        <v>73.64119469448683</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7751,9 +6909,6 @@
       <c r="G281" t="n">
         <v>177.436673508471</v>
       </c>
-      <c r="H281" t="n">
-        <v>226.1058965464504</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7777,9 +6932,6 @@
       <c r="G282" t="n">
         <v>260.5247413169378</v>
       </c>
-      <c r="H282" t="n">
-        <v>-55.06131998739092</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -7803,9 +6955,6 @@
       <c r="G283" t="n">
         <v>328.1989411446</v>
       </c>
-      <c r="H283" t="n">
-        <v>-154.5613342246551</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7829,9 +6978,6 @@
       <c r="G284" t="n">
         <v>140.625405370431</v>
       </c>
-      <c r="H284" t="n">
-        <v>100.6888838544343</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7855,9 +7001,6 @@
       <c r="G285" t="n">
         <v>0</v>
       </c>
-      <c r="H285" t="n">
-        <v>301.7008517472504</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7881,9 +7024,6 @@
       <c r="G286" t="n">
         <v>166.4952254268603</v>
       </c>
-      <c r="H286" t="n">
-        <v>119.2129202075922</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7907,9 +7047,6 @@
       <c r="G287" t="n">
         <v>145.660279795276</v>
       </c>
-      <c r="H287" t="n">
-        <v>-3536.403690977349</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7933,9 +7070,6 @@
       <c r="G288" t="n">
         <v>124.8265854957575</v>
       </c>
-      <c r="H288" t="n">
-        <v>-153.8852921966883</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7959,9 +7093,6 @@
       <c r="G289" t="n">
         <v>202.6002784388285</v>
       </c>
-      <c r="H289" t="n">
-        <v>5197.186030226255</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7985,9 +7116,6 @@
       <c r="G290" t="n">
         <v>202.3982912232361</v>
       </c>
-      <c r="H290" t="n">
-        <v>-73.52414562957144</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8011,9 +7139,6 @@
       <c r="G291" t="n">
         <v>181.466058018315</v>
       </c>
-      <c r="H291" t="n">
-        <v>66.76879119177043</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8037,9 +7162,6 @@
       <c r="G292" t="n">
         <v>119.244910577602</v>
       </c>
-      <c r="H292" t="n">
-        <v>308.6190278360323</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8063,9 +7185,6 @@
       <c r="G293" t="n">
         <v>176.1576418580231</v>
       </c>
-      <c r="H293" t="n">
-        <v>142.6167672223838</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -8089,9 +7208,6 @@
       <c r="G294" t="n">
         <v>196.6486787283332</v>
       </c>
-      <c r="H294" t="n">
-        <v>863.3503301396939</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -8115,9 +7231,6 @@
       <c r="G295" t="n">
         <v>134.4935748340165</v>
       </c>
-      <c r="H295" t="n">
-        <v>12.71229515408096</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -8141,9 +7254,6 @@
       <c r="G296" t="n">
         <v>232.2638215902246</v>
       </c>
-      <c r="H296" t="n">
-        <v>-120.4695040411489</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -8167,9 +7277,6 @@
       <c r="G297" t="n">
         <v>123.8514527981544</v>
       </c>
-      <c r="H297" t="n">
-        <v>389.8287794719719</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -8193,9 +7300,6 @@
       <c r="G298" t="n">
         <v>232.2138113766323</v>
       </c>
-      <c r="H298" t="n">
-        <v>170.7193914685117</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -8219,9 +7323,6 @@
       <c r="G299" t="n">
         <v>170.174714711763</v>
       </c>
-      <c r="H299" t="n">
-        <v>271.3457864748578</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -8245,9 +7346,6 @@
       <c r="G300" t="n">
         <v>108.2391220073444</v>
       </c>
-      <c r="H300" t="n">
-        <v>143.9293382979917</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -8271,9 +7369,6 @@
       <c r="G301" t="n">
         <v>-41.21786779083853</v>
       </c>
-      <c r="H301" t="n">
-        <v>328.0081742213967</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -8297,9 +7392,6 @@
       <c r="G302" t="n">
         <v>143.9951829794692</v>
       </c>
-      <c r="H302" t="n">
-        <v>198.417772880349</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -8323,9 +7415,6 @@
       <c r="G303" t="n">
         <v>71.90846163890403</v>
       </c>
-      <c r="H303" t="n">
-        <v>284.6273244369119</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -8349,9 +7438,6 @@
       <c r="G304" t="n">
         <v>261.8355631790055</v>
       </c>
-      <c r="H304" t="n">
-        <v>570.210634152009</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -8375,9 +7461,6 @@
       <c r="G305" t="n">
         <v>148.8697897116303</v>
       </c>
-      <c r="H305" t="n">
-        <v>7.366348622684987</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -8401,9 +7484,6 @@
       <c r="G306" t="n">
         <v>317.9168406841698</v>
       </c>
-      <c r="H306" t="n">
-        <v>4861.837295070719</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -8427,9 +7507,6 @@
       <c r="G307" t="n">
         <v>92.29262524498033</v>
       </c>
-      <c r="H307" t="n">
-        <v>1009.571658285034</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -8453,9 +7530,6 @@
       <c r="G308" t="n">
         <v>76.85270908110513</v>
       </c>
-      <c r="H308" t="n">
-        <v>605.176985475794</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -8479,9 +7553,6 @@
       <c r="G309" t="n">
         <v>327.8196499340423</v>
       </c>
-      <c r="H309" t="n">
-        <v>-1774.760360398788</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -8505,9 +7576,6 @@
       <c r="G310" t="n">
         <v>194.6092078285625</v>
       </c>
-      <c r="H310" t="n">
-        <v>59.04854537319127</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -8531,9 +7599,6 @@
       <c r="G311" t="n">
         <v>235.5421508427302</v>
       </c>
-      <c r="H311" t="n">
-        <v>382.4658464842588</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -8557,9 +7622,6 @@
       <c r="G312" t="n">
         <v>214.9893984320312</v>
       </c>
-      <c r="H312" t="n">
-        <v>202.7420647015272</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -8583,9 +7645,6 @@
       <c r="G313" t="n">
         <v>194.4806225750431</v>
       </c>
-      <c r="H313" t="n">
-        <v>54.58203440430735</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -8609,9 +7668,6 @@
       <c r="G314" t="n">
         <v>173.94430549706</v>
       </c>
-      <c r="H314" t="n">
-        <v>-29.35610538220699</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -8635,9 +7691,6 @@
       <c r="G315" t="n">
         <v>255.7780704743051</v>
       </c>
-      <c r="H315" t="n">
-        <v>242.9716413234607</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -8661,9 +7714,6 @@
       <c r="G316" t="n">
         <v>301.7764643368278</v>
       </c>
-      <c r="H316" t="n">
-        <v>10.83614772958832</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -8687,9 +7737,6 @@
       <c r="G317" t="n">
         <v>-5.113526350001163</v>
       </c>
-      <c r="H317" t="n">
-        <v>534.3406832194195</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -8713,9 +7760,6 @@
       <c r="G318" t="n">
         <v>439.6697333883357</v>
       </c>
-      <c r="H318" t="n">
-        <v>-176.7897382902832</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -8739,9 +7783,6 @@
       <c r="G319" t="n">
         <v>81.64781948193625</v>
       </c>
-      <c r="H319" t="n">
-        <v>108.0083353174024</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -8765,9 +7806,6 @@
       <c r="G320" t="n">
         <v>91.72780398561993</v>
       </c>
-      <c r="H320" t="n">
-        <v>116.3625252197682</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -8791,9 +7829,6 @@
       <c r="G321" t="n">
         <v>-10.15538321842437</v>
       </c>
-      <c r="H321" t="n">
-        <v>1352.088961103588</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -8817,9 +7852,6 @@
       <c r="G322" t="n">
         <v>197.9227233565246</v>
       </c>
-      <c r="H322" t="n">
-        <v>-60.22595447749121</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -8843,9 +7875,6 @@
       <c r="G323" t="n">
         <v>-45.66541931246624</v>
       </c>
-      <c r="H323" t="n">
-        <v>257.112186181043</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -8869,9 +7898,6 @@
       <c r="G324" t="n">
         <v>329.2815621217021</v>
       </c>
-      <c r="H324" t="n">
-        <v>36.34979444701265</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -8895,9 +7921,6 @@
       <c r="G325" t="n">
         <v>161.7922138781969</v>
       </c>
-      <c r="H325" t="n">
-        <v>10.6191277771182</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -8921,9 +7944,6 @@
       <c r="G326" t="n">
         <v>131.4143166169171</v>
       </c>
-      <c r="H326" t="n">
-        <v>9.820021779032155</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -8947,9 +7967,6 @@
       <c r="G327" t="n">
         <v>439.6952553569163</v>
       </c>
-      <c r="H327" t="n">
-        <v>-209.4270073989706</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -8973,9 +7990,6 @@
       <c r="G328" t="n">
         <v>338.3605510680695</v>
       </c>
-      <c r="H328" t="n">
-        <v>-126.2862977028006</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -8999,9 +8013,6 @@
       <c r="G329" t="n">
         <v>251.7416484697276</v>
       </c>
-      <c r="H329" t="n">
-        <v>-21.0510670662363</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -9025,9 +8036,6 @@
       <c r="G330" t="n">
         <v>296.8568655668262</v>
       </c>
-      <c r="H330" t="n">
-        <v>272.5596786533563</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -9051,9 +8059,6 @@
       <c r="G331" t="n">
         <v>241.2456353288541</v>
       </c>
-      <c r="H331" t="n">
-        <v>2609.976048421004</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -9077,9 +8082,6 @@
       <c r="G332" t="n">
         <v>85.35065338567271</v>
       </c>
-      <c r="H332" t="n">
-        <v>376.1263982173484</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -9103,9 +8105,6 @@
       <c r="G333" t="n">
         <v>290.8748469976151</v>
       </c>
-      <c r="H333" t="n">
-        <v>4718.185087020825</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -9129,9 +8128,6 @@
       <c r="G334" t="n">
         <v>305.8885305563407</v>
       </c>
-      <c r="H334" t="n">
-        <v>36.71521279762205</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -9155,9 +8151,6 @@
       <c r="G335" t="n">
         <v>270.4741428159249</v>
       </c>
-      <c r="H335" t="n">
-        <v>-118.3965169284807</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -9181,9 +8174,6 @@
       <c r="G336" t="n">
         <v>380.5951780516208</v>
       </c>
-      <c r="H336" t="n">
-        <v>-191.202308568133</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -9207,9 +8197,6 @@
       <c r="G337" t="n">
         <v>369.4561698125643</v>
       </c>
-      <c r="H337" t="n">
-        <v>-159.6353954692247</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -9233,9 +8220,6 @@
       <c r="G338" t="n">
         <v>249.5274241010105</v>
       </c>
-      <c r="H338" t="n">
-        <v>44.8049461500661</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -9259,9 +8243,6 @@
       <c r="G339" t="n">
         <v>289.335277466797</v>
       </c>
-      <c r="H339" t="n">
-        <v>-71.6106984451404</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -9285,9 +8266,6 @@
       <c r="G340" t="n">
         <v>389.0674384959393</v>
       </c>
-      <c r="H340" t="n">
-        <v>-171.8832559976213</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -9311,9 +8289,6 @@
       <c r="G341" t="n">
         <v>264.0724182988537</v>
       </c>
-      <c r="H341" t="n">
-        <v>-1672.638395897612</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -9337,9 +8312,6 @@
       <c r="G342" t="n">
         <v>-4.979969118434592</v>
       </c>
-      <c r="H342" t="n">
-        <v>1428.822050063571</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -9363,9 +8335,6 @@
       <c r="G343" t="n">
         <v>114.5189978148761</v>
       </c>
-      <c r="H343" t="n">
-        <v>-271.2715715615324</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -9389,9 +8358,6 @@
       <c r="G344" t="n">
         <v>487.5704588661954</v>
       </c>
-      <c r="H344" t="n">
-        <v>-336.9433787398324</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -9415,9 +8381,6 @@
       <c r="G345" t="n">
         <v>288.4188113276374</v>
       </c>
-      <c r="H345" t="n">
-        <v>-96.93869080815716</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -9441,9 +8404,6 @@
       <c r="G346" t="n">
         <v>59.60378545831293</v>
       </c>
-      <c r="H346" t="n">
-        <v>558.8487561661142</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -9467,9 +8427,6 @@
       <c r="G347" t="n">
         <v>74.2581278259584</v>
       </c>
-      <c r="H347" t="n">
-        <v>584.7096442293843</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -9493,9 +8450,6 @@
       <c r="G348" t="n">
         <v>301.8867852545542</v>
       </c>
-      <c r="H348" t="n">
-        <v>-203.1242034383245</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -9519,9 +8473,6 @@
       <c r="G349" t="n">
         <v>207.6218479247084</v>
       </c>
-      <c r="H349" t="n">
-        <v>311.4272507400212</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -9545,9 +8496,6 @@
       <c r="G350" t="n">
         <v>320.4926387114364</v>
       </c>
-      <c r="H350" t="n">
-        <v>-203.1718995244626</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -9571,9 +8519,6 @@
       <c r="G351" t="n">
         <v>142.976835457745</v>
       </c>
-      <c r="H351" t="n">
-        <v>-0.6195959117695642</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -9597,9 +8542,6 @@
       <c r="G352" t="n">
         <v>187.2349535949378</v>
       </c>
-      <c r="H352" t="n">
-        <v>44.14410587272454</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -9623,9 +8565,6 @@
       <c r="G353" t="n">
         <v>83.61271164294175</v>
       </c>
-      <c r="H353" t="n">
-        <v>127.8729685434533</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -9649,9 +8588,6 @@
       <c r="G354" t="n">
         <v>147.5341893711322</v>
       </c>
-      <c r="H354" t="n">
-        <v>100.5734554463706</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -9675,9 +8611,6 @@
       <c r="G355" t="n">
         <v>142.562775215554</v>
       </c>
-      <c r="H355" t="n">
-        <v>48.41696422982108</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -9701,9 +8634,6 @@
       <c r="G356" t="n">
         <v>117.9524285386431</v>
       </c>
-      <c r="H356" t="n">
-        <v>621.1097927130055</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -9727,9 +8657,6 @@
       <c r="G357" t="n">
         <v>162.1307027300764</v>
       </c>
-      <c r="H357" t="n">
-        <v>963.7631229739839</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -9753,9 +8680,6 @@
       <c r="G358" t="n">
         <v>-24.54570377302966</v>
       </c>
-      <c r="H358" t="n">
-        <v>747.9914498146771</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -9779,9 +8703,6 @@
       <c r="G359" t="n">
         <v>117.5283468560231</v>
       </c>
-      <c r="H359" t="n">
-        <v>1704.238082481319</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -9805,9 +8726,6 @@
       <c r="G360" t="n">
         <v>205.4176077853009</v>
       </c>
-      <c r="H360" t="n">
-        <v>6.655918634521491</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -9831,9 +8749,6 @@
       <c r="G361" t="n">
         <v>649.565959220505</v>
       </c>
-      <c r="H361" t="n">
-        <v>-657.8727386612017</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -9857,9 +8772,6 @@
       <c r="G362" t="n">
         <v>278.3682055686399</v>
       </c>
-      <c r="H362" t="n">
-        <v>-85.98036724576771</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -9883,9 +8795,6 @@
       <c r="G363" t="n">
         <v>610.3872666042163</v>
       </c>
-      <c r="H363" t="n">
-        <v>-507.7909179578136</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -9909,9 +8818,6 @@
       <c r="G364" t="n">
         <v>228.9860457782337</v>
       </c>
-      <c r="H364" t="n">
-        <v>1.741142287009124</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -9935,9 +8841,6 @@
       <c r="G365" t="n">
         <v>238.493244977604</v>
       </c>
-      <c r="H365" t="n">
-        <v>-75.81881616245747</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -9961,9 +8864,6 @@
       <c r="G366" t="n">
         <v>194.4473683488407</v>
       </c>
-      <c r="H366" t="n">
-        <v>-6.720239296761225</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -9987,9 +8887,6 @@
       <c r="G367" t="n">
         <v>301.0040575521219</v>
       </c>
-      <c r="H367" t="n">
-        <v>-81.54075759495289</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -10013,9 +8910,6 @@
       <c r="G368" t="n">
         <v>242.4754238206834</v>
       </c>
-      <c r="H368" t="n">
-        <v>20.072554104728</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -10039,9 +8933,6 @@
       <c r="G369" t="n">
         <v>188.8928534873326</v>
       </c>
-      <c r="H369" t="n">
-        <v>6.122069084161239</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -10065,9 +8956,6 @@
       <c r="G370" t="n">
         <v>381.8686770276714</v>
       </c>
-      <c r="H370" t="n">
-        <v>-50.16940775637465</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -10091,9 +8979,6 @@
       <c r="G371" t="n">
         <v>361.7682096654996</v>
       </c>
-      <c r="H371" t="n">
-        <v>-157.429884282878</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -10117,9 +9002,6 @@
       <c r="G372" t="n">
         <v>236.2900667862998</v>
       </c>
-      <c r="H372" t="n">
-        <v>66.49500390173341</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -10143,9 +9025,6 @@
       <c r="G373" t="n">
         <v>385.523074635007</v>
       </c>
-      <c r="H373" t="n">
-        <v>-234.3922945915979</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -10169,9 +9048,6 @@
       <c r="G374" t="n">
         <v>341.4183025228628</v>
       </c>
-      <c r="H374" t="n">
-        <v>-150.1360384002984</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -10195,9 +9071,6 @@
       <c r="G375" t="n">
         <v>249.7320941118427</v>
       </c>
-      <c r="H375" t="n">
-        <v>-2.850022391814808</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -10221,9 +9094,6 @@
       <c r="G376" t="n">
         <v>446.2306370896356</v>
       </c>
-      <c r="H376" t="n">
-        <v>-370.9291680764682</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -10247,9 +9117,6 @@
       <c r="G377" t="n">
         <v>603.9675151969037</v>
       </c>
-      <c r="H377" t="n">
-        <v>-545.2384361930065</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -10273,9 +9140,6 @@
       <c r="G378" t="n">
         <v>358.7827013026903</v>
       </c>
-      <c r="H378" t="n">
-        <v>-205.8586879521423</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -10299,9 +9163,6 @@
       <c r="G379" t="n">
         <v>272.4534597109807</v>
       </c>
-      <c r="H379" t="n">
-        <v>-62.71238576205091</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -10325,9 +9186,6 @@
       <c r="G380" t="n">
         <v>267.2306299909687</v>
       </c>
-      <c r="H380" t="n">
-        <v>-47.4802211792922</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -10351,9 +9209,6 @@
       <c r="G381" t="n">
         <v>333.1273296603176</v>
       </c>
-      <c r="H381" t="n">
-        <v>-113.0937063167033</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -10377,9 +9232,6 @@
       <c r="G382" t="n">
         <v>432.8106941308428</v>
       </c>
-      <c r="H382" t="n">
-        <v>-346.3819884089755</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -10403,9 +9255,6 @@
       <c r="G383" t="n">
         <v>347.1451211101874</v>
       </c>
-      <c r="H383" t="n">
-        <v>-167.7190345824132</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -10429,9 +9278,6 @@
       <c r="G384" t="n">
         <v>175.6991802961932</v>
       </c>
-      <c r="H384" t="n">
-        <v>76.17634788572811</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -10455,9 +9301,6 @@
       <c r="G385" t="n">
         <v>161.343094437521</v>
       </c>
-      <c r="H385" t="n">
-        <v>13.60943617960323</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -10481,9 +9324,6 @@
       <c r="G386" t="n">
         <v>411.4795151215545</v>
       </c>
-      <c r="H386" t="n">
-        <v>-299.5426548589265</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -10507,9 +9347,6 @@
       <c r="G387" t="n">
         <v>108.7467068400894</v>
       </c>
-      <c r="H387" t="n">
-        <v>26.24477037286226</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -10533,9 +9370,6 @@
       <c r="G388" t="n">
         <v>292.8997105026701</v>
       </c>
-      <c r="H388" t="n">
-        <v>-21.56144662485524</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -10559,9 +9393,6 @@
       <c r="G389" t="n">
         <v>61.21937238033836</v>
       </c>
-      <c r="H389" t="n">
-        <v>137.8425140766046</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -10585,9 +9416,6 @@
       <c r="G390" t="n">
         <v>-9.417877534870829</v>
       </c>
-      <c r="H390" t="n">
-        <v>-602.5096833263989</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -10611,9 +9439,6 @@
       <c r="G391" t="n">
         <v>187.8838196625262</v>
       </c>
-      <c r="H391" t="n">
-        <v>-40.11239879378624</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -10637,9 +9462,6 @@
       <c r="G392" t="n">
         <v>93.86871812200049</v>
       </c>
-      <c r="H392" t="n">
-        <v>705.834955227751</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -10663,9 +9485,6 @@
       <c r="G393" t="n">
         <v>145.3412824473261</v>
       </c>
-      <c r="H393" t="n">
-        <v>200.5172378960189</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -10689,9 +9508,6 @@
       <c r="G394" t="n">
         <v>632.8326594967555</v>
       </c>
-      <c r="H394" t="n">
-        <v>-554.8260618198044</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -10715,9 +9531,6 @@
       <c r="G395" t="n">
         <v>524.4917139538284</v>
       </c>
-      <c r="H395" t="n">
-        <v>-367.7257166843082</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -10741,9 +9554,6 @@
       <c r="G396" t="n">
         <v>378.8453383363331</v>
       </c>
-      <c r="H396" t="n">
-        <v>-220.0847732180675</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -10767,9 +9577,6 @@
       <c r="G397" t="n">
         <v>462.7709698660614</v>
       </c>
-      <c r="H397" t="n">
-        <v>-405.3063038702944</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -10793,9 +9600,6 @@
       <c r="G398" t="n">
         <v>177.408015021948</v>
       </c>
-      <c r="H398" t="n">
-        <v>899.7656089311585</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -10819,9 +9623,6 @@
       <c r="G399" t="n">
         <v>280.1046447543227</v>
       </c>
-      <c r="H399" t="n">
-        <v>-123.8088099612043</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -10845,9 +9646,6 @@
       <c r="G400" t="n">
         <v>471.4065966442135</v>
       </c>
-      <c r="H400" t="n">
-        <v>-316.9289428634561</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -10871,9 +9669,6 @@
       <c r="G401" t="n">
         <v>475.3710408940565</v>
       </c>
-      <c r="H401" t="n">
-        <v>-562.3247621942709</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -10897,9 +9692,6 @@
       <c r="G402" t="n">
         <v>116.4118467189259</v>
       </c>
-      <c r="H402" t="n">
-        <v>198.3875674806187</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -10923,9 +9715,6 @@
       <c r="G403" t="n">
         <v>309.7955529230764</v>
       </c>
-      <c r="H403" t="n">
-        <v>-24.25075240790463</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -10949,9 +9738,6 @@
       <c r="G404" t="n">
         <v>706.0156057071227</v>
       </c>
-      <c r="H404" t="n">
-        <v>-663.3997521096262</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -10975,9 +9761,6 @@
       <c r="G405" t="n">
         <v>272.1921047835962</v>
       </c>
-      <c r="H405" t="n">
-        <v>-124.0226340942227</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -11001,9 +9784,6 @@
       <c r="G406" t="n">
         <v>244.4185199844733</v>
       </c>
-      <c r="H406" t="n">
-        <v>45.54729172704253</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -11027,9 +9807,6 @@
       <c r="G407" t="n">
         <v>73.66569378575771</v>
       </c>
-      <c r="H407" t="n">
-        <v>626.1772489131923</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -11053,9 +9830,6 @@
       <c r="G408" t="n">
         <v>266.6796667782517</v>
       </c>
-      <c r="H408" t="n">
-        <v>-24.39988597956146</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -11079,9 +9853,6 @@
       <c r="G409" t="n">
         <v>205.854665697569</v>
       </c>
-      <c r="H409" t="n">
-        <v>2094.481217106499</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -11105,9 +9876,6 @@
       <c r="G410" t="n">
         <v>278.829962078581</v>
       </c>
-      <c r="H410" t="n">
-        <v>419.5104558130472</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -11131,9 +9899,6 @@
       <c r="G411" t="n">
         <v>337.6128484726897</v>
       </c>
-      <c r="H411" t="n">
-        <v>-113.7584883345251</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -11157,9 +9922,6 @@
       <c r="G412" t="n">
         <v>168.4987659619186</v>
       </c>
-      <c r="H412" t="n">
-        <v>-10.9497217511235</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -11183,9 +9945,6 @@
       <c r="G413" t="n">
         <v>90.94081370385827</v>
       </c>
-      <c r="H413" t="n">
-        <v>147.7598928912802</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -11209,9 +9968,6 @@
       <c r="G414" t="n">
         <v>495.5070812211184</v>
       </c>
-      <c r="H414" t="n">
-        <v>-331.4180656074172</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -11235,9 +9991,6 @@
       <c r="G415" t="n">
         <v>472.7088082925675</v>
       </c>
-      <c r="H415" t="n">
-        <v>-122.2711494140201</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -11261,9 +10014,6 @@
       <c r="G416" t="n">
         <v>204.0993149422558</v>
       </c>
-      <c r="H416" t="n">
-        <v>132.3590588398575</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -11287,9 +10037,6 @@
       <c r="G417" t="n">
         <v>353.7141055489136</v>
       </c>
-      <c r="H417" t="n">
-        <v>-35.89805180896956</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -11313,9 +10060,6 @@
       <c r="G418" t="n">
         <v>176.4322847497118</v>
       </c>
-      <c r="H418" t="n">
-        <v>133.3483123121715</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -11339,9 +10083,6 @@
       <c r="G419" t="n">
         <v>122.098934547934</v>
       </c>
-      <c r="H419" t="n">
-        <v>179.944447859895</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -11365,9 +10106,6 @@
       <c r="G420" t="n">
         <v>135.5454780652353</v>
       </c>
-      <c r="H420" t="n">
-        <v>138.7178156318568</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -11391,9 +10129,6 @@
       <c r="G421" t="n">
         <v>234.9335559933501</v>
       </c>
-      <c r="H421" t="n">
-        <v>-133.3362961973488</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -11417,9 +10152,6 @@
       <c r="G422" t="n">
         <v>131.0135765576024</v>
       </c>
-      <c r="H422" t="n">
-        <v>360.7670363901298</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -11443,9 +10175,6 @@
       <c r="G423" t="n">
         <v>171.3417372978098</v>
       </c>
-      <c r="H423" t="n">
-        <v>423.6373443744313</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -11469,9 +10198,6 @@
       <c r="G424" t="n">
         <v>130.6247909864805</v>
       </c>
-      <c r="H424" t="n">
-        <v>225.5360744554989</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -11495,9 +10221,6 @@
       <c r="G425" t="n">
         <v>103.3881784185375</v>
       </c>
-      <c r="H425" t="n">
-        <v>769.1614596844565</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -11521,9 +10244,6 @@
       <c r="G426" t="n">
         <v>62.74304024846773</v>
       </c>
-      <c r="H426" t="n">
-        <v>797.0580531091729</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -11547,9 +10267,6 @@
       <c r="G427" t="n">
         <v>116.4395587516074</v>
       </c>
-      <c r="H427" t="n">
-        <v>5788.564318756265</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -11573,9 +10290,6 @@
       <c r="G428" t="n">
         <v>125.2678644403852</v>
       </c>
-      <c r="H428" t="n">
-        <v>928.3891303215653</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -11599,9 +10313,6 @@
       <c r="G429" t="n">
         <v>214.6031396224027</v>
       </c>
-      <c r="H429" t="n">
-        <v>76.74355938386172</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -11625,9 +10336,6 @@
       <c r="G430" t="n">
         <v>160.9304259178272</v>
       </c>
-      <c r="H430" t="n">
-        <v>745.1607806625441</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -11651,9 +10359,6 @@
       <c r="G431" t="n">
         <v>169.8552615109571</v>
       </c>
-      <c r="H431" t="n">
-        <v>61.99512652163661</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -11677,9 +10382,6 @@
       <c r="G432" t="n">
         <v>98.30308555759244</v>
       </c>
-      <c r="H432" t="n">
-        <v>2925.371345664332</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -11703,9 +10405,6 @@
       <c r="G433" t="n">
         <v>192.0552021373099</v>
       </c>
-      <c r="H433" t="n">
-        <v>23.26221572868028</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -11729,9 +10428,6 @@
       <c r="G434" t="n">
         <v>138.3539976958022</v>
       </c>
-      <c r="H434" t="n">
-        <v>433.1726803512617</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -11755,9 +10451,6 @@
       <c r="G435" t="n">
         <v>84.78682950413669</v>
       </c>
-      <c r="H435" t="n">
-        <v>-137.1833934782026</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -11781,9 +10474,6 @@
       <c r="G436" t="n">
         <v>142.605229108893</v>
       </c>
-      <c r="H436" t="n">
-        <v>220.3404222863475</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -11807,9 +10497,6 @@
       <c r="G437" t="n">
         <v>218.3217430527416</v>
       </c>
-      <c r="H437" t="n">
-        <v>-17.5860568817792</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -11833,9 +10520,6 @@
       <c r="G438" t="n">
         <v>111.2993289966225</v>
       </c>
-      <c r="H438" t="n">
-        <v>384.8284515769</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -11859,9 +10543,6 @@
       <c r="G439" t="n">
         <v>137.9888997648001</v>
       </c>
-      <c r="H439" t="n">
-        <v>161.9491769041553</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -11885,9 +10566,6 @@
       <c r="G440" t="n">
         <v>57.82478374146098</v>
       </c>
-      <c r="H440" t="n">
-        <v>82.07050590711341</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -11911,9 +10589,6 @@
       <c r="G441" t="n">
         <v>164.5407492506585</v>
       </c>
-      <c r="H441" t="n">
-        <v>40.81318556435698</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -11937,9 +10612,6 @@
       <c r="G442" t="n">
         <v>146.6311704918206</v>
       </c>
-      <c r="H442" t="n">
-        <v>891.6686643648445</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -11963,9 +10635,6 @@
       <c r="G443" t="n">
         <v>199.896663544362</v>
       </c>
-      <c r="H443" t="n">
-        <v>1461.309935092186</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -11989,9 +10658,6 @@
       <c r="G444" t="n">
         <v>346.3234205091492</v>
       </c>
-      <c r="H444" t="n">
-        <v>-111.0282771089043</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -12015,9 +10681,6 @@
       <c r="G445" t="n">
         <v>173.0961994462634</v>
       </c>
-      <c r="H445" t="n">
-        <v>71.61994034860295</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -12041,9 +10704,6 @@
       <c r="G446" t="n">
         <v>53.25440074399116</v>
       </c>
-      <c r="H446" t="n">
-        <v>293.4347482535817</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -12067,9 +10727,6 @@
       <c r="G447" t="n">
         <v>119.2882686545483</v>
       </c>
-      <c r="H447" t="n">
-        <v>-66.29212051448243</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -12093,9 +10750,6 @@
       <c r="G448" t="n">
         <v>141.3129364538966</v>
       </c>
-      <c r="H448" t="n">
-        <v>102.5007464382058</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -12119,9 +10773,6 @@
       <c r="G449" t="n">
         <v>83.82552310057586</v>
       </c>
-      <c r="H449" t="n">
-        <v>226.5831022877112</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -12145,9 +10796,6 @@
       <c r="G450" t="n">
         <v>79.28828242968066</v>
       </c>
-      <c r="H450" t="n">
-        <v>44.94717022479156</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -12171,9 +10819,6 @@
       <c r="G451" t="n">
         <v>140.9513422926192</v>
       </c>
-      <c r="H451" t="n">
-        <v>478.149850745391</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -12197,9 +10842,6 @@
       <c r="G452" t="n">
         <v>220.1532067233346</v>
       </c>
-      <c r="H452" t="n">
-        <v>130.698262603759</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -12223,9 +10865,6 @@
       <c r="G453" t="n">
         <v>176.0341749640389</v>
       </c>
-      <c r="H453" t="n">
-        <v>-51.19323655325012</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -12249,9 +10888,6 @@
       <c r="G454" t="n">
         <v>258.953491077705</v>
       </c>
-      <c r="H454" t="n">
-        <v>-85.01092786119716</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -12275,9 +10911,6 @@
       <c r="G455" t="n">
         <v>96.44008569618839</v>
       </c>
-      <c r="H455" t="n">
-        <v>190.0958428170259</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -12301,9 +10934,6 @@
       <c r="G456" t="n">
         <v>232.2369982309701</v>
       </c>
-      <c r="H456" t="n">
-        <v>136.8919243869834</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -12327,9 +10957,6 @@
       <c r="G457" t="n">
         <v>197.100076767616</v>
       </c>
-      <c r="H457" t="n">
-        <v>-76.13286264154178</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -12353,9 +10980,6 @@
       <c r="G458" t="n">
         <v>210.2102790272025</v>
       </c>
-      <c r="H458" t="n">
-        <v>-153.1183153346458</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -12379,9 +11003,6 @@
       <c r="G459" t="n">
         <v>279.8099322217222</v>
       </c>
-      <c r="H459" t="n">
-        <v>-155.8574380717183</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -12405,9 +11026,6 @@
       <c r="G460" t="n">
         <v>91.78467588971206</v>
       </c>
-      <c r="H460" t="n">
-        <v>10.22446390993124</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -12431,9 +11049,6 @@
       <c r="G461" t="n">
         <v>192.2855277172897</v>
       </c>
-      <c r="H461" t="n">
-        <v>-31.80258582923868</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -12457,9 +11072,6 @@
       <c r="G462" t="n">
         <v>238.3229262220435</v>
       </c>
-      <c r="H462" t="n">
-        <v>-70.12384182495555</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -12483,9 +11095,6 @@
       <c r="G463" t="n">
         <v>384.0659859137528</v>
       </c>
-      <c r="H463" t="n">
-        <v>-160.8932515690848</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -12509,9 +11118,6 @@
       <c r="G464" t="n">
         <v>386.5088821976353</v>
       </c>
-      <c r="H464" t="n">
-        <v>34.03770430461683</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -12535,9 +11141,6 @@
       <c r="G465" t="n">
         <v>278.3065659815379</v>
       </c>
-      <c r="H465" t="n">
-        <v>-55.52797820995571</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -12561,9 +11164,6 @@
       <c r="G466" t="n">
         <v>277.3923553421329</v>
       </c>
-      <c r="H466" t="n">
-        <v>-97.18395537568279</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -12587,9 +11187,6 @@
       <c r="G467" t="n">
         <v>239.4994202029368</v>
       </c>
-      <c r="H467" t="n">
-        <v>-7.950862667047035</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -12613,9 +11210,6 @@
       <c r="G468" t="n">
         <v>303.5726486043146</v>
       </c>
-      <c r="H468" t="n">
-        <v>30.01757550152243</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -12639,9 +11233,6 @@
       <c r="G469" t="n">
         <v>478.2125432893851</v>
       </c>
-      <c r="H469" t="n">
-        <v>-427.1712720803758</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -12665,9 +11256,6 @@
       <c r="G470" t="n">
         <v>234.3816151067288</v>
       </c>
-      <c r="H470" t="n">
-        <v>-57.65888961054677</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -12691,9 +11279,6 @@
       <c r="G471" t="n">
         <v>166.0176884067126</v>
       </c>
-      <c r="H471" t="n">
-        <v>23.55303305005745</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -12717,9 +11302,6 @@
       <c r="G472" t="n">
         <v>477.1964949355628</v>
       </c>
-      <c r="H472" t="n">
-        <v>75.82034221443965</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -12743,9 +11325,6 @@
       <c r="G473" t="n">
         <v>242.3965569497223</v>
       </c>
-      <c r="H473" t="n">
-        <v>-19.89734169113118</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -12769,9 +11348,6 @@
       <c r="G474" t="n">
         <v>225.5604496260253</v>
       </c>
-      <c r="H474" t="n">
-        <v>134.1856720731294</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -12795,9 +11371,6 @@
       <c r="G475" t="n">
         <v>181.2025467098823</v>
       </c>
-      <c r="H475" t="n">
-        <v>-68.31563666120579</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -12821,9 +11394,6 @@
       <c r="G476" t="n">
         <v>233.4128622855234</v>
       </c>
-      <c r="H476" t="n">
-        <v>151.0329418620676</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -12847,9 +11417,6 @@
       <c r="G477" t="n">
         <v>224.9374666546087</v>
       </c>
-      <c r="H477" t="n">
-        <v>79.01915352422976</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -12873,9 +11440,6 @@
       <c r="G478" t="n">
         <v>172.4417415259499</v>
       </c>
-      <c r="H478" t="n">
-        <v>403.5986393784232</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -12899,9 +11463,6 @@
       <c r="G479" t="n">
         <v>76.1664285974651</v>
       </c>
-      <c r="H479" t="n">
-        <v>68.593008199434</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -12925,9 +11486,6 @@
       <c r="G480" t="n">
         <v>224.3238021063881</v>
       </c>
-      <c r="H480" t="n">
-        <v>860.6285288037263</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -12951,9 +11509,6 @@
       <c r="G481" t="n">
         <v>280.0410918233773</v>
       </c>
-      <c r="H481" t="n">
-        <v>-121.1955952295439</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -12977,9 +11532,6 @@
       <c r="G482" t="n">
         <v>499.8452774835266</v>
       </c>
-      <c r="H482" t="n">
-        <v>-370.0143922364782</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -13003,9 +11555,6 @@
       <c r="G483" t="n">
         <v>155.879703350401</v>
       </c>
-      <c r="H483" t="n">
-        <v>254.3895991114938</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -13029,9 +11578,6 @@
       <c r="G484" t="n">
         <v>239.5758218871549</v>
       </c>
-      <c r="H484" t="n">
-        <v>932.9430407188925</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -13055,9 +11601,6 @@
       <c r="G485" t="n">
         <v>239.5358719892937</v>
       </c>
-      <c r="H485" t="n">
-        <v>-154.0744934467061</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -13081,9 +11624,6 @@
       <c r="G486" t="n">
         <v>530.705792314264</v>
       </c>
-      <c r="H486" t="n">
-        <v>-323.541171930424</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -13107,9 +11647,6 @@
       <c r="G487" t="n">
         <v>366.1237845858022</v>
       </c>
-      <c r="H487" t="n">
-        <v>-239.7381656134491</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -13133,9 +11670,6 @@
       <c r="G488" t="n">
         <v>198.6962348921064</v>
       </c>
-      <c r="H488" t="n">
-        <v>995.3257666376196</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -13159,9 +11693,6 @@
       <c r="G489" t="n">
         <v>206.4802574413901</v>
       </c>
-      <c r="H489" t="n">
-        <v>192.7664579828921</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -13185,9 +11716,6 @@
       <c r="G490" t="n">
         <v>130.7736862554245</v>
       </c>
-      <c r="H490" t="n">
-        <v>509.6951368930739</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -13211,9 +11739,6 @@
       <c r="G491" t="n">
         <v>308.8609399394046</v>
       </c>
-      <c r="H491" t="n">
-        <v>-169.0926083921863</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -13237,9 +11762,6 @@
       <c r="G492" t="n">
         <v>470.1475817136757</v>
       </c>
-      <c r="H492" t="n">
-        <v>-314.0259218031314</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -13263,9 +11785,6 @@
       <c r="G493" t="n">
         <v>177.7333284748242</v>
       </c>
-      <c r="H493" t="n">
-        <v>176.8700221225651</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -13289,9 +11808,6 @@
       <c r="G494" t="n">
         <v>184.909249837809</v>
       </c>
-      <c r="H494" t="n">
-        <v>389.7312065480349</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -13315,9 +11831,6 @@
       <c r="G495" t="n">
         <v>287.6457792763024</v>
       </c>
-      <c r="H495" t="n">
-        <v>-121.7500793016024</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -13341,9 +11854,6 @@
       <c r="G496" t="n">
         <v>194.1366020472757</v>
       </c>
-      <c r="H496" t="n">
-        <v>213.1035811751723</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -13367,9 +11877,6 @@
       <c r="G497" t="n">
         <v>236.7191000773739</v>
       </c>
-      <c r="H497" t="n">
-        <v>14.29359362579713</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -13393,9 +11900,6 @@
       <c r="G498" t="n">
         <v>108.4549174772413</v>
       </c>
-      <c r="H498" t="n">
-        <v>-3082.175645896491</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -13419,9 +11923,6 @@
       <c r="G499" t="n">
         <v>201.2121981714189</v>
       </c>
-      <c r="H499" t="n">
-        <v>228.2338480408928</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -13445,9 +11946,6 @@
       <c r="G500" t="n">
         <v>205.0530611646599</v>
       </c>
-      <c r="H500" t="n">
-        <v>794.8262646170941</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -13471,9 +11969,6 @@
       <c r="G501" t="n">
         <v>266.8003793837181</v>
       </c>
-      <c r="H501" t="n">
-        <v>55.45376948569736</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -13497,9 +11992,6 @@
       <c r="G502" t="n">
         <v>454.5404264637098</v>
       </c>
-      <c r="H502" t="n">
-        <v>-352.7684629930419</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -13523,9 +12015,6 @@
       <c r="G503" t="n">
         <v>161.3311545941339</v>
       </c>
-      <c r="H503" t="n">
-        <v>930.3872948090853</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -13549,9 +12038,6 @@
       <c r="G504" t="n">
         <v>230.3126126701382</v>
       </c>
-      <c r="H504" t="n">
-        <v>-18.87536307987772</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -13575,9 +12061,6 @@
       <c r="G505" t="n">
         <v>203.3671277195349</v>
       </c>
-      <c r="H505" t="n">
-        <v>554.7129529515772</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -13601,9 +12084,6 @@
       <c r="G506" t="n">
         <v>176.2818850598353</v>
       </c>
-      <c r="H506" t="n">
-        <v>494.1127113375444</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -13627,9 +12107,6 @@
       <c r="G507" t="n">
         <v>474.5033949449048</v>
       </c>
-      <c r="H507" t="n">
-        <v>-320.9373902162613</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -13653,9 +12130,6 @@
       <c r="G508" t="n">
         <v>99.33585867874183</v>
       </c>
-      <c r="H508" t="n">
-        <v>293.4280017508103</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -13679,9 +12153,6 @@
       <c r="G509" t="n">
         <v>156.4288504075296</v>
       </c>
-      <c r="H509" t="n">
-        <v>-183.7638340970095</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -13705,9 +12176,6 @@
       <c r="G510" t="n">
         <v>193.1690580216328</v>
       </c>
-      <c r="H510" t="n">
-        <v>-90.52591306650935</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -13731,9 +12199,6 @@
       <c r="G511" t="n">
         <v>502.2140098760443</v>
       </c>
-      <c r="H511" t="n">
-        <v>-412.7343037803407</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -13757,9 +12222,6 @@
       <c r="G512" t="n">
         <v>241.546725873968</v>
       </c>
-      <c r="H512" t="n">
-        <v>32.89432959893396</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -13783,9 +12245,6 @@
       <c r="G513" t="n">
         <v>501.6637314411207</v>
       </c>
-      <c r="H513" t="n">
-        <v>-306.1718646256186</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -13809,9 +12268,6 @@
       <c r="G514" t="n">
         <v>267.4995170081102</v>
       </c>
-      <c r="H514" t="n">
-        <v>872.7155035842023</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -13835,9 +12291,6 @@
       <c r="G515" t="n">
         <v>199.6637204050944</v>
       </c>
-      <c r="H515" t="n">
-        <v>227.724973583388</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -13861,9 +12314,6 @@
       <c r="G516" t="n">
         <v>460.8648967691788</v>
       </c>
-      <c r="H516" t="n">
-        <v>-429.7317741147857</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -13887,9 +12337,6 @@
       <c r="G517" t="n">
         <v>343.4509582626749</v>
       </c>
-      <c r="H517" t="n">
-        <v>142.7352394297444</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -13913,9 +12360,6 @@
       <c r="G518" t="n">
         <v>473.0667166225604</v>
       </c>
-      <c r="H518" t="n">
-        <v>-305.852846836221</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -13939,9 +12383,6 @@
       <c r="G519" t="n">
         <v>59.40612971022731</v>
       </c>
-      <c r="H519" t="n">
-        <v>-860.2378678655823</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -13965,9 +12406,6 @@
       <c r="G520" t="n">
         <v>204.1330547768963</v>
       </c>
-      <c r="H520" t="n">
-        <v>72.07898923635315</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -13991,9 +12429,6 @@
       <c r="G521" t="n">
         <v>88.83724495324149</v>
       </c>
-      <c r="H521" t="n">
-        <v>-371.3953145210349</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -14017,9 +12452,6 @@
       <c r="G522" t="n">
         <v>208.2308531614801</v>
       </c>
-      <c r="H522" t="n">
-        <v>1417.343009601163</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -14043,9 +12475,6 @@
       <c r="G523" t="n">
         <v>299.4273282917338</v>
       </c>
-      <c r="H523" t="n">
-        <v>-94.39293933772828</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -14069,9 +12498,6 @@
       <c r="G524" t="n">
         <v>40.12766609656833</v>
       </c>
-      <c r="H524" t="n">
-        <v>1208.356860800539</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -14095,9 +12521,6 @@
       <c r="G525" t="n">
         <v>539.5990856589589</v>
       </c>
-      <c r="H525" t="n">
-        <v>-321.4539336587181</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -14121,9 +12544,6 @@
       <c r="G526" t="n">
         <v>250.9973690310747</v>
       </c>
-      <c r="H526" t="n">
-        <v>37.53081262254402</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -14147,9 +12567,6 @@
       <c r="G527" t="n">
         <v>272.525440993782</v>
       </c>
-      <c r="H527" t="n">
-        <v>-86.04179314786913</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -14173,9 +12590,6 @@
       <c r="G528" t="n">
         <v>61.65173396973989</v>
       </c>
-      <c r="H528" t="n">
-        <v>271.7143841861377</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -14199,9 +12613,6 @@
       <c r="G529" t="n">
         <v>152.2171436604011</v>
       </c>
-      <c r="H529" t="n">
-        <v>32.19709530233911</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -14225,9 +12636,6 @@
       <c r="G530" t="n">
         <v>202.8030825017334</v>
       </c>
-      <c r="H530" t="n">
-        <v>399.5463672234646</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -14251,9 +12659,6 @@
       <c r="G531" t="n">
         <v>303.5582352532722</v>
       </c>
-      <c r="H531" t="n">
-        <v>154.7009163292684</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -14277,9 +12682,6 @@
       <c r="G532" t="n">
         <v>449.6416221193597</v>
       </c>
-      <c r="H532" t="n">
-        <v>-63.47565157585242</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -14303,9 +12705,6 @@
       <c r="G533" t="n">
         <v>233.0060042921284</v>
       </c>
-      <c r="H533" t="n">
-        <v>-156.8393694706527</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -14329,9 +12728,6 @@
       <c r="G534" t="n">
         <v>365.4287406505287</v>
       </c>
-      <c r="H534" t="n">
-        <v>-32.81186498900482</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -14355,9 +12751,6 @@
       <c r="G535" t="n">
         <v>263.9863234175524</v>
       </c>
-      <c r="H535" t="n">
-        <v>156.4597466302084</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -14381,9 +12774,6 @@
       <c r="G536" t="n">
         <v>149.4256183281506</v>
       </c>
-      <c r="H536" t="n">
-        <v>-160.8305148917204</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -14407,9 +12797,6 @@
       <c r="G537" t="n">
         <v>330.2660300174602</v>
       </c>
-      <c r="H537" t="n">
-        <v>-169.6379504025763</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -14433,9 +12820,6 @@
       <c r="G538" t="n">
         <v>499.0209240425326</v>
       </c>
-      <c r="H538" t="n">
-        <v>-694.2834218244626</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -14459,9 +12843,6 @@
       <c r="G539" t="n">
         <v>99.05732126728971</v>
       </c>
-      <c r="H539" t="n">
-        <v>-291.9829812949276</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -14485,9 +12866,6 @@
       <c r="G540" t="n">
         <v>468.1830821665931</v>
       </c>
-      <c r="H540" t="n">
-        <v>-699.0270004193189</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -14511,9 +12889,6 @@
       <c r="G541" t="n">
         <v>256.5930316024024</v>
       </c>
-      <c r="H541" t="n">
-        <v>-160.5293809282819</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -14537,9 +12912,6 @@
       <c r="G542" t="n">
         <v>94.40453960430163</v>
       </c>
-      <c r="H542" t="n">
-        <v>-100.2551546919491</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -14563,9 +12935,6 @@
       <c r="G543" t="n">
         <v>247.4687639794099</v>
       </c>
-      <c r="H543" t="n">
-        <v>-38.38334588404521</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -14589,9 +12958,6 @@
       <c r="G544" t="n">
         <v>160.1124975524262</v>
       </c>
-      <c r="H544" t="n">
-        <v>-434.5429673184241</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -14615,9 +12981,6 @@
       <c r="G545" t="n">
         <v>407.1862897951532</v>
       </c>
-      <c r="H545" t="n">
-        <v>-496.8161117735017</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -14641,9 +13004,6 @@
       <c r="G546" t="n">
         <v>100.9014776574091</v>
       </c>
-      <c r="H546" t="n">
-        <v>-13.09638915183907</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -14667,9 +13027,6 @@
       <c r="G547" t="n">
         <v>215.6618514234176</v>
       </c>
-      <c r="H547" t="n">
-        <v>-29.42541295829929</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -14693,9 +13050,6 @@
       <c r="G548" t="n">
         <v>399.7710644547503</v>
       </c>
-      <c r="H548" t="n">
-        <v>41.58465713609488</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -14719,9 +13073,6 @@
       <c r="G549" t="n">
         <v>445.6915027526201</v>
       </c>
-      <c r="H549" t="n">
-        <v>-523.8526458758253</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -14745,9 +13096,6 @@
       <c r="G550" t="n">
         <v>603.654450725946</v>
       </c>
-      <c r="H550" t="n">
-        <v>-867.1407705937728</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -14771,9 +13119,6 @@
       <c r="G551" t="n">
         <v>275.6128306725886</v>
       </c>
-      <c r="H551" t="n">
-        <v>-231.2185801515453</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -14797,9 +13142,6 @@
       <c r="G552" t="n">
         <v>316.5567604195722</v>
       </c>
-      <c r="H552" t="n">
-        <v>-460.7778934271565</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -14823,9 +13165,6 @@
       <c r="G553" t="n">
         <v>393.5814625569145</v>
       </c>
-      <c r="H553" t="n">
-        <v>-387.7414176600731</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -14849,9 +13188,6 @@
       <c r="G554" t="n">
         <v>396.6968361292472</v>
       </c>
-      <c r="H554" t="n">
-        <v>-308.2344623104655</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -14875,9 +13211,6 @@
       <c r="G555" t="n">
         <v>136.4731900171342</v>
       </c>
-      <c r="H555" t="n">
-        <v>-148.4752866067115</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -14901,9 +13234,6 @@
       <c r="G556" t="n">
         <v>415.8217789121333</v>
       </c>
-      <c r="H556" t="n">
-        <v>-366.3826138821019</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -14927,9 +13257,6 @@
       <c r="G557" t="n">
         <v>173.7650928179621</v>
       </c>
-      <c r="H557" t="n">
-        <v>-96.81244331052341</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -14953,9 +13280,6 @@
       <c r="G558" t="n">
         <v>296.1486820457557</v>
       </c>
-      <c r="H558" t="n">
-        <v>-79.86390355258625</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -14979,9 +13303,6 @@
       <c r="G559" t="n">
         <v>88.46858254313892</v>
       </c>
-      <c r="H559" t="n">
-        <v>-59.79715631338217</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -15005,9 +13326,6 @@
       <c r="G560" t="n">
         <v>557.0176161666278</v>
       </c>
-      <c r="H560" t="n">
-        <v>-1115.161793947148</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -15031,9 +13349,6 @@
       <c r="G561" t="n">
         <v>189.7169772045815</v>
       </c>
-      <c r="H561" t="n">
-        <v>10.44008401683037</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -15057,9 +13372,6 @@
       <c r="G562" t="n">
         <v>466.4521877039886</v>
       </c>
-      <c r="H562" t="n">
-        <v>-350.3387288064392</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -15083,9 +13395,6 @@
       <c r="G563" t="n">
         <v>148.571558231961</v>
       </c>
-      <c r="H563" t="n">
-        <v>97.86526104818628</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -15109,9 +13418,6 @@
       <c r="G564" t="n">
         <v>244.6459388368232</v>
       </c>
-      <c r="H564" t="n">
-        <v>-272.228478497729</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -15135,9 +13441,6 @@
       <c r="G565" t="n">
         <v>321.6496975043341</v>
       </c>
-      <c r="H565" t="n">
-        <v>-251.0398924338841</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -15161,9 +13464,6 @@
       <c r="G566" t="n">
         <v>167.432318108946</v>
       </c>
-      <c r="H566" t="n">
-        <v>822.6444593557896</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -15187,9 +13487,6 @@
       <c r="G567" t="n">
         <v>394.0303315714157</v>
       </c>
-      <c r="H567" t="n">
-        <v>-160.2143095099095</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -15213,9 +13510,6 @@
       <c r="G568" t="n">
         <v>266.0958107997598</v>
       </c>
-      <c r="H568" t="n">
-        <v>167.0356287451729</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -15239,9 +13533,6 @@
       <c r="G569" t="n">
         <v>242.7212991886152</v>
       </c>
-      <c r="H569" t="n">
-        <v>-74.3969918849087</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -15265,9 +13556,6 @@
       <c r="G570" t="n">
         <v>172.786773144405</v>
       </c>
-      <c r="H570" t="n">
-        <v>84.38700855583065</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -15291,9 +13579,6 @@
       <c r="G571" t="n">
         <v>119.3964690044329</v>
       </c>
-      <c r="H571" t="n">
-        <v>8450.047087161844</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -15317,9 +13602,6 @@
       <c r="G572" t="n">
         <v>234.2469123185328</v>
       </c>
-      <c r="H572" t="n">
-        <v>-1020.71440106041</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -15343,9 +13625,6 @@
       <c r="G573" t="n">
         <v>55.96744516247381</v>
       </c>
-      <c r="H573" t="n">
-        <v>934.1984950656815</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -15369,9 +13648,6 @@
       <c r="G574" t="n">
         <v>263.5880446175102</v>
       </c>
-      <c r="H574" t="n">
-        <v>-104.140247309509</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -15395,9 +13671,6 @@
       <c r="G575" t="n">
         <v>143.9737905132135</v>
       </c>
-      <c r="H575" t="n">
-        <v>-398.9017920370146</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -15421,9 +13694,6 @@
       <c r="G576" t="n">
         <v>192.6648205920298</v>
       </c>
-      <c r="H576" t="n">
-        <v>-370.1703360093006</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -15447,9 +13717,6 @@
       <c r="G577" t="n">
         <v>192.6551711296614</v>
       </c>
-      <c r="H577" t="n">
-        <v>909.90658139375</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -15473,9 +13740,6 @@
       <c r="G578" t="n">
         <v>195.0487914372474</v>
       </c>
-      <c r="H578" t="n">
-        <v>571.3862740903559</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -15499,9 +13763,6 @@
       <c r="G579" t="n">
         <v>173.2299911944204</v>
       </c>
-      <c r="H579" t="n">
-        <v>-234.151473028524</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -15525,9 +13786,6 @@
       <c r="G580" t="n">
         <v>342.4728246447154</v>
       </c>
-      <c r="H580" t="n">
-        <v>14.36754778537063</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -15551,9 +13809,6 @@
       <c r="G581" t="n">
         <v>201.9325605790433</v>
       </c>
-      <c r="H581" t="n">
-        <v>1055.285558954066</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -15577,9 +13832,6 @@
       <c r="G582" t="n">
         <v>150.5556371518064</v>
       </c>
-      <c r="H582" t="n">
-        <v>-9829.807908991255</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -15603,9 +13855,6 @@
       <c r="G583" t="n">
         <v>276.5566686855374</v>
       </c>
-      <c r="H583" t="n">
-        <v>17955.33375886845</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -15629,9 +13878,6 @@
       <c r="G584" t="n">
         <v>147.1871356378689</v>
       </c>
-      <c r="H584" t="n">
-        <v>-4472.16977056512</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -15655,9 +13901,6 @@
       <c r="G585" t="n">
         <v>141.1395654545929</v>
       </c>
-      <c r="H585" t="n">
-        <v>-1264.96821747457</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -15681,9 +13924,6 @@
       <c r="G586" t="n">
         <v>176.8987232039831</v>
       </c>
-      <c r="H586" t="n">
-        <v>21113.95460771393</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -15707,9 +13947,6 @@
       <c r="G587" t="n">
         <v>218.356340939852</v>
       </c>
-      <c r="H587" t="n">
-        <v>6105.701706554806</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -15733,9 +13970,6 @@
       <c r="G588" t="n">
         <v>271.8431305837885</v>
       </c>
-      <c r="H588" t="n">
-        <v>-440.7897075792015</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -15759,9 +13993,6 @@
       <c r="G589" t="n">
         <v>348.3949189329567</v>
       </c>
-      <c r="H589" t="n">
-        <v>-226.4390729079293</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -15785,9 +14016,6 @@
       <c r="G590" t="n">
         <v>261.8981731841762</v>
       </c>
-      <c r="H590" t="n">
-        <v>5685.19794204461</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -15811,9 +14039,6 @@
       <c r="G591" t="n">
         <v>338.9111933598435</v>
       </c>
-      <c r="H591" t="n">
-        <v>3842.596232257085</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -15837,9 +14062,6 @@
       <c r="G592" t="n">
         <v>145.6023560613098</v>
       </c>
-      <c r="H592" t="n">
-        <v>1589.262891987847</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -15863,9 +14085,6 @@
       <c r="G593" t="n">
         <v>213.358773957411</v>
       </c>
-      <c r="H593" t="n">
-        <v>2989.060591006142</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -15889,9 +14108,6 @@
       <c r="G594" t="n">
         <v>79.82733888295766</v>
       </c>
-      <c r="H594" t="n">
-        <v>2576.103838591125</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -15915,9 +14131,6 @@
       <c r="G595" t="n">
         <v>363.3545762064405</v>
       </c>
-      <c r="H595" t="n">
-        <v>-521.5043358775077</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -15941,9 +14154,6 @@
       <c r="G596" t="n">
         <v>236.1047160032303</v>
       </c>
-      <c r="H596" t="n">
-        <v>150.6673068623076</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -15967,9 +14177,6 @@
       <c r="G597" t="n">
         <v>318.6992936057722</v>
       </c>
-      <c r="H597" t="n">
-        <v>2888.904662630215</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -15993,9 +14200,6 @@
       <c r="G598" t="n">
         <v>215.1848432804517</v>
       </c>
-      <c r="H598" t="n">
-        <v>727.606312138888</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -16019,9 +14223,6 @@
       <c r="G599" t="n">
         <v>220.4809807698102</v>
       </c>
-      <c r="H599" t="n">
-        <v>143.7830748659684</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -16045,9 +14246,6 @@
       <c r="G600" t="n">
         <v>428.3120715458798</v>
       </c>
-      <c r="H600" t="n">
-        <v>-223.8164233631594</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -16071,9 +14269,6 @@
       <c r="G601" t="n">
         <v>211.1790567445773</v>
       </c>
-      <c r="H601" t="n">
-        <v>209.610188633055</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -16097,9 +14292,6 @@
       <c r="G602" t="n">
         <v>61.38876804717894</v>
       </c>
-      <c r="H602" t="n">
-        <v>6639.062711883844</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -16123,9 +14315,6 @@
       <c r="G603" t="n">
         <v>131.3850531002236</v>
       </c>
-      <c r="H603" t="n">
-        <v>4825.782880975158</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -16149,9 +14338,6 @@
       <c r="G604" t="n">
         <v>-81.6031739268814</v>
       </c>
-      <c r="H604" t="n">
-        <v>19372.44780380538</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -16175,9 +14361,6 @@
       <c r="G605" t="n">
         <v>101.7696614037606</v>
       </c>
-      <c r="H605" t="n">
-        <v>6971.245022252516</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -16201,9 +14384,6 @@
       <c r="G606" t="n">
         <v>269.7654985160183</v>
       </c>
-      <c r="H606" t="n">
-        <v>-2084.692829812095</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -16227,9 +14407,6 @@
       <c r="G607" t="n">
         <v>240.5592380196063</v>
       </c>
-      <c r="H607" t="n">
-        <v>88.27310326343229</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -16253,9 +14430,6 @@
       <c r="G608" t="n">
         <v>89.81009985104512</v>
       </c>
-      <c r="H608" t="n">
-        <v>9713.132024008069</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -16279,9 +14453,6 @@
       <c r="G609" t="n">
         <v>185.3645477222391</v>
       </c>
-      <c r="H609" t="n">
-        <v>380.6946372168256</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -16305,9 +14476,6 @@
       <c r="G610" t="n">
         <v>222.8909216480906</v>
       </c>
-      <c r="H610" t="n">
-        <v>374.695788998452</v>
-      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -16331,9 +14499,6 @@
       <c r="G611" t="n">
         <v>133.0412862806136</v>
       </c>
-      <c r="H611" t="n">
-        <v>6788.574085602641</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -16357,9 +14522,6 @@
       <c r="G612" t="n">
         <v>150.3747967691405</v>
       </c>
-      <c r="H612" t="n">
-        <v>2047.462341826719</v>
-      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -16383,9 +14545,6 @@
       <c r="G613" t="n">
         <v>103.9557752013837</v>
       </c>
-      <c r="H613" t="n">
-        <v>1114.616119697007</v>
-      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -16409,9 +14568,6 @@
       <c r="G614" t="n">
         <v>161.5573366260888</v>
       </c>
-      <c r="H614" t="n">
-        <v>4394.314840328509</v>
-      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -16435,9 +14591,6 @@
       <c r="G615" t="n">
         <v>247.9375813492061</v>
       </c>
-      <c r="H615" t="n">
-        <v>-265.5986070475001</v>
-      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -16461,9 +14614,6 @@
       <c r="G616" t="n">
         <v>238.6633771450285</v>
       </c>
-      <c r="H616" t="n">
-        <v>-423.0490159662103</v>
-      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -16487,9 +14637,6 @@
       <c r="G617" t="n">
         <v>178.2664418663123</v>
       </c>
-      <c r="H617" t="n">
-        <v>123.8512683858943</v>
-      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -16513,9 +14660,6 @@
       <c r="G618" t="n">
         <v>304.4843050564993</v>
       </c>
-      <c r="H618" t="n">
-        <v>148.915995325247</v>
-      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -16539,9 +14683,6 @@
       <c r="G619" t="n">
         <v>277.6895329283418</v>
       </c>
-      <c r="H619" t="n">
-        <v>-4083.941064456245</v>
-      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -16564,9 +14705,6 @@
       </c>
       <c r="G620" t="n">
         <v>183.4951509432091</v>
-      </c>
-      <c r="H620" t="n">
-        <v>432.2053441840054</v>
       </c>
     </row>
   </sheetData>
